--- a/Code/Results/Cases/Case_3_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_37/res_bus/vm_pu.xlsx
@@ -427,10 +427,10 @@
         <v>1.008715365772815</v>
       </c>
       <c r="E2">
-        <v>0.99622645698526</v>
+        <v>0.9962264569852601</v>
       </c>
       <c r="F2">
-        <v>0.9968244431078903</v>
+        <v>0.9968244431078906</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9947898422861637</v>
+        <v>0.9947898422861648</v>
       </c>
       <c r="D3">
-        <v>1.014383865997433</v>
+        <v>1.014383865997434</v>
       </c>
       <c r="E3">
-        <v>1.002546697901081</v>
+        <v>1.002546697901082</v>
       </c>
       <c r="F3">
-        <v>1.004951755808895</v>
+        <v>1.004951755808896</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043396176927681</v>
+        <v>1.043396176927682</v>
       </c>
       <c r="J3">
-        <v>1.015423556248408</v>
+        <v>1.01542355624841</v>
       </c>
       <c r="K3">
-        <v>1.024835952048781</v>
+        <v>1.024835952048782</v>
       </c>
       <c r="L3">
-        <v>1.01314709663151</v>
+        <v>1.013147096631511</v>
       </c>
       <c r="M3">
-        <v>1.015521667655095</v>
+        <v>1.015521667655096</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,7 +497,7 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9994021455085005</v>
+        <v>0.9994021455085004</v>
       </c>
       <c r="D4">
         <v>1.017938804039749</v>
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.001307672853774</v>
+        <v>1.001307672853775</v>
       </c>
       <c r="D5">
-        <v>1.019407705608988</v>
+        <v>1.01940770560899</v>
       </c>
       <c r="E5">
-        <v>1.008154213698243</v>
+        <v>1.008154213698244</v>
       </c>
       <c r="F5">
-        <v>1.012155125157214</v>
+        <v>1.012155125157215</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.045702729818791</v>
       </c>
       <c r="J5">
-        <v>1.020223557360322</v>
+        <v>1.020223557360324</v>
       </c>
       <c r="K5">
-        <v>1.029058533166489</v>
+        <v>1.02905853316649</v>
       </c>
       <c r="L5">
-        <v>1.017933053739565</v>
+        <v>1.017933053739567</v>
       </c>
       <c r="M5">
-        <v>1.021888051065793</v>
+        <v>1.021888051065794</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -579,10 +579,10 @@
         <v>1.0196528795929</v>
       </c>
       <c r="E6">
-        <v>1.008428036408576</v>
+        <v>1.008428036408577</v>
       </c>
       <c r="F6">
-        <v>1.012506714145317</v>
+        <v>1.012506714145316</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,7 +591,7 @@
         <v>1.045814583563705</v>
       </c>
       <c r="J6">
-        <v>1.020457545406388</v>
+        <v>1.020457545406389</v>
       </c>
       <c r="K6">
         <v>1.029264221775307</v>
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9994277362684061</v>
+        <v>0.9994277362684075</v>
       </c>
       <c r="D7">
-        <v>1.017958530319299</v>
+        <v>1.0179585303193</v>
       </c>
       <c r="E7">
-        <v>1.006536025481724</v>
+        <v>1.006536025481725</v>
       </c>
       <c r="F7">
         <v>1.010077072044075</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045040202021602</v>
+        <v>1.045040202021603</v>
       </c>
       <c r="J7">
-        <v>1.018839995892576</v>
+        <v>1.018839995892577</v>
       </c>
       <c r="K7">
-        <v>1.027842007271014</v>
+        <v>1.027842007271015</v>
       </c>
       <c r="L7">
-        <v>1.016553226150314</v>
+        <v>1.016553226150315</v>
       </c>
       <c r="M7">
         <v>1.020052417118775</v>
@@ -649,25 +649,25 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9899509639687629</v>
+        <v>0.9899509639687628</v>
       </c>
       <c r="D8">
         <v>1.010655364217515</v>
       </c>
       <c r="E8">
-        <v>0.9983887710109921</v>
+        <v>0.998388771010992</v>
       </c>
       <c r="F8">
-        <v>0.9996060789421839</v>
+        <v>0.999606078942184</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041667367867682</v>
+        <v>1.041667367867683</v>
       </c>
       <c r="J8">
-        <v>1.01185473825737</v>
+        <v>1.011854738257369</v>
       </c>
       <c r="K8">
         <v>1.021692910599855</v>
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.972012999509142</v>
+        <v>0.9720129995091406</v>
       </c>
       <c r="D9">
-        <v>0.9968486185779036</v>
+        <v>0.996848618577903</v>
       </c>
       <c r="E9">
-        <v>0.983013432973471</v>
+        <v>0.9830134329734694</v>
       </c>
       <c r="F9">
-        <v>0.9797992997627437</v>
+        <v>0.9797992997627426</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035155299972441</v>
+        <v>1.03515529997244</v>
       </c>
       <c r="J9">
-        <v>0.9985942907086516</v>
+        <v>0.9985942907086505</v>
       </c>
       <c r="K9">
-        <v>1.009993032510564</v>
+        <v>1.009993032510563</v>
       </c>
       <c r="L9">
-        <v>0.996388251705347</v>
+        <v>0.9963882517053455</v>
       </c>
       <c r="M9">
-        <v>0.9932288485053566</v>
+        <v>0.9932288485053555</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9590588996112343</v>
+        <v>0.959058899611234</v>
       </c>
       <c r="D10">
         <v>0.9868987419632034</v>
       </c>
       <c r="E10">
-        <v>0.971947956185399</v>
+        <v>0.9719479561853992</v>
       </c>
       <c r="F10">
-        <v>0.965498820104512</v>
+        <v>0.9654988201045123</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.03036986116873</v>
       </c>
       <c r="J10">
-        <v>0.9889966159059143</v>
+        <v>0.9889966159059144</v>
       </c>
       <c r="K10">
         <v>1.001508642448659</v>
       </c>
       <c r="L10">
-        <v>0.9868428687957301</v>
+        <v>0.9868428687957304</v>
       </c>
       <c r="M10">
-        <v>0.9805202553412354</v>
+        <v>0.9805202553412358</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9531702098189071</v>
+        <v>0.9531702098189084</v>
       </c>
       <c r="D11">
-        <v>0.9823830501165973</v>
+        <v>0.9823830501165982</v>
       </c>
       <c r="E11">
-        <v>0.9669285298582253</v>
+        <v>0.9669285298582261</v>
       </c>
       <c r="F11">
-        <v>0.9589972683103228</v>
+        <v>0.9589972683103238</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028175996448341</v>
+        <v>1.028175996448342</v>
       </c>
       <c r="J11">
-        <v>0.9846298179476071</v>
+        <v>0.9846298179476082</v>
       </c>
       <c r="K11">
-        <v>0.9976450232580304</v>
+        <v>0.9976450232580313</v>
       </c>
       <c r="L11">
-        <v>0.9825022886475876</v>
+        <v>0.9825022886475882</v>
       </c>
       <c r="M11">
-        <v>0.974736199176149</v>
+        <v>0.9747361991761496</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.950936562610893</v>
+        <v>0.9509365626108941</v>
       </c>
       <c r="D12">
-        <v>0.9806715295772068</v>
+        <v>0.9806715295772075</v>
       </c>
       <c r="E12">
-        <v>0.965026381701298</v>
+        <v>0.9650263817012992</v>
       </c>
       <c r="F12">
-        <v>0.9565308690790667</v>
+        <v>0.9565308690790678</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027341169881052</v>
+        <v>1.027341169881053</v>
       </c>
       <c r="J12">
-        <v>0.9829729786243423</v>
+        <v>0.9829729786243433</v>
       </c>
       <c r="K12">
-        <v>0.9961786435600459</v>
+        <v>0.9961786435600467</v>
       </c>
       <c r="L12">
-        <v>0.9808557605542145</v>
+        <v>0.9808557605542156</v>
       </c>
       <c r="M12">
-        <v>0.9725411017757278</v>
+        <v>0.9725411017757288</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.951417860431642</v>
+        <v>0.9514178604316437</v>
       </c>
       <c r="D13">
-        <v>0.9810402574009236</v>
+        <v>0.981040257400925</v>
       </c>
       <c r="E13">
-        <v>0.9654361663103769</v>
+        <v>0.9654361663103782</v>
       </c>
       <c r="F13">
-        <v>0.9570623352513834</v>
+        <v>0.957062335251385</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027521173653758</v>
+        <v>1.027521173653759</v>
       </c>
       <c r="J13">
-        <v>0.983330006901856</v>
+        <v>0.9833300069018575</v>
       </c>
       <c r="K13">
-        <v>0.9964946498701454</v>
+        <v>0.9964946498701468</v>
       </c>
       <c r="L13">
-        <v>0.9812105504913957</v>
+        <v>0.9812105504913968</v>
       </c>
       <c r="M13">
-        <v>0.9730141460634943</v>
+        <v>0.9730141460634959</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9529865482110029</v>
+        <v>0.9529865482110037</v>
       </c>
       <c r="D14">
-        <v>0.9822422919361485</v>
+        <v>0.9822422919361491</v>
       </c>
       <c r="E14">
-        <v>0.9667720887179716</v>
+        <v>0.9667720887179727</v>
       </c>
       <c r="F14">
-        <v>0.958794475507932</v>
+        <v>0.9587944755079328</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.028107406249464</v>
       </c>
       <c r="J14">
-        <v>0.9844935930078789</v>
+        <v>0.9844935930078795</v>
       </c>
       <c r="K14">
-        <v>0.9975244667938483</v>
+        <v>0.9975244667938489</v>
       </c>
       <c r="L14">
-        <v>0.9823669041289528</v>
+        <v>0.9823669041289536</v>
       </c>
       <c r="M14">
-        <v>0.9745557309896236</v>
+        <v>0.9745557309896243</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9539467894652786</v>
+        <v>0.9539467894652773</v>
       </c>
       <c r="D15">
-        <v>0.982978275997388</v>
+        <v>0.9829782759973869</v>
       </c>
       <c r="E15">
-        <v>0.9675900859226597</v>
+        <v>0.9675900859226584</v>
       </c>
       <c r="F15">
-        <v>0.9598547280578305</v>
+        <v>0.9598547280578289</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.028465909929889</v>
       </c>
       <c r="J15">
-        <v>0.9852058022270038</v>
+        <v>0.9852058022270027</v>
       </c>
       <c r="K15">
-        <v>0.998154740137028</v>
+        <v>0.9981547401370269</v>
       </c>
       <c r="L15">
-        <v>0.9830747342345818</v>
+        <v>0.9830747342345805</v>
       </c>
       <c r="M15">
-        <v>0.9754992291890615</v>
+        <v>0.97549922918906</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9594434680692311</v>
+        <v>0.9594434680692309</v>
       </c>
       <c r="D16">
-        <v>0.9871938152779327</v>
+        <v>0.9871938152779325</v>
       </c>
       <c r="E16">
-        <v>0.9722759913374565</v>
+        <v>0.9722759913374562</v>
       </c>
       <c r="F16">
-        <v>0.9659233822575057</v>
+        <v>0.9659233822575055</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030512761279835</v>
+        <v>1.030512761279834</v>
       </c>
       <c r="J16">
-        <v>0.9892817248910794</v>
+        <v>0.9892817248910791</v>
       </c>
       <c r="K16">
         <v>1.001760833563525</v>
       </c>
       <c r="L16">
-        <v>0.9871263160455761</v>
+        <v>0.987126316045576</v>
       </c>
       <c r="M16">
-        <v>0.9808978392773416</v>
+        <v>0.9808978392773414</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9628136924892776</v>
+        <v>0.9628136924892786</v>
       </c>
       <c r="D17">
-        <v>0.9897805858469926</v>
+        <v>0.9897805858469935</v>
       </c>
       <c r="E17">
-        <v>0.9751520031359582</v>
+        <v>0.9751520031359593</v>
       </c>
       <c r="F17">
-        <v>0.9696439883059964</v>
+        <v>0.9696439883059974</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.031763018581224</v>
       </c>
       <c r="J17">
-        <v>0.9917798976550504</v>
+        <v>0.9917798976550514</v>
       </c>
       <c r="K17">
-        <v>1.003970202891772</v>
+        <v>1.003970202891773</v>
       </c>
       <c r="L17">
-        <v>0.9896102012429424</v>
+        <v>0.9896102012429435</v>
       </c>
       <c r="M17">
-        <v>0.9842060601074097</v>
+        <v>0.9842060601074105</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.964752845443914</v>
+        <v>0.964752845443915</v>
       </c>
       <c r="D18">
-        <v>0.9912696277424857</v>
+        <v>0.9912696277424868</v>
       </c>
       <c r="E18">
-        <v>0.9768077908637779</v>
+        <v>0.9768077908637788</v>
       </c>
       <c r="F18">
-        <v>0.9717846777969652</v>
+        <v>0.9717846777969662</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032480648640224</v>
+        <v>1.032480648640225</v>
       </c>
       <c r="J18">
-        <v>0.9932169197821856</v>
+        <v>0.9932169197821868</v>
       </c>
       <c r="K18">
-        <v>1.005240779864379</v>
+        <v>1.00524077986438</v>
       </c>
       <c r="L18">
-        <v>0.9910392319608499</v>
+        <v>0.991039231960851</v>
       </c>
       <c r="M18">
-        <v>0.9861088912812004</v>
+        <v>0.9861088912812012</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9654096493581643</v>
+        <v>0.9654096493581631</v>
       </c>
       <c r="D19">
-        <v>0.9917740835146277</v>
+        <v>0.9917740835146265</v>
       </c>
       <c r="E19">
-        <v>0.9773687811285581</v>
+        <v>0.9773687811285571</v>
       </c>
       <c r="F19">
-        <v>0.9725097367603822</v>
+        <v>0.972509736760381</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032723416384501</v>
+        <v>1.0327234163845</v>
       </c>
       <c r="J19">
-        <v>0.9937035823551824</v>
+        <v>0.993703582355181</v>
       </c>
       <c r="K19">
-        <v>1.005671018941455</v>
+        <v>1.005671018941454</v>
       </c>
       <c r="L19">
-        <v>0.991523226723882</v>
+        <v>0.991523226723881</v>
       </c>
       <c r="M19">
-        <v>0.9867532855952846</v>
+        <v>0.9867532855952839</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9624548843720083</v>
+        <v>0.962454884372007</v>
       </c>
       <c r="D20">
-        <v>0.9895051161690021</v>
+        <v>0.9895051161690011</v>
       </c>
       <c r="E20">
-        <v>0.9748457065098177</v>
+        <v>0.9748457065098164</v>
       </c>
       <c r="F20">
-        <v>0.9692478849603021</v>
+        <v>0.969247884960301</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03163009121801</v>
+        <v>1.031630091218009</v>
       </c>
       <c r="J20">
-        <v>0.9915139696164855</v>
+        <v>0.9915139696164844</v>
       </c>
       <c r="K20">
-        <v>1.003735050332855</v>
+        <v>1.003735050332854</v>
       </c>
       <c r="L20">
-        <v>0.9893457704788025</v>
+        <v>0.9893457704788011</v>
       </c>
       <c r="M20">
-        <v>0.9838539209468457</v>
+        <v>0.9838539209468444</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9525259255823652</v>
+        <v>0.9525259255823655</v>
       </c>
       <c r="D21">
-        <v>0.9818892931964101</v>
+        <v>0.9818892931964106</v>
       </c>
       <c r="E21">
-        <v>0.9663797640828775</v>
+        <v>0.9663797640828777</v>
       </c>
       <c r="F21">
-        <v>0.9582858667087271</v>
+        <v>0.9582858667087273</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.027935339793428</v>
       </c>
       <c r="J21">
-        <v>0.9841519343548827</v>
+        <v>0.9841519343548829</v>
       </c>
       <c r="K21">
-        <v>0.9972220982826809</v>
+        <v>0.9972220982826815</v>
       </c>
       <c r="L21">
-        <v>0.982027359134886</v>
+        <v>0.9820273591348863</v>
       </c>
       <c r="M21">
-        <v>0.9741030988052405</v>
+        <v>0.9741030988052407</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9460125322164192</v>
+        <v>0.9460125322164183</v>
       </c>
       <c r="D22">
-        <v>0.9769012590424664</v>
+        <v>0.9769012590424655</v>
       </c>
       <c r="E22">
-        <v>0.9608366181493611</v>
+        <v>0.9608366181493602</v>
       </c>
       <c r="F22">
-        <v>0.9510930064156016</v>
+        <v>0.9510930064156011</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025496015598388</v>
+        <v>1.025496015598387</v>
       </c>
       <c r="J22">
-        <v>0.9793197994532626</v>
+        <v>0.9793197994532619</v>
       </c>
       <c r="K22">
-        <v>0.9929446273836755</v>
+        <v>0.9929446273836746</v>
       </c>
       <c r="L22">
-        <v>0.9772259876995197</v>
+        <v>0.9772259876995192</v>
       </c>
       <c r="M22">
-        <v>0.9676998331522833</v>
+        <v>0.9676998331522829</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9494926821356555</v>
+        <v>0.9494926821356565</v>
       </c>
       <c r="D23">
-        <v>0.9795655707701219</v>
+        <v>0.9795655707701223</v>
       </c>
       <c r="E23">
-        <v>0.9637973133612029</v>
+        <v>0.9637973133612039</v>
       </c>
       <c r="F23">
-        <v>0.9549364287742987</v>
+        <v>0.9549364287743002</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.026800781322938</v>
       </c>
       <c r="J23">
-        <v>0.9819018455216473</v>
+        <v>0.9819018455216484</v>
       </c>
       <c r="K23">
-        <v>0.9952305191462659</v>
+        <v>0.9952305191462664</v>
       </c>
       <c r="L23">
-        <v>0.9797913960441387</v>
+        <v>0.97979139604414</v>
       </c>
       <c r="M23">
-        <v>0.9711218066803207</v>
+        <v>0.9711218066803218</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,13 +1257,13 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9626170963262848</v>
+        <v>0.9626170963262847</v>
       </c>
       <c r="D24">
-        <v>0.9896296499528552</v>
+        <v>0.9896296499528555</v>
       </c>
       <c r="E24">
-        <v>0.9749841757024976</v>
+        <v>0.9749841757024981</v>
       </c>
       <c r="F24">
         <v>0.9694269577387525</v>
@@ -1275,16 +1275,16 @@
         <v>1.031690191171634</v>
       </c>
       <c r="J24">
-        <v>0.9916341929954203</v>
+        <v>0.9916341929954205</v>
       </c>
       <c r="K24">
         <v>1.003841361417188</v>
       </c>
       <c r="L24">
-        <v>0.9894653162487684</v>
+        <v>0.9894653162487688</v>
       </c>
       <c r="M24">
-        <v>0.9840131199644824</v>
+        <v>0.9840131199644826</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9768127059960514</v>
+        <v>0.9768127059960516</v>
       </c>
       <c r="D25">
         <v>1.000540098628412</v>
       </c>
       <c r="E25">
-        <v>0.9871215090055275</v>
+        <v>0.9871215090055274</v>
       </c>
       <c r="F25">
-        <v>0.9850980558708737</v>
+        <v>0.9850980558708738</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1319,10 +1319,10 @@
         <v>1.013130036043189</v>
       </c>
       <c r="L25">
-        <v>0.9999230919259591</v>
+        <v>0.999923091925959</v>
       </c>
       <c r="M25">
-        <v>0.9979321958325637</v>
+        <v>0.9979321958325638</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_37/res_bus/vm_pu.xlsx
@@ -427,10 +427,10 @@
         <v>1.008715365772815</v>
       </c>
       <c r="E2">
-        <v>0.9962264569852601</v>
+        <v>0.99622645698526</v>
       </c>
       <c r="F2">
-        <v>0.9968244431078906</v>
+        <v>0.9968244431078903</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9947898422861648</v>
+        <v>0.9947898422861637</v>
       </c>
       <c r="D3">
-        <v>1.014383865997434</v>
+        <v>1.014383865997433</v>
       </c>
       <c r="E3">
-        <v>1.002546697901082</v>
+        <v>1.002546697901081</v>
       </c>
       <c r="F3">
-        <v>1.004951755808896</v>
+        <v>1.004951755808895</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043396176927682</v>
+        <v>1.043396176927681</v>
       </c>
       <c r="J3">
-        <v>1.01542355624841</v>
+        <v>1.015423556248408</v>
       </c>
       <c r="K3">
-        <v>1.024835952048782</v>
+        <v>1.024835952048781</v>
       </c>
       <c r="L3">
-        <v>1.013147096631511</v>
+        <v>1.01314709663151</v>
       </c>
       <c r="M3">
-        <v>1.015521667655096</v>
+        <v>1.015521667655095</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,7 +497,7 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9994021455085004</v>
+        <v>0.9994021455085005</v>
       </c>
       <c r="D4">
         <v>1.017938804039749</v>
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.001307672853775</v>
+        <v>1.001307672853774</v>
       </c>
       <c r="D5">
-        <v>1.01940770560899</v>
+        <v>1.019407705608988</v>
       </c>
       <c r="E5">
-        <v>1.008154213698244</v>
+        <v>1.008154213698243</v>
       </c>
       <c r="F5">
-        <v>1.012155125157215</v>
+        <v>1.012155125157214</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.045702729818791</v>
       </c>
       <c r="J5">
-        <v>1.020223557360324</v>
+        <v>1.020223557360322</v>
       </c>
       <c r="K5">
-        <v>1.02905853316649</v>
+        <v>1.029058533166489</v>
       </c>
       <c r="L5">
-        <v>1.017933053739567</v>
+        <v>1.017933053739565</v>
       </c>
       <c r="M5">
-        <v>1.021888051065794</v>
+        <v>1.021888051065793</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -579,10 +579,10 @@
         <v>1.0196528795929</v>
       </c>
       <c r="E6">
-        <v>1.008428036408577</v>
+        <v>1.008428036408576</v>
       </c>
       <c r="F6">
-        <v>1.012506714145316</v>
+        <v>1.012506714145317</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,7 +591,7 @@
         <v>1.045814583563705</v>
       </c>
       <c r="J6">
-        <v>1.020457545406389</v>
+        <v>1.020457545406388</v>
       </c>
       <c r="K6">
         <v>1.029264221775307</v>
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9994277362684075</v>
+        <v>0.9994277362684061</v>
       </c>
       <c r="D7">
-        <v>1.0179585303193</v>
+        <v>1.017958530319299</v>
       </c>
       <c r="E7">
-        <v>1.006536025481725</v>
+        <v>1.006536025481724</v>
       </c>
       <c r="F7">
         <v>1.010077072044075</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045040202021603</v>
+        <v>1.045040202021602</v>
       </c>
       <c r="J7">
-        <v>1.018839995892577</v>
+        <v>1.018839995892576</v>
       </c>
       <c r="K7">
-        <v>1.027842007271015</v>
+        <v>1.027842007271014</v>
       </c>
       <c r="L7">
-        <v>1.016553226150315</v>
+        <v>1.016553226150314</v>
       </c>
       <c r="M7">
         <v>1.020052417118775</v>
@@ -649,25 +649,25 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9899509639687628</v>
+        <v>0.9899509639687629</v>
       </c>
       <c r="D8">
         <v>1.010655364217515</v>
       </c>
       <c r="E8">
-        <v>0.998388771010992</v>
+        <v>0.9983887710109921</v>
       </c>
       <c r="F8">
-        <v>0.999606078942184</v>
+        <v>0.9996060789421839</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041667367867683</v>
+        <v>1.041667367867682</v>
       </c>
       <c r="J8">
-        <v>1.011854738257369</v>
+        <v>1.01185473825737</v>
       </c>
       <c r="K8">
         <v>1.021692910599855</v>
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9720129995091406</v>
+        <v>0.972012999509142</v>
       </c>
       <c r="D9">
-        <v>0.996848618577903</v>
+        <v>0.9968486185779036</v>
       </c>
       <c r="E9">
-        <v>0.9830134329734694</v>
+        <v>0.983013432973471</v>
       </c>
       <c r="F9">
-        <v>0.9797992997627426</v>
+        <v>0.9797992997627437</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03515529997244</v>
+        <v>1.035155299972441</v>
       </c>
       <c r="J9">
-        <v>0.9985942907086505</v>
+        <v>0.9985942907086516</v>
       </c>
       <c r="K9">
-        <v>1.009993032510563</v>
+        <v>1.009993032510564</v>
       </c>
       <c r="L9">
-        <v>0.9963882517053455</v>
+        <v>0.996388251705347</v>
       </c>
       <c r="M9">
-        <v>0.9932288485053555</v>
+        <v>0.9932288485053566</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.959058899611234</v>
+        <v>0.9590588996112343</v>
       </c>
       <c r="D10">
         <v>0.9868987419632034</v>
       </c>
       <c r="E10">
-        <v>0.9719479561853992</v>
+        <v>0.971947956185399</v>
       </c>
       <c r="F10">
-        <v>0.9654988201045123</v>
+        <v>0.965498820104512</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.03036986116873</v>
       </c>
       <c r="J10">
-        <v>0.9889966159059144</v>
+        <v>0.9889966159059143</v>
       </c>
       <c r="K10">
         <v>1.001508642448659</v>
       </c>
       <c r="L10">
-        <v>0.9868428687957304</v>
+        <v>0.9868428687957301</v>
       </c>
       <c r="M10">
-        <v>0.9805202553412358</v>
+        <v>0.9805202553412354</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9531702098189084</v>
+        <v>0.9531702098189071</v>
       </c>
       <c r="D11">
-        <v>0.9823830501165982</v>
+        <v>0.9823830501165973</v>
       </c>
       <c r="E11">
-        <v>0.9669285298582261</v>
+        <v>0.9669285298582253</v>
       </c>
       <c r="F11">
-        <v>0.9589972683103238</v>
+        <v>0.9589972683103228</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028175996448342</v>
+        <v>1.028175996448341</v>
       </c>
       <c r="J11">
-        <v>0.9846298179476082</v>
+        <v>0.9846298179476071</v>
       </c>
       <c r="K11">
-        <v>0.9976450232580313</v>
+        <v>0.9976450232580304</v>
       </c>
       <c r="L11">
-        <v>0.9825022886475882</v>
+        <v>0.9825022886475876</v>
       </c>
       <c r="M11">
-        <v>0.9747361991761496</v>
+        <v>0.974736199176149</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9509365626108941</v>
+        <v>0.950936562610893</v>
       </c>
       <c r="D12">
-        <v>0.9806715295772075</v>
+        <v>0.9806715295772068</v>
       </c>
       <c r="E12">
-        <v>0.9650263817012992</v>
+        <v>0.965026381701298</v>
       </c>
       <c r="F12">
-        <v>0.9565308690790678</v>
+        <v>0.9565308690790667</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027341169881053</v>
+        <v>1.027341169881052</v>
       </c>
       <c r="J12">
-        <v>0.9829729786243433</v>
+        <v>0.9829729786243423</v>
       </c>
       <c r="K12">
-        <v>0.9961786435600467</v>
+        <v>0.9961786435600459</v>
       </c>
       <c r="L12">
-        <v>0.9808557605542156</v>
+        <v>0.9808557605542145</v>
       </c>
       <c r="M12">
-        <v>0.9725411017757288</v>
+        <v>0.9725411017757278</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9514178604316437</v>
+        <v>0.951417860431642</v>
       </c>
       <c r="D13">
-        <v>0.981040257400925</v>
+        <v>0.9810402574009236</v>
       </c>
       <c r="E13">
-        <v>0.9654361663103782</v>
+        <v>0.9654361663103769</v>
       </c>
       <c r="F13">
-        <v>0.957062335251385</v>
+        <v>0.9570623352513834</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027521173653759</v>
+        <v>1.027521173653758</v>
       </c>
       <c r="J13">
-        <v>0.9833300069018575</v>
+        <v>0.983330006901856</v>
       </c>
       <c r="K13">
-        <v>0.9964946498701468</v>
+        <v>0.9964946498701454</v>
       </c>
       <c r="L13">
-        <v>0.9812105504913968</v>
+        <v>0.9812105504913957</v>
       </c>
       <c r="M13">
-        <v>0.9730141460634959</v>
+        <v>0.9730141460634943</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9529865482110037</v>
+        <v>0.9529865482110029</v>
       </c>
       <c r="D14">
-        <v>0.9822422919361491</v>
+        <v>0.9822422919361485</v>
       </c>
       <c r="E14">
-        <v>0.9667720887179727</v>
+        <v>0.9667720887179716</v>
       </c>
       <c r="F14">
-        <v>0.9587944755079328</v>
+        <v>0.958794475507932</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.028107406249464</v>
       </c>
       <c r="J14">
-        <v>0.9844935930078795</v>
+        <v>0.9844935930078789</v>
       </c>
       <c r="K14">
-        <v>0.9975244667938489</v>
+        <v>0.9975244667938483</v>
       </c>
       <c r="L14">
-        <v>0.9823669041289536</v>
+        <v>0.9823669041289528</v>
       </c>
       <c r="M14">
-        <v>0.9745557309896243</v>
+        <v>0.9745557309896236</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9539467894652773</v>
+        <v>0.9539467894652786</v>
       </c>
       <c r="D15">
-        <v>0.9829782759973869</v>
+        <v>0.982978275997388</v>
       </c>
       <c r="E15">
-        <v>0.9675900859226584</v>
+        <v>0.9675900859226597</v>
       </c>
       <c r="F15">
-        <v>0.9598547280578289</v>
+        <v>0.9598547280578305</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.028465909929889</v>
       </c>
       <c r="J15">
-        <v>0.9852058022270027</v>
+        <v>0.9852058022270038</v>
       </c>
       <c r="K15">
-        <v>0.9981547401370269</v>
+        <v>0.998154740137028</v>
       </c>
       <c r="L15">
-        <v>0.9830747342345805</v>
+        <v>0.9830747342345818</v>
       </c>
       <c r="M15">
-        <v>0.97549922918906</v>
+        <v>0.9754992291890615</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9594434680692309</v>
+        <v>0.9594434680692311</v>
       </c>
       <c r="D16">
-        <v>0.9871938152779325</v>
+        <v>0.9871938152779327</v>
       </c>
       <c r="E16">
-        <v>0.9722759913374562</v>
+        <v>0.9722759913374565</v>
       </c>
       <c r="F16">
-        <v>0.9659233822575055</v>
+        <v>0.9659233822575057</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030512761279834</v>
+        <v>1.030512761279835</v>
       </c>
       <c r="J16">
-        <v>0.9892817248910791</v>
+        <v>0.9892817248910794</v>
       </c>
       <c r="K16">
         <v>1.001760833563525</v>
       </c>
       <c r="L16">
-        <v>0.987126316045576</v>
+        <v>0.9871263160455761</v>
       </c>
       <c r="M16">
-        <v>0.9808978392773414</v>
+        <v>0.9808978392773416</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9628136924892786</v>
+        <v>0.9628136924892776</v>
       </c>
       <c r="D17">
-        <v>0.9897805858469935</v>
+        <v>0.9897805858469926</v>
       </c>
       <c r="E17">
-        <v>0.9751520031359593</v>
+        <v>0.9751520031359582</v>
       </c>
       <c r="F17">
-        <v>0.9696439883059974</v>
+        <v>0.9696439883059964</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.031763018581224</v>
       </c>
       <c r="J17">
-        <v>0.9917798976550514</v>
+        <v>0.9917798976550504</v>
       </c>
       <c r="K17">
-        <v>1.003970202891773</v>
+        <v>1.003970202891772</v>
       </c>
       <c r="L17">
-        <v>0.9896102012429435</v>
+        <v>0.9896102012429424</v>
       </c>
       <c r="M17">
-        <v>0.9842060601074105</v>
+        <v>0.9842060601074097</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.964752845443915</v>
+        <v>0.964752845443914</v>
       </c>
       <c r="D18">
-        <v>0.9912696277424868</v>
+        <v>0.9912696277424857</v>
       </c>
       <c r="E18">
-        <v>0.9768077908637788</v>
+        <v>0.9768077908637779</v>
       </c>
       <c r="F18">
-        <v>0.9717846777969662</v>
+        <v>0.9717846777969652</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032480648640225</v>
+        <v>1.032480648640224</v>
       </c>
       <c r="J18">
-        <v>0.9932169197821868</v>
+        <v>0.9932169197821856</v>
       </c>
       <c r="K18">
-        <v>1.00524077986438</v>
+        <v>1.005240779864379</v>
       </c>
       <c r="L18">
-        <v>0.991039231960851</v>
+        <v>0.9910392319608499</v>
       </c>
       <c r="M18">
-        <v>0.9861088912812012</v>
+        <v>0.9861088912812004</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9654096493581631</v>
+        <v>0.9654096493581643</v>
       </c>
       <c r="D19">
-        <v>0.9917740835146265</v>
+        <v>0.9917740835146277</v>
       </c>
       <c r="E19">
-        <v>0.9773687811285571</v>
+        <v>0.9773687811285581</v>
       </c>
       <c r="F19">
-        <v>0.972509736760381</v>
+        <v>0.9725097367603822</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.0327234163845</v>
+        <v>1.032723416384501</v>
       </c>
       <c r="J19">
-        <v>0.993703582355181</v>
+        <v>0.9937035823551824</v>
       </c>
       <c r="K19">
-        <v>1.005671018941454</v>
+        <v>1.005671018941455</v>
       </c>
       <c r="L19">
-        <v>0.991523226723881</v>
+        <v>0.991523226723882</v>
       </c>
       <c r="M19">
-        <v>0.9867532855952839</v>
+        <v>0.9867532855952846</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.962454884372007</v>
+        <v>0.9624548843720083</v>
       </c>
       <c r="D20">
-        <v>0.9895051161690011</v>
+        <v>0.9895051161690021</v>
       </c>
       <c r="E20">
-        <v>0.9748457065098164</v>
+        <v>0.9748457065098177</v>
       </c>
       <c r="F20">
-        <v>0.969247884960301</v>
+        <v>0.9692478849603021</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031630091218009</v>
+        <v>1.03163009121801</v>
       </c>
       <c r="J20">
-        <v>0.9915139696164844</v>
+        <v>0.9915139696164855</v>
       </c>
       <c r="K20">
-        <v>1.003735050332854</v>
+        <v>1.003735050332855</v>
       </c>
       <c r="L20">
-        <v>0.9893457704788011</v>
+        <v>0.9893457704788025</v>
       </c>
       <c r="M20">
-        <v>0.9838539209468444</v>
+        <v>0.9838539209468457</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9525259255823655</v>
+        <v>0.9525259255823652</v>
       </c>
       <c r="D21">
-        <v>0.9818892931964106</v>
+        <v>0.9818892931964101</v>
       </c>
       <c r="E21">
-        <v>0.9663797640828777</v>
+        <v>0.9663797640828775</v>
       </c>
       <c r="F21">
-        <v>0.9582858667087273</v>
+        <v>0.9582858667087271</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.027935339793428</v>
       </c>
       <c r="J21">
-        <v>0.9841519343548829</v>
+        <v>0.9841519343548827</v>
       </c>
       <c r="K21">
-        <v>0.9972220982826815</v>
+        <v>0.9972220982826809</v>
       </c>
       <c r="L21">
-        <v>0.9820273591348863</v>
+        <v>0.982027359134886</v>
       </c>
       <c r="M21">
-        <v>0.9741030988052407</v>
+        <v>0.9741030988052405</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9460125322164183</v>
+        <v>0.9460125322164192</v>
       </c>
       <c r="D22">
-        <v>0.9769012590424655</v>
+        <v>0.9769012590424664</v>
       </c>
       <c r="E22">
-        <v>0.9608366181493602</v>
+        <v>0.9608366181493611</v>
       </c>
       <c r="F22">
-        <v>0.9510930064156011</v>
+        <v>0.9510930064156016</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025496015598387</v>
+        <v>1.025496015598388</v>
       </c>
       <c r="J22">
-        <v>0.9793197994532619</v>
+        <v>0.9793197994532626</v>
       </c>
       <c r="K22">
-        <v>0.9929446273836746</v>
+        <v>0.9929446273836755</v>
       </c>
       <c r="L22">
-        <v>0.9772259876995192</v>
+        <v>0.9772259876995197</v>
       </c>
       <c r="M22">
-        <v>0.9676998331522829</v>
+        <v>0.9676998331522833</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9494926821356565</v>
+        <v>0.9494926821356555</v>
       </c>
       <c r="D23">
-        <v>0.9795655707701223</v>
+        <v>0.9795655707701219</v>
       </c>
       <c r="E23">
-        <v>0.9637973133612039</v>
+        <v>0.9637973133612029</v>
       </c>
       <c r="F23">
-        <v>0.9549364287743002</v>
+        <v>0.9549364287742987</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.026800781322938</v>
       </c>
       <c r="J23">
-        <v>0.9819018455216484</v>
+        <v>0.9819018455216473</v>
       </c>
       <c r="K23">
-        <v>0.9952305191462664</v>
+        <v>0.9952305191462659</v>
       </c>
       <c r="L23">
-        <v>0.97979139604414</v>
+        <v>0.9797913960441387</v>
       </c>
       <c r="M23">
-        <v>0.9711218066803218</v>
+        <v>0.9711218066803207</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,13 +1257,13 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9626170963262847</v>
+        <v>0.9626170963262848</v>
       </c>
       <c r="D24">
-        <v>0.9896296499528555</v>
+        <v>0.9896296499528552</v>
       </c>
       <c r="E24">
-        <v>0.9749841757024981</v>
+        <v>0.9749841757024976</v>
       </c>
       <c r="F24">
         <v>0.9694269577387525</v>
@@ -1275,16 +1275,16 @@
         <v>1.031690191171634</v>
       </c>
       <c r="J24">
-        <v>0.9916341929954205</v>
+        <v>0.9916341929954203</v>
       </c>
       <c r="K24">
         <v>1.003841361417188</v>
       </c>
       <c r="L24">
-        <v>0.9894653162487688</v>
+        <v>0.9894653162487684</v>
       </c>
       <c r="M24">
-        <v>0.9840131199644826</v>
+        <v>0.9840131199644824</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9768127059960516</v>
+        <v>0.9768127059960514</v>
       </c>
       <c r="D25">
         <v>1.000540098628412</v>
       </c>
       <c r="E25">
-        <v>0.9871215090055274</v>
+        <v>0.9871215090055275</v>
       </c>
       <c r="F25">
-        <v>0.9850980558708738</v>
+        <v>0.9850980558708737</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1319,10 +1319,10 @@
         <v>1.013130036043189</v>
       </c>
       <c r="L25">
-        <v>0.999923091925959</v>
+        <v>0.9999230919259591</v>
       </c>
       <c r="M25">
-        <v>0.9979321958325638</v>
+        <v>0.9979321958325637</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_37/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9874325092860684</v>
+        <v>0.9874466999539605</v>
       </c>
       <c r="D2">
-        <v>1.008715365772815</v>
+        <v>1.008726790205618</v>
       </c>
       <c r="E2">
-        <v>0.99622645698526</v>
+        <v>0.9962401230466522</v>
       </c>
       <c r="F2">
-        <v>0.9968244431078903</v>
+        <v>0.9968355138654517</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040762486073018</v>
+        <v>1.040768533078246</v>
       </c>
       <c r="J2">
-        <v>1.009995721308362</v>
+        <v>1.010009472489801</v>
       </c>
       <c r="K2">
-        <v>1.020054602483687</v>
+        <v>1.02006587120189</v>
       </c>
       <c r="L2">
-        <v>1.00773861480673</v>
+        <v>1.00775208865511</v>
       </c>
       <c r="M2">
-        <v>1.008328196488134</v>
+        <v>1.008339111770975</v>
+      </c>
+      <c r="N2">
+        <v>1.008123178018754</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9947898422861637</v>
+        <v>0.9947993542147593</v>
       </c>
       <c r="D3">
-        <v>1.014383865997433</v>
+        <v>1.014391541288885</v>
       </c>
       <c r="E3">
-        <v>1.002546697901081</v>
+        <v>1.002556186987584</v>
       </c>
       <c r="F3">
-        <v>1.004951755808895</v>
+        <v>1.004959297733065</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043396176927681</v>
+        <v>1.043400243378341</v>
       </c>
       <c r="J3">
-        <v>1.015423556248408</v>
+        <v>1.015432805157331</v>
       </c>
       <c r="K3">
-        <v>1.024835952048781</v>
+        <v>1.024843532571303</v>
       </c>
       <c r="L3">
-        <v>1.01314709663151</v>
+        <v>1.013156465073963</v>
       </c>
       <c r="M3">
-        <v>1.015521667655095</v>
+        <v>1.015529114263114</v>
+      </c>
+      <c r="N3">
+        <v>1.011920560081139</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9994021455085005</v>
+        <v>0.9994087793509476</v>
       </c>
       <c r="D4">
-        <v>1.017938804039749</v>
+        <v>1.017944167335282</v>
       </c>
       <c r="E4">
-        <v>1.006514002339715</v>
+        <v>1.006520920170736</v>
       </c>
       <c r="F4">
-        <v>1.010048786701237</v>
+        <v>1.010054173626518</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045031167513215</v>
+        <v>1.045034011442625</v>
       </c>
       <c r="J4">
-        <v>1.018821156838625</v>
+        <v>1.018827620713524</v>
       </c>
       <c r="K4">
-        <v>1.02782543917186</v>
+        <v>1.027830740526262</v>
       </c>
       <c r="L4">
-        <v>1.01653443973697</v>
+        <v>1.016541275410616</v>
       </c>
       <c r="M4">
-        <v>1.020027425923519</v>
+        <v>1.020032749425817</v>
+      </c>
+      <c r="N4">
+        <v>1.014295112382257</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.001307672853774</v>
+        <v>1.001313129310286</v>
       </c>
       <c r="D5">
-        <v>1.019407705608988</v>
+        <v>1.01941212185914</v>
       </c>
       <c r="E5">
-        <v>1.008154213698243</v>
+        <v>1.008160079387823</v>
       </c>
       <c r="F5">
-        <v>1.012155125157214</v>
+        <v>1.012159633934567</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045702729818791</v>
+        <v>1.045705072690099</v>
       </c>
       <c r="J5">
-        <v>1.020223557360322</v>
+        <v>1.020228878530544</v>
       </c>
       <c r="K5">
-        <v>1.029058533166489</v>
+        <v>1.029062899863473</v>
       </c>
       <c r="L5">
-        <v>1.017933053739565</v>
+        <v>1.01793885178552</v>
       </c>
       <c r="M5">
-        <v>1.021888051065793</v>
+        <v>1.021892508353431</v>
+      </c>
+      <c r="N5">
+        <v>1.015274629356108</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.00162571166477</v>
+        <v>1.001630972256502</v>
       </c>
       <c r="D6">
-        <v>1.0196528795929</v>
+        <v>1.019657138227543</v>
       </c>
       <c r="E6">
-        <v>1.008428036408576</v>
+        <v>1.008433727056699</v>
       </c>
       <c r="F6">
-        <v>1.012506714145317</v>
+        <v>1.012511077030553</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045814583563705</v>
+        <v>1.045816843027579</v>
       </c>
       <c r="J6">
-        <v>1.020457545406388</v>
+        <v>1.020462676291207</v>
       </c>
       <c r="K6">
-        <v>1.029264221775307</v>
+        <v>1.029268432858454</v>
       </c>
       <c r="L6">
-        <v>1.018166436388348</v>
+        <v>1.018172061737592</v>
       </c>
       <c r="M6">
-        <v>1.022198544413627</v>
+        <v>1.022202857731833</v>
+      </c>
+      <c r="N6">
+        <v>1.015438023705904</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9994277362684061</v>
+        <v>0.9994343542545617</v>
       </c>
       <c r="D7">
-        <v>1.017958530319299</v>
+        <v>1.017963880865373</v>
       </c>
       <c r="E7">
-        <v>1.006536025481724</v>
+        <v>1.006542929144059</v>
       </c>
       <c r="F7">
-        <v>1.010077072044075</v>
+        <v>1.010082447129801</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045040202021602</v>
+        <v>1.045043039206734</v>
       </c>
       <c r="J7">
-        <v>1.018839995892576</v>
+        <v>1.018846444391276</v>
       </c>
       <c r="K7">
-        <v>1.027842007271014</v>
+        <v>1.027847296046829</v>
       </c>
       <c r="L7">
-        <v>1.016553226150314</v>
+        <v>1.016560047855501</v>
       </c>
       <c r="M7">
-        <v>1.020052417118775</v>
+        <v>1.020057728946512</v>
+      </c>
+      <c r="N7">
+        <v>1.014308273092</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9899509639687629</v>
+        <v>0.9899635404540609</v>
       </c>
       <c r="D8">
-        <v>1.010655364217515</v>
+        <v>1.010665496503543</v>
       </c>
       <c r="E8">
-        <v>0.9983887710109921</v>
+        <v>0.9984009964978537</v>
       </c>
       <c r="F8">
-        <v>0.9996060789421839</v>
+        <v>0.9996159286470129</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041667367867682</v>
+        <v>1.041672732516908</v>
       </c>
       <c r="J8">
-        <v>1.01185473825737</v>
+        <v>1.01186693967287</v>
       </c>
       <c r="K8">
-        <v>1.021692910599855</v>
+        <v>1.021702909245257</v>
       </c>
       <c r="L8">
-        <v>1.009590611741188</v>
+        <v>1.009602670955294</v>
       </c>
       <c r="M8">
-        <v>1.010791388783768</v>
+        <v>1.010801104937423</v>
+      </c>
+      <c r="N8">
+        <v>1.009424275947955</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.972012999509142</v>
+        <v>0.972037387477815</v>
       </c>
       <c r="D9">
-        <v>0.9968486185779036</v>
+        <v>0.9968681729646515</v>
       </c>
       <c r="E9">
-        <v>0.983013432973471</v>
+        <v>0.9830361832366075</v>
       </c>
       <c r="F9">
-        <v>0.9797992997627437</v>
+        <v>0.9798181724205483</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035155299972441</v>
+        <v>1.035165635335843</v>
       </c>
       <c r="J9">
-        <v>0.9985942907086516</v>
+        <v>0.9986177459934954</v>
       </c>
       <c r="K9">
-        <v>1.009993032510564</v>
+        <v>1.010012267065487</v>
       </c>
       <c r="L9">
-        <v>0.996388251705347</v>
+        <v>0.9964106162251951</v>
       </c>
       <c r="M9">
-        <v>0.9932288485053566</v>
+        <v>0.993247398447038</v>
+      </c>
+      <c r="N9">
+        <v>1.000133711413845</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9590588996112343</v>
+        <v>0.9590923261923706</v>
       </c>
       <c r="D10">
-        <v>0.9868987419632034</v>
+        <v>0.9869254536866343</v>
       </c>
       <c r="E10">
-        <v>0.971947956185399</v>
+        <v>0.9719787279486783</v>
       </c>
       <c r="F10">
-        <v>0.965498820104512</v>
+        <v>0.965524736300728</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03036986116873</v>
+        <v>1.030383966537989</v>
       </c>
       <c r="J10">
-        <v>0.9889966159059143</v>
+        <v>0.989028548668175</v>
       </c>
       <c r="K10">
-        <v>1.001508642448659</v>
+        <v>1.001534855042927</v>
       </c>
       <c r="L10">
-        <v>0.9868428687957301</v>
+        <v>0.9868730421388522</v>
       </c>
       <c r="M10">
-        <v>0.9805202553412354</v>
+        <v>0.9805456586556475</v>
+      </c>
+      <c r="N10">
+        <v>0.9933978948562288</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9531702098189071</v>
+        <v>0.9532079074320219</v>
       </c>
       <c r="D11">
-        <v>0.9823830501165973</v>
+        <v>0.9824131275844451</v>
       </c>
       <c r="E11">
-        <v>0.9669285298582253</v>
+        <v>0.9669630800860904</v>
       </c>
       <c r="F11">
-        <v>0.9589972683103228</v>
+        <v>0.9590265548998819</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028175996448341</v>
+        <v>1.028191873459029</v>
       </c>
       <c r="J11">
-        <v>0.9846298179476071</v>
+        <v>0.984665716546768</v>
       </c>
       <c r="K11">
-        <v>0.9976450232580304</v>
+        <v>0.9976745064928961</v>
       </c>
       <c r="L11">
-        <v>0.9825022886475876</v>
+        <v>0.9825361271739772</v>
       </c>
       <c r="M11">
-        <v>0.974736199176149</v>
+        <v>0.9747648692100899</v>
+      </c>
+      <c r="N11">
+        <v>0.9903308616464576</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.950936562610893</v>
+        <v>0.9509759090023789</v>
       </c>
       <c r="D12">
-        <v>0.9806715295772068</v>
+        <v>0.9807029035183709</v>
       </c>
       <c r="E12">
-        <v>0.965026381701298</v>
+        <v>0.9650623883408372</v>
       </c>
       <c r="F12">
-        <v>0.9565308690790667</v>
+        <v>0.9565614640024807</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027341169881052</v>
+        <v>1.027357729162944</v>
       </c>
       <c r="J12">
-        <v>0.9829729786243423</v>
+        <v>0.98301040139139</v>
       </c>
       <c r="K12">
-        <v>0.9961786435600459</v>
+        <v>0.9962093848480705</v>
       </c>
       <c r="L12">
-        <v>0.9808557605542145</v>
+        <v>0.9808910096427444</v>
       </c>
       <c r="M12">
-        <v>0.9725411017757278</v>
+        <v>0.9725710377435365</v>
+      </c>
+      <c r="N12">
+        <v>0.9891668618325534</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.951417860431642</v>
+        <v>0.951456850175863</v>
       </c>
       <c r="D13">
-        <v>0.9810402574009236</v>
+        <v>0.9810713510359157</v>
       </c>
       <c r="E13">
-        <v>0.9654361663103769</v>
+        <v>0.9654718580206426</v>
       </c>
       <c r="F13">
-        <v>0.9570623352513834</v>
+        <v>0.957092646827455</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027521173653758</v>
+        <v>1.027537585430815</v>
       </c>
       <c r="J13">
-        <v>0.983330006901856</v>
+        <v>0.9833671002952352</v>
       </c>
       <c r="K13">
-        <v>0.9964946498701454</v>
+        <v>0.9965251192418992</v>
       </c>
       <c r="L13">
-        <v>0.9812105504913957</v>
+        <v>0.98124549466703</v>
       </c>
       <c r="M13">
-        <v>0.9730141460634943</v>
+        <v>0.9730438079678329</v>
+      </c>
+      <c r="N13">
+        <v>0.989417702841365</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9529865482110029</v>
+        <v>0.9530243807848563</v>
       </c>
       <c r="D14">
-        <v>0.9822422919361485</v>
+        <v>0.9822724755861781</v>
       </c>
       <c r="E14">
-        <v>0.9667720887179716</v>
+        <v>0.9668067582076887</v>
       </c>
       <c r="F14">
-        <v>0.958794475507932</v>
+        <v>0.9588238690396839</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028107406249464</v>
+        <v>1.028123339141759</v>
       </c>
       <c r="J14">
-        <v>0.9844935930078789</v>
+        <v>0.9845296165094175</v>
       </c>
       <c r="K14">
-        <v>0.9975244667938483</v>
+        <v>0.9975540531012663</v>
       </c>
       <c r="L14">
-        <v>0.9823669041289528</v>
+        <v>0.9824008582080499</v>
       </c>
       <c r="M14">
-        <v>0.9745557309896236</v>
+        <v>0.974584504544904</v>
+      </c>
+      <c r="N14">
+        <v>0.9902351639865493</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9539467894652786</v>
+        <v>0.9539839176159305</v>
       </c>
       <c r="D15">
-        <v>0.982978275997388</v>
+        <v>0.9830079053165114</v>
       </c>
       <c r="E15">
-        <v>0.9675900859226597</v>
+        <v>0.96762413283699</v>
       </c>
       <c r="F15">
-        <v>0.9598547280578305</v>
+        <v>0.9598835637056662</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028465909929889</v>
+        <v>1.028481551082387</v>
       </c>
       <c r="J15">
-        <v>0.9852058022270038</v>
+        <v>0.9852411735259606</v>
       </c>
       <c r="K15">
-        <v>0.998154740137028</v>
+        <v>0.9981837882744724</v>
       </c>
       <c r="L15">
-        <v>0.9830747342345818</v>
+        <v>0.9831080850114416</v>
       </c>
       <c r="M15">
-        <v>0.9754992291890615</v>
+        <v>0.9755274626177032</v>
+      </c>
+      <c r="N15">
+        <v>0.9907354765667673</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9594434680692311</v>
+        <v>0.9594766194229306</v>
       </c>
       <c r="D16">
-        <v>0.9871938152779327</v>
+        <v>0.9872203097495224</v>
       </c>
       <c r="E16">
-        <v>0.9722759913374565</v>
+        <v>0.9723065193383021</v>
       </c>
       <c r="F16">
-        <v>0.9659233822575057</v>
+        <v>0.9659490821913268</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030512761279835</v>
+        <v>1.030526752270459</v>
       </c>
       <c r="J16">
-        <v>0.9892817248910794</v>
+        <v>0.9893134012171318</v>
       </c>
       <c r="K16">
-        <v>1.001760833563525</v>
+        <v>1.001786834811685</v>
       </c>
       <c r="L16">
-        <v>0.9871263160455761</v>
+        <v>0.9871562526504485</v>
       </c>
       <c r="M16">
-        <v>0.9808978392773416</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9809230327055227</v>
+      </c>
+      <c r="N16">
+        <v>0.9935980967391915</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9628136924892776</v>
+        <v>0.9628444505394891</v>
       </c>
       <c r="D17">
-        <v>0.9897805858469926</v>
+        <v>0.9898051893178312</v>
       </c>
       <c r="E17">
-        <v>0.9751520031359582</v>
+        <v>0.9751804100842557</v>
       </c>
       <c r="F17">
-        <v>0.9696439883059964</v>
+        <v>0.9696678124119362</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031763018581224</v>
+        <v>1.031776013867467</v>
       </c>
       <c r="J17">
-        <v>0.9917798976550504</v>
+        <v>0.9918093395865623</v>
       </c>
       <c r="K17">
-        <v>1.003970202891772</v>
+        <v>1.003994363333587</v>
       </c>
       <c r="L17">
-        <v>0.9896102012429424</v>
+        <v>0.9896380764451125</v>
       </c>
       <c r="M17">
-        <v>0.9842060601074097</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.984229431600065</v>
+      </c>
+      <c r="N17">
+        <v>0.9953520402484992</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.964752845443914</v>
+        <v>0.9647822413231176</v>
       </c>
       <c r="D18">
-        <v>0.9912696277424857</v>
+        <v>0.9912931534652362</v>
       </c>
       <c r="E18">
-        <v>0.9768077908637779</v>
+        <v>0.9768349895310734</v>
       </c>
       <c r="F18">
-        <v>0.9717846777969652</v>
+        <v>0.971807438046195</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032480648640224</v>
+        <v>1.032493076326971</v>
       </c>
       <c r="J18">
-        <v>0.9932169197821856</v>
+        <v>0.9932450863767381</v>
       </c>
       <c r="K18">
-        <v>1.005240779864379</v>
+        <v>1.005263890186702</v>
       </c>
       <c r="L18">
-        <v>0.9910392319608499</v>
+        <v>0.9910659316757474</v>
       </c>
       <c r="M18">
-        <v>0.9861088912812004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9861312283476014</v>
+      </c>
+      <c r="N18">
+        <v>0.9963607383768607</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9654096493581643</v>
+        <v>0.9654385862701298</v>
       </c>
       <c r="D19">
-        <v>0.9917740835146277</v>
+        <v>0.9917972458640851</v>
       </c>
       <c r="E19">
-        <v>0.9773687811285581</v>
+        <v>0.977395572510686</v>
       </c>
       <c r="F19">
-        <v>0.9725097367603822</v>
+        <v>0.9725321391744255</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032723416384501</v>
+        <v>1.032735652679895</v>
       </c>
       <c r="J19">
-        <v>0.9937035823551824</v>
+        <v>0.9937313186486099</v>
       </c>
       <c r="K19">
-        <v>1.005671018941455</v>
+        <v>1.005693775044203</v>
       </c>
       <c r="L19">
-        <v>0.991523226723882</v>
+        <v>0.9915495300122911</v>
       </c>
       <c r="M19">
-        <v>0.9867532855952846</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9867752745398751</v>
+      </c>
+      <c r="N19">
+        <v>0.9967023059347627</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9624548843720083</v>
+        <v>0.9624858956476035</v>
       </c>
       <c r="D20">
-        <v>0.9895051161690021</v>
+        <v>0.9895299198743212</v>
       </c>
       <c r="E20">
-        <v>0.9748457065098177</v>
+        <v>0.9748743379916072</v>
       </c>
       <c r="F20">
-        <v>0.9692478849603021</v>
+        <v>0.9692719071383201</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03163009121801</v>
+        <v>1.031643191949091</v>
       </c>
       <c r="J20">
-        <v>0.9915139696164855</v>
+        <v>0.991543648341941</v>
       </c>
       <c r="K20">
-        <v>1.003735050332855</v>
+        <v>1.00375940579742</v>
       </c>
       <c r="L20">
-        <v>0.9893457704788025</v>
+        <v>0.9893738640252322</v>
       </c>
       <c r="M20">
-        <v>0.9838539209468457</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.98387748494117</v>
+      </c>
+      <c r="N20">
+        <v>0.9951653574711539</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9525259255823652</v>
+        <v>0.9525640971151751</v>
       </c>
       <c r="D21">
-        <v>0.9818892931964101</v>
+        <v>0.9819197434803139</v>
       </c>
       <c r="E21">
-        <v>0.9663797640828775</v>
+        <v>0.9664147330662013</v>
       </c>
       <c r="F21">
-        <v>0.9582858667087271</v>
+        <v>0.9583155289489007</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027935339793428</v>
+        <v>1.02795141300746</v>
       </c>
       <c r="J21">
-        <v>0.9841519343548827</v>
+        <v>0.9841882714419419</v>
       </c>
       <c r="K21">
-        <v>0.9972220982826809</v>
+        <v>0.9972519433862055</v>
       </c>
       <c r="L21">
-        <v>0.982027359134886</v>
+        <v>0.9820616033573409</v>
       </c>
       <c r="M21">
-        <v>0.9741030988052405</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9741321324381892</v>
+      </c>
+      <c r="N21">
+        <v>0.9899951447761347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9460125322164192</v>
+        <v>0.9460555719639864</v>
       </c>
       <c r="D22">
-        <v>0.9769012590424664</v>
+        <v>0.9769355314113262</v>
       </c>
       <c r="E22">
-        <v>0.9608366181493611</v>
+        <v>0.9608758825765729</v>
       </c>
       <c r="F22">
-        <v>0.9510930064156016</v>
+        <v>0.9511265467046542</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025496015598388</v>
+        <v>1.025514099916528</v>
       </c>
       <c r="J22">
-        <v>0.9793197994532626</v>
+        <v>0.9793606228358699</v>
       </c>
       <c r="K22">
-        <v>0.9929446273836755</v>
+        <v>0.9929781776852239</v>
       </c>
       <c r="L22">
-        <v>0.9772259876995197</v>
+        <v>0.9772643876889392</v>
       </c>
       <c r="M22">
-        <v>0.9676998331522833</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9677326146973715</v>
+      </c>
+      <c r="N22">
+        <v>0.9865998141426499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9494926821356555</v>
+        <v>0.9495331030544335</v>
       </c>
       <c r="D23">
-        <v>0.9795655707701219</v>
+        <v>0.9795977887861564</v>
       </c>
       <c r="E23">
-        <v>0.9637973133612029</v>
+        <v>0.963834268476409</v>
       </c>
       <c r="F23">
-        <v>0.9549364287742987</v>
+        <v>0.9549678785227599</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026800781322938</v>
+        <v>1.026817784758987</v>
       </c>
       <c r="J23">
-        <v>0.9819018455216473</v>
+        <v>0.9819402595825589</v>
       </c>
       <c r="K23">
-        <v>0.9952305191462659</v>
+        <v>0.9952620789693488</v>
       </c>
       <c r="L23">
-        <v>0.9797913960441387</v>
+        <v>0.9798275631034183</v>
       </c>
       <c r="M23">
-        <v>0.9711218066803207</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9711525691272941</v>
+      </c>
+      <c r="N23">
+        <v>0.988414261985387</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9626170963262848</v>
+        <v>0.9626479930764085</v>
       </c>
       <c r="D24">
-        <v>0.9896296499528552</v>
+        <v>0.9896543631032918</v>
       </c>
       <c r="E24">
-        <v>0.9749841757024976</v>
+        <v>0.9750127056385032</v>
       </c>
       <c r="F24">
-        <v>0.9694269577387525</v>
+        <v>0.969450890323553</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031690191171634</v>
+        <v>1.031703244216251</v>
       </c>
       <c r="J24">
-        <v>0.9916341929954203</v>
+        <v>0.991663764638019</v>
       </c>
       <c r="K24">
-        <v>1.003841361417188</v>
+        <v>1.003865628686888</v>
       </c>
       <c r="L24">
-        <v>0.9894653162487684</v>
+        <v>0.9894933110521961</v>
       </c>
       <c r="M24">
-        <v>0.9840131199644824</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9840365968887604</v>
+      </c>
+      <c r="N24">
+        <v>0.9952497555596451</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9768127059960514</v>
+        <v>0.9768338588218743</v>
       </c>
       <c r="D25">
-        <v>1.000540098628412</v>
+        <v>1.000557079985099</v>
       </c>
       <c r="E25">
-        <v>0.9871215090055275</v>
+        <v>0.9871413807312177</v>
       </c>
       <c r="F25">
-        <v>0.9850980558708737</v>
+        <v>0.9851144367980514</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036912113588452</v>
+        <v>1.036921092555606</v>
       </c>
       <c r="J25">
-        <v>1.002146430828643</v>
+        <v>1.002166823564774</v>
       </c>
       <c r="K25">
-        <v>1.013130036043189</v>
+        <v>1.01314675415535</v>
       </c>
       <c r="L25">
-        <v>0.9999230919259591</v>
+        <v>0.9999426447675787</v>
       </c>
       <c r="M25">
-        <v>0.9979321958325637</v>
+        <v>0.997948312504063</v>
+      </c>
+      <c r="N25">
+        <v>1.002624478183824</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_37/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9874466999539605</v>
+        <v>1.02146145550913</v>
       </c>
       <c r="D2">
-        <v>1.008726790205618</v>
+        <v>1.040285355237258</v>
       </c>
       <c r="E2">
-        <v>0.9962401230466522</v>
+        <v>1.034184015685053</v>
       </c>
       <c r="F2">
-        <v>0.9968355138654517</v>
+        <v>1.044614865501715</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040768533078246</v>
+        <v>1.056967252231495</v>
       </c>
       <c r="J2">
-        <v>1.010009472489801</v>
+        <v>1.04301867313021</v>
       </c>
       <c r="K2">
-        <v>1.02006587120189</v>
+        <v>1.051210593101943</v>
       </c>
       <c r="L2">
-        <v>1.00775208865511</v>
+        <v>1.045186801343686</v>
       </c>
       <c r="M2">
-        <v>1.008339111770975</v>
+        <v>1.055485760378162</v>
       </c>
       <c r="N2">
-        <v>1.008123178018754</v>
+        <v>1.044499879281969</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9947993542147593</v>
+        <v>1.028813853970906</v>
       </c>
       <c r="D3">
-        <v>1.014391541288885</v>
+        <v>1.046142927862002</v>
       </c>
       <c r="E3">
-        <v>1.002556186987584</v>
+        <v>1.040473380383601</v>
       </c>
       <c r="F3">
-        <v>1.004959297733065</v>
+        <v>1.051189070398286</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043400243378341</v>
+        <v>1.059458334826551</v>
       </c>
       <c r="J3">
-        <v>1.015432805157331</v>
+        <v>1.04854869744867</v>
       </c>
       <c r="K3">
-        <v>1.024843532571303</v>
+        <v>1.056217575374184</v>
       </c>
       <c r="L3">
-        <v>1.013156465073963</v>
+        <v>1.050613318649344</v>
       </c>
       <c r="M3">
-        <v>1.015529114263114</v>
+        <v>1.061206336514419</v>
       </c>
       <c r="N3">
-        <v>1.011920560081139</v>
+        <v>1.050037756869264</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9994087793509476</v>
+        <v>1.033434419626781</v>
       </c>
       <c r="D4">
-        <v>1.017944167335282</v>
+        <v>1.049825425904082</v>
       </c>
       <c r="E4">
-        <v>1.006520920170736</v>
+        <v>1.044431437451508</v>
       </c>
       <c r="F4">
-        <v>1.010054173626518</v>
+        <v>1.055326623869007</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045034011442625</v>
+        <v>1.061008363489519</v>
       </c>
       <c r="J4">
-        <v>1.018827620713524</v>
+        <v>1.052019884036706</v>
       </c>
       <c r="K4">
-        <v>1.027830740526262</v>
+        <v>1.059357511330078</v>
       </c>
       <c r="L4">
-        <v>1.016541275410616</v>
+        <v>1.054021632330049</v>
       </c>
       <c r="M4">
-        <v>1.020032749425817</v>
+        <v>1.064800193451186</v>
       </c>
       <c r="N4">
-        <v>1.014295112382257</v>
+        <v>1.053513872940406</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.001313129310286</v>
+        <v>1.035345899554008</v>
       </c>
       <c r="D5">
-        <v>1.01941212185914</v>
+        <v>1.051349058004766</v>
       </c>
       <c r="E5">
-        <v>1.008160079387823</v>
+        <v>1.046070089288553</v>
       </c>
       <c r="F5">
-        <v>1.012159633934567</v>
+        <v>1.05703964247755</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045705072690099</v>
+        <v>1.061645813821477</v>
       </c>
       <c r="J5">
-        <v>1.020228878530544</v>
+        <v>1.053454825877791</v>
       </c>
       <c r="K5">
-        <v>1.029062899863473</v>
+        <v>1.060654789521644</v>
       </c>
       <c r="L5">
-        <v>1.01793885178552</v>
+        <v>1.055431077048743</v>
       </c>
       <c r="M5">
-        <v>1.021892508353431</v>
+        <v>1.066286563131578</v>
       </c>
       <c r="N5">
-        <v>1.015274629356108</v>
+        <v>1.054950852563494</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.001630972256502</v>
+        <v>1.035665076207765</v>
       </c>
       <c r="D6">
-        <v>1.019657138227543</v>
+        <v>1.051603482440547</v>
       </c>
       <c r="E6">
-        <v>1.008433727056699</v>
+        <v>1.046343780241337</v>
       </c>
       <c r="F6">
-        <v>1.012511077030553</v>
+        <v>1.057325757445225</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045816843027579</v>
+        <v>1.061752030295111</v>
       </c>
       <c r="J6">
-        <v>1.020462676291207</v>
+        <v>1.053694367131267</v>
       </c>
       <c r="K6">
-        <v>1.029268432858454</v>
+        <v>1.060871306399273</v>
       </c>
       <c r="L6">
-        <v>1.018172061737592</v>
+        <v>1.055666390725054</v>
       </c>
       <c r="M6">
-        <v>1.022202857731833</v>
+        <v>1.066534731203046</v>
       </c>
       <c r="N6">
-        <v>1.015438023705904</v>
+        <v>1.055190733993027</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9994343542545617</v>
+        <v>1.033460080505632</v>
       </c>
       <c r="D7">
-        <v>1.017963880865373</v>
+        <v>1.049845879331297</v>
       </c>
       <c r="E7">
-        <v>1.006542929144059</v>
+        <v>1.044453430902367</v>
       </c>
       <c r="F7">
-        <v>1.010082447129801</v>
+        <v>1.055349615234402</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045043039206734</v>
+        <v>1.061016936060342</v>
       </c>
       <c r="J7">
-        <v>1.018846444391276</v>
+        <v>1.052039151819655</v>
       </c>
       <c r="K7">
-        <v>1.027847296046829</v>
+        <v>1.059374933541979</v>
       </c>
       <c r="L7">
-        <v>1.016560047855501</v>
+        <v>1.054040555806511</v>
       </c>
       <c r="M7">
-        <v>1.020057728946512</v>
+        <v>1.064820148965944</v>
       </c>
       <c r="N7">
-        <v>1.014308273092</v>
+        <v>1.053533168085816</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9899635404540609</v>
+        <v>1.023975700116739</v>
       </c>
       <c r="D8">
-        <v>1.010665496503543</v>
+        <v>1.042288076766584</v>
       </c>
       <c r="E8">
-        <v>0.9984009964978537</v>
+        <v>1.03633351726663</v>
       </c>
       <c r="F8">
-        <v>0.9996159286470129</v>
+        <v>1.046861664023053</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041672732516908</v>
+        <v>1.057822330987172</v>
       </c>
       <c r="J8">
-        <v>1.01186693967287</v>
+        <v>1.044910562948018</v>
       </c>
       <c r="K8">
-        <v>1.021702909245257</v>
+        <v>1.052924148798929</v>
       </c>
       <c r="L8">
-        <v>1.009602670955294</v>
+        <v>1.047042830853019</v>
       </c>
       <c r="M8">
-        <v>1.010801104937423</v>
+        <v>1.057442183159884</v>
       </c>
       <c r="N8">
-        <v>1.009424275947955</v>
+        <v>1.046394455800321</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.972037387477815</v>
+        <v>1.00612618961651</v>
       </c>
       <c r="D9">
-        <v>0.9968681729646515</v>
+        <v>1.028080514832602</v>
       </c>
       <c r="E9">
-        <v>0.9830361832366075</v>
+        <v>1.021101384560528</v>
       </c>
       <c r="F9">
-        <v>0.9798181724205483</v>
+        <v>1.030941211321952</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035165635335843</v>
+        <v>1.051687978138867</v>
       </c>
       <c r="J9">
-        <v>0.9986177459934954</v>
+        <v>1.031464455714741</v>
       </c>
       <c r="K9">
-        <v>1.010012267065487</v>
+        <v>1.040733860619201</v>
       </c>
       <c r="L9">
-        <v>0.9964106162251951</v>
+        <v>1.033861138318376</v>
       </c>
       <c r="M9">
-        <v>0.993247398447038</v>
+        <v>1.043551471110183</v>
       </c>
       <c r="N9">
-        <v>1.000133711413845</v>
+        <v>1.032929253552482</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9590923261923706</v>
+        <v>0.9933238541203665</v>
       </c>
       <c r="D10">
-        <v>0.9869254536866343</v>
+        <v>1.017909559549045</v>
       </c>
       <c r="E10">
-        <v>0.9719787279486783</v>
+        <v>1.010217175937502</v>
       </c>
       <c r="F10">
-        <v>0.965524736300728</v>
+        <v>1.019566809433392</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030383966537989</v>
+        <v>1.047209960603746</v>
       </c>
       <c r="J10">
-        <v>0.989028548668175</v>
+        <v>1.021804878547713</v>
       </c>
       <c r="K10">
-        <v>1.001534855042927</v>
+        <v>1.031962809172891</v>
       </c>
       <c r="L10">
-        <v>0.9868730421388522</v>
+        <v>1.024404374394041</v>
       </c>
       <c r="M10">
-        <v>0.9805456586556475</v>
+        <v>1.033591543142456</v>
       </c>
       <c r="N10">
-        <v>0.9933978948562288</v>
+        <v>1.023255958677909</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9532079074320219</v>
+        <v>0.9875300575152199</v>
       </c>
       <c r="D11">
-        <v>0.9824131275844451</v>
+        <v>1.013313290058997</v>
       </c>
       <c r="E11">
-        <v>0.9669630800860904</v>
+        <v>1.005302983639148</v>
       </c>
       <c r="F11">
-        <v>0.9590265548998819</v>
+        <v>1.01443174793873</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028191873459029</v>
+        <v>1.045166070787705</v>
       </c>
       <c r="J11">
-        <v>0.984665716546768</v>
+        <v>1.017430962209028</v>
       </c>
       <c r="K11">
-        <v>0.9976745064928961</v>
+        <v>1.027988429979738</v>
       </c>
       <c r="L11">
-        <v>0.9825361271739772</v>
+        <v>1.020125581616826</v>
       </c>
       <c r="M11">
-        <v>0.9747648692100899</v>
+        <v>1.029086539726568</v>
       </c>
       <c r="N11">
-        <v>0.9903308616464576</v>
+        <v>1.018875830876327</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9509759090023789</v>
+        <v>0.9853368211668539</v>
       </c>
       <c r="D12">
-        <v>0.9807029035183709</v>
+        <v>1.011574581406466</v>
       </c>
       <c r="E12">
-        <v>0.9650623883408372</v>
+        <v>1.003444631706001</v>
       </c>
       <c r="F12">
-        <v>0.9565614640024807</v>
+        <v>1.012489945769667</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027357729162944</v>
+        <v>1.044389874346425</v>
       </c>
       <c r="J12">
-        <v>0.98301040139139</v>
+        <v>1.015774983777765</v>
       </c>
       <c r="K12">
-        <v>0.9962093848480705</v>
+        <v>1.026483340279059</v>
       </c>
       <c r="L12">
-        <v>0.9808910096427444</v>
+        <v>1.01850613422941</v>
       </c>
       <c r="M12">
-        <v>0.9725710377435365</v>
+        <v>1.027381707338832</v>
       </c>
       <c r="N12">
-        <v>0.9891668618325534</v>
+        <v>1.017217500765749</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.951456850175863</v>
+        <v>0.985809202684348</v>
       </c>
       <c r="D13">
-        <v>0.9810713510359157</v>
+        <v>1.011949008425348</v>
       </c>
       <c r="E13">
-        <v>0.9654718580206426</v>
+        <v>1.003844796173913</v>
       </c>
       <c r="F13">
-        <v>0.957092646827455</v>
+        <v>1.012908076398064</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027537585430815</v>
+        <v>1.044557162388575</v>
       </c>
       <c r="J13">
-        <v>0.9833671002952352</v>
+        <v>1.016131658661735</v>
       </c>
       <c r="K13">
-        <v>0.9965251192418992</v>
+        <v>1.026807532118757</v>
       </c>
       <c r="L13">
-        <v>0.98124549466703</v>
+        <v>1.018854917102701</v>
       </c>
       <c r="M13">
-        <v>0.9730438079678329</v>
+        <v>1.027748869014158</v>
       </c>
       <c r="N13">
-        <v>0.989417702841365</v>
+        <v>1.017574682168965</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9530243807848563</v>
+        <v>0.9873496258336005</v>
       </c>
       <c r="D14">
-        <v>0.9822724755861781</v>
+        <v>1.013170225483414</v>
       </c>
       <c r="E14">
-        <v>0.9668067582076887</v>
+        <v>1.005150062164356</v>
       </c>
       <c r="F14">
-        <v>0.9588238690396839</v>
+        <v>1.014271957916581</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028123339141759</v>
+        <v>1.045102264818589</v>
       </c>
       <c r="J14">
-        <v>0.9845296165094175</v>
+        <v>1.017294733330018</v>
       </c>
       <c r="K14">
-        <v>0.9975540531012663</v>
+        <v>1.027864621337325</v>
       </c>
       <c r="L14">
-        <v>0.9824008582080499</v>
+        <v>1.019992347336264</v>
       </c>
       <c r="M14">
-        <v>0.974584504544904</v>
+        <v>1.028946275914445</v>
       </c>
       <c r="N14">
-        <v>0.9902351639865493</v>
+        <v>1.018739408536684</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9539839176159305</v>
+        <v>0.9882931627134945</v>
       </c>
       <c r="D15">
-        <v>0.9830079053165114</v>
+        <v>1.013918407641071</v>
       </c>
       <c r="E15">
-        <v>0.96762413283699</v>
+        <v>1.005949817846608</v>
       </c>
       <c r="F15">
-        <v>0.9598835637056662</v>
+        <v>1.015107638073004</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028481551082387</v>
+        <v>1.045435827114986</v>
       </c>
       <c r="J15">
-        <v>0.9852411735259606</v>
+        <v>1.018007110313371</v>
       </c>
       <c r="K15">
-        <v>0.9981837882744724</v>
+        <v>1.028512034535447</v>
       </c>
       <c r="L15">
-        <v>0.9831080850114416</v>
+        <v>1.020689085920259</v>
       </c>
       <c r="M15">
-        <v>0.9755274626177032</v>
+        <v>1.029679784405534</v>
       </c>
       <c r="N15">
-        <v>0.9907354765667673</v>
+        <v>1.019452797177064</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9594766194229306</v>
+        <v>0.9937028023901184</v>
       </c>
       <c r="D16">
-        <v>0.9872203097495224</v>
+        <v>1.018210337132453</v>
       </c>
       <c r="E16">
-        <v>0.9723065193383021</v>
+        <v>1.010538846181574</v>
       </c>
       <c r="F16">
-        <v>0.9659490821913268</v>
+        <v>1.019902947032651</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030526752270459</v>
+        <v>1.04734329415702</v>
       </c>
       <c r="J16">
-        <v>0.9893134012171318</v>
+        <v>1.022090918774133</v>
       </c>
       <c r="K16">
-        <v>1.001786834811685</v>
+        <v>1.03222266661422</v>
       </c>
       <c r="L16">
-        <v>0.9871562526504485</v>
+        <v>1.024684263742006</v>
       </c>
       <c r="M16">
-        <v>0.9809230327055227</v>
+        <v>1.033886260785852</v>
       </c>
       <c r="N16">
-        <v>0.9935980967391915</v>
+        <v>1.023542405114259</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9628444505394891</v>
+        <v>0.997026741600778</v>
       </c>
       <c r="D17">
-        <v>0.9898051893178312</v>
+        <v>1.020849378546604</v>
       </c>
       <c r="E17">
-        <v>0.9751804100842557</v>
+        <v>1.013361693464211</v>
       </c>
       <c r="F17">
-        <v>0.9696678124119362</v>
+        <v>1.022852805611613</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031776013867467</v>
+        <v>1.048510885434194</v>
       </c>
       <c r="J17">
-        <v>0.9918093395865623</v>
+        <v>1.024599659189015</v>
       </c>
       <c r="K17">
-        <v>1.003994363333587</v>
+        <v>1.034501458291973</v>
       </c>
       <c r="L17">
-        <v>0.9896380764451125</v>
+        <v>1.027139430760396</v>
       </c>
       <c r="M17">
-        <v>0.984229431600065</v>
+        <v>1.036471665591709</v>
       </c>
       <c r="N17">
-        <v>0.9953520402484992</v>
+        <v>1.026054708228287</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9647822413231176</v>
+        <v>0.9989416517957528</v>
       </c>
       <c r="D18">
-        <v>0.9912931534652362</v>
+        <v>1.022370334458522</v>
       </c>
       <c r="E18">
-        <v>0.9768349895310734</v>
+        <v>1.014988998159224</v>
       </c>
       <c r="F18">
-        <v>0.971807438046195</v>
+        <v>1.024553371411862</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032493076326971</v>
+        <v>1.049181894498813</v>
       </c>
       <c r="J18">
-        <v>0.9932450863767381</v>
+        <v>1.026044701962555</v>
       </c>
       <c r="K18">
-        <v>1.005263890186702</v>
+        <v>1.035813784582929</v>
       </c>
       <c r="L18">
-        <v>0.9910659316757474</v>
+        <v>1.028553922330064</v>
       </c>
       <c r="M18">
-        <v>0.9861312283476014</v>
+        <v>1.037961326157025</v>
       </c>
       <c r="N18">
-        <v>0.9963607383768607</v>
+        <v>1.027501803128314</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9654385862701298</v>
+        <v>0.9995906357367383</v>
       </c>
       <c r="D19">
-        <v>0.9917972458640851</v>
+        <v>1.022885901365193</v>
       </c>
       <c r="E19">
-        <v>0.977395572510686</v>
+        <v>1.01554068636266</v>
       </c>
       <c r="F19">
-        <v>0.9725321391744255</v>
+        <v>1.025129903546345</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032735652679895</v>
+        <v>1.049409025875385</v>
       </c>
       <c r="J19">
-        <v>0.9937313186486099</v>
+        <v>1.026534399547397</v>
       </c>
       <c r="K19">
-        <v>1.005693775044203</v>
+        <v>1.036258460890519</v>
       </c>
       <c r="L19">
-        <v>0.9915495300122911</v>
+        <v>1.029033318177865</v>
       </c>
       <c r="M19">
-        <v>0.9867752745398751</v>
+        <v>1.038466220653417</v>
       </c>
       <c r="N19">
-        <v>0.9967023059347627</v>
+        <v>1.027992196139895</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9624858956476035</v>
+        <v>0.996672609417795</v>
       </c>
       <c r="D20">
-        <v>0.9895299198743212</v>
+        <v>1.020568150242806</v>
       </c>
       <c r="E20">
-        <v>0.9748743379916072</v>
+        <v>1.013060834982302</v>
       </c>
       <c r="F20">
-        <v>0.9692719071383201</v>
+        <v>1.022538405878966</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031643191949091</v>
+        <v>1.048386659621634</v>
       </c>
       <c r="J20">
-        <v>0.991543648341941</v>
+        <v>1.024332401712344</v>
       </c>
       <c r="K20">
-        <v>1.00375940579742</v>
+        <v>1.034258724661858</v>
       </c>
       <c r="L20">
-        <v>0.9893738640252322</v>
+        <v>1.026877848399562</v>
       </c>
       <c r="M20">
-        <v>0.98387748494117</v>
+        <v>1.036196193072154</v>
       </c>
       <c r="N20">
-        <v>0.9951653574711539</v>
+        <v>1.025787071215344</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9525640971151751</v>
+        <v>0.9868971767852613</v>
       </c>
       <c r="D21">
-        <v>0.9819197434803139</v>
+        <v>1.012811497991954</v>
       </c>
       <c r="E21">
-        <v>0.9664147330662013</v>
+        <v>1.004766628855896</v>
       </c>
       <c r="F21">
-        <v>0.9583155289489007</v>
+        <v>1.013871303708638</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02795141300746</v>
+        <v>1.044942225969195</v>
       </c>
       <c r="J21">
-        <v>0.9841882714419419</v>
+        <v>1.016953123522102</v>
       </c>
       <c r="K21">
-        <v>0.9972519433862055</v>
+        <v>1.027554150806642</v>
       </c>
       <c r="L21">
-        <v>0.9820616033573409</v>
+        <v>1.01965825522829</v>
       </c>
       <c r="M21">
-        <v>0.9741321324381892</v>
+        <v>1.028594560654758</v>
       </c>
       <c r="N21">
-        <v>0.9899951447761347</v>
+        <v>1.018397313603657</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9460555719639864</v>
+        <v>0.9805107050013714</v>
       </c>
       <c r="D22">
-        <v>0.9769355314113262</v>
+        <v>1.007751099406416</v>
       </c>
       <c r="E22">
-        <v>0.9608758825765729</v>
+        <v>0.9993591534083803</v>
       </c>
       <c r="F22">
-        <v>0.9511265467046542</v>
+        <v>1.008221150022883</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025514099916528</v>
+        <v>1.04267745050082</v>
       </c>
       <c r="J22">
-        <v>0.9793606228358699</v>
+        <v>1.01213079283164</v>
       </c>
       <c r="K22">
-        <v>0.9929781776852239</v>
+        <v>1.023170553630799</v>
       </c>
       <c r="L22">
-        <v>0.9772643876889392</v>
+        <v>1.014943316293697</v>
       </c>
       <c r="M22">
-        <v>0.9677326146973715</v>
+        <v>1.023631484851707</v>
       </c>
       <c r="N22">
-        <v>0.9865998141426499</v>
+        <v>1.013568134650485</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9495331030544335</v>
+        <v>0.9839203829305059</v>
       </c>
       <c r="D23">
-        <v>0.9795977887861564</v>
+        <v>1.010452053625264</v>
       </c>
       <c r="E23">
-        <v>0.963834268476409</v>
+        <v>1.002245031529235</v>
       </c>
       <c r="F23">
-        <v>0.9549678785227599</v>
+        <v>1.01123649850749</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026817784758987</v>
+        <v>1.043887906157793</v>
       </c>
       <c r="J23">
-        <v>0.9819402595825589</v>
+        <v>1.014705468113911</v>
       </c>
       <c r="K23">
-        <v>0.9952620789693488</v>
+        <v>1.025511175578221</v>
       </c>
       <c r="L23">
-        <v>0.9798275631034183</v>
+        <v>1.017460361041929</v>
       </c>
       <c r="M23">
-        <v>0.9711525691272941</v>
+        <v>1.026280863188181</v>
       </c>
       <c r="N23">
-        <v>0.988414261985387</v>
+        <v>1.016146466266977</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9626479930764085</v>
+        <v>0.9968327000632506</v>
       </c>
       <c r="D24">
-        <v>0.9896543631032918</v>
+        <v>1.020695281731295</v>
       </c>
       <c r="E24">
-        <v>0.9750127056385032</v>
+        <v>1.013196839153428</v>
       </c>
       <c r="F24">
-        <v>0.969450890323553</v>
+        <v>1.022680531291438</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031703244216251</v>
+        <v>1.048442822813489</v>
       </c>
       <c r="J24">
-        <v>0.991663764638019</v>
+        <v>1.024453220109528</v>
       </c>
       <c r="K24">
-        <v>1.003865628686888</v>
+        <v>1.034368457454219</v>
       </c>
       <c r="L24">
-        <v>0.9894933110521961</v>
+        <v>1.026996100308951</v>
       </c>
       <c r="M24">
-        <v>0.9840365968887604</v>
+        <v>1.036320723799848</v>
       </c>
       <c r="N24">
-        <v>0.9952497555596451</v>
+        <v>1.02590806118851</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9768338588218743</v>
+        <v>1.010888734186011</v>
       </c>
       <c r="D25">
-        <v>1.000557079985099</v>
+        <v>1.031868680377064</v>
       </c>
       <c r="E25">
-        <v>0.9871413807312177</v>
+        <v>1.02515916464928</v>
       </c>
       <c r="F25">
-        <v>0.9851144367980514</v>
+        <v>1.035182093682534</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036921092555606</v>
+        <v>1.05333841287362</v>
       </c>
       <c r="J25">
-        <v>1.002166823564774</v>
+        <v>1.035055124675522</v>
       </c>
       <c r="K25">
-        <v>1.01314675415535</v>
+        <v>1.043991628929797</v>
       </c>
       <c r="L25">
-        <v>0.9999426447675787</v>
+        <v>1.037379079345722</v>
       </c>
       <c r="M25">
-        <v>0.997948312504063</v>
+        <v>1.047257743190213</v>
       </c>
       <c r="N25">
-        <v>1.002624478183824</v>
+        <v>1.036525021675043</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_37/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.02146145550913</v>
+        <v>1.012200197126661</v>
       </c>
       <c r="D2">
-        <v>1.040285355237258</v>
+        <v>1.027167984688435</v>
       </c>
       <c r="E2">
-        <v>1.034184015685053</v>
+        <v>1.02261719104473</v>
       </c>
       <c r="F2">
-        <v>1.044614865501715</v>
+        <v>1.024090573051714</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056967252231495</v>
+        <v>1.046228509226742</v>
       </c>
       <c r="J2">
-        <v>1.04301867313021</v>
+        <v>1.034022026561269</v>
       </c>
       <c r="K2">
-        <v>1.051210593101943</v>
+        <v>1.038261369588392</v>
       </c>
       <c r="L2">
-        <v>1.045186801343686</v>
+        <v>1.033770174433814</v>
       </c>
       <c r="M2">
-        <v>1.055485760378162</v>
+        <v>1.035224187937327</v>
       </c>
       <c r="N2">
-        <v>1.044499879281969</v>
+        <v>1.014849417251468</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.028813853970906</v>
+        <v>1.017164770651309</v>
       </c>
       <c r="D3">
-        <v>1.046142927862002</v>
+        <v>1.030876559554956</v>
       </c>
       <c r="E3">
-        <v>1.040473380383601</v>
+        <v>1.027104559866867</v>
       </c>
       <c r="F3">
-        <v>1.051189070398286</v>
+        <v>1.029586246785741</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059458334826551</v>
+        <v>1.047780436389103</v>
       </c>
       <c r="J3">
-        <v>1.04854869744867</v>
+        <v>1.037198197898357</v>
       </c>
       <c r="K3">
-        <v>1.056217575374184</v>
+        <v>1.041129042515936</v>
       </c>
       <c r="L3">
-        <v>1.050613318649344</v>
+        <v>1.037401992157037</v>
       </c>
       <c r="M3">
-        <v>1.061206336514419</v>
+        <v>1.03985405991979</v>
       </c>
       <c r="N3">
-        <v>1.050037756869264</v>
+        <v>1.015939082606742</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.033434419626781</v>
+        <v>1.020305945021453</v>
       </c>
       <c r="D4">
-        <v>1.049825425904082</v>
+        <v>1.033225513142747</v>
       </c>
       <c r="E4">
-        <v>1.044431437451508</v>
+        <v>1.029949353759735</v>
       </c>
       <c r="F4">
-        <v>1.055326623869007</v>
+        <v>1.033071624008156</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.061008363489519</v>
+        <v>1.048753036187404</v>
       </c>
       <c r="J4">
-        <v>1.052019884036706</v>
+        <v>1.039204109027601</v>
       </c>
       <c r="K4">
-        <v>1.059357511330078</v>
+        <v>1.042938814633415</v>
       </c>
       <c r="L4">
-        <v>1.054021632330049</v>
+        <v>1.039699269640057</v>
       </c>
       <c r="M4">
-        <v>1.064800193451186</v>
+        <v>1.042786638969857</v>
       </c>
       <c r="N4">
-        <v>1.053513872940406</v>
+        <v>1.016626853875933</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.035345899554008</v>
+        <v>1.021610104692908</v>
       </c>
       <c r="D5">
-        <v>1.051349058004766</v>
+        <v>1.034201293621836</v>
       </c>
       <c r="E5">
-        <v>1.046070089288553</v>
+        <v>1.03113176457199</v>
       </c>
       <c r="F5">
-        <v>1.05703964247755</v>
+        <v>1.034520654127691</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061645813821477</v>
+        <v>1.049154566057663</v>
       </c>
       <c r="J5">
-        <v>1.053454825877791</v>
+        <v>1.040036003431041</v>
       </c>
       <c r="K5">
-        <v>1.060654789521644</v>
+        <v>1.043689040246847</v>
       </c>
       <c r="L5">
-        <v>1.055431077048743</v>
+        <v>1.040652876617127</v>
       </c>
       <c r="M5">
-        <v>1.066286563131578</v>
+        <v>1.044004943288434</v>
       </c>
       <c r="N5">
-        <v>1.054950852563494</v>
+        <v>1.016911983040416</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.035665076207765</v>
+        <v>1.021828136343883</v>
       </c>
       <c r="D6">
-        <v>1.051603482440547</v>
+        <v>1.034364456235346</v>
       </c>
       <c r="E6">
-        <v>1.046343780241337</v>
+        <v>1.031329517804377</v>
       </c>
       <c r="F6">
-        <v>1.057325757445225</v>
+        <v>1.03476302103432</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.061752030295111</v>
+        <v>1.049221559624412</v>
       </c>
       <c r="J6">
-        <v>1.053694367131267</v>
+        <v>1.040175025655632</v>
       </c>
       <c r="K6">
-        <v>1.060871306399273</v>
+        <v>1.043814394870164</v>
       </c>
       <c r="L6">
-        <v>1.055666390725054</v>
+        <v>1.040812290772932</v>
       </c>
       <c r="M6">
-        <v>1.066534731203046</v>
+        <v>1.044208665222467</v>
       </c>
       <c r="N6">
-        <v>1.055190733993027</v>
+        <v>1.016959626137221</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.033460080505632</v>
+        <v>1.020323434816218</v>
       </c>
       <c r="D7">
-        <v>1.049845879331297</v>
+        <v>1.033238597068884</v>
       </c>
       <c r="E7">
-        <v>1.044453430902367</v>
+        <v>1.029965205696706</v>
       </c>
       <c r="F7">
-        <v>1.055349615234402</v>
+        <v>1.033091048862912</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.061016936060342</v>
+        <v>1.048758430058684</v>
       </c>
       <c r="J7">
-        <v>1.052039151819655</v>
+        <v>1.039215269074664</v>
       </c>
       <c r="K7">
-        <v>1.059374933541979</v>
+        <v>1.042948880379367</v>
       </c>
       <c r="L7">
-        <v>1.054040555806511</v>
+        <v>1.039712059005809</v>
       </c>
       <c r="M7">
-        <v>1.064820148965944</v>
+        <v>1.042802974430768</v>
       </c>
       <c r="N7">
-        <v>1.053533168085816</v>
+        <v>1.016630679367959</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.023975700116739</v>
+        <v>1.01389315992752</v>
       </c>
       <c r="D8">
-        <v>1.042288076766584</v>
+        <v>1.028432086786589</v>
       </c>
       <c r="E8">
-        <v>1.03633351726663</v>
+        <v>1.024146237664877</v>
       </c>
       <c r="F8">
-        <v>1.046861664023053</v>
+        <v>1.025962933521809</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057822330987172</v>
+        <v>1.046759666312016</v>
       </c>
       <c r="J8">
-        <v>1.044910562948018</v>
+        <v>1.035105886156623</v>
       </c>
       <c r="K8">
-        <v>1.052924148798929</v>
+        <v>1.039240222152614</v>
       </c>
       <c r="L8">
-        <v>1.047042830853019</v>
+        <v>1.035008772147419</v>
       </c>
       <c r="M8">
-        <v>1.057442183159884</v>
+        <v>1.036802339880885</v>
       </c>
       <c r="N8">
-        <v>1.046394455800321</v>
+        <v>1.015221343920455</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.00612618961651</v>
+        <v>1.001984739086738</v>
       </c>
       <c r="D9">
-        <v>1.028080514832602</v>
+        <v>1.0195532790972</v>
       </c>
       <c r="E9">
-        <v>1.021101384560528</v>
+        <v>1.013415800948468</v>
       </c>
       <c r="F9">
-        <v>1.030941211321952</v>
+        <v>1.012827252737985</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051687978138867</v>
+        <v>1.042985285463245</v>
       </c>
       <c r="J9">
-        <v>1.031464455714741</v>
+        <v>1.027467605248999</v>
       </c>
       <c r="K9">
-        <v>1.040733860619201</v>
+        <v>1.032336888253964</v>
       </c>
       <c r="L9">
-        <v>1.033861138318376</v>
+        <v>1.026294902462068</v>
       </c>
       <c r="M9">
-        <v>1.043551471110183</v>
+        <v>1.025715589208021</v>
       </c>
       <c r="N9">
-        <v>1.032929253552482</v>
+        <v>1.012598808089791</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9933238541203665</v>
+        <v>0.9936095993676141</v>
       </c>
       <c r="D10">
-        <v>1.017909559549045</v>
+        <v>1.013328253239418</v>
       </c>
       <c r="E10">
-        <v>1.010217175937502</v>
+        <v>1.005902536464197</v>
       </c>
       <c r="F10">
-        <v>1.019566809433392</v>
+        <v>1.003632958909847</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047209960603746</v>
+        <v>1.040283937378232</v>
       </c>
       <c r="J10">
-        <v>1.021804878547713</v>
+        <v>1.022079074110806</v>
       </c>
       <c r="K10">
-        <v>1.031962809172891</v>
+        <v>1.027460960794395</v>
       </c>
       <c r="L10">
-        <v>1.024404374394041</v>
+        <v>1.02016603037379</v>
       </c>
       <c r="M10">
-        <v>1.033591543142456</v>
+        <v>1.017936927515173</v>
       </c>
       <c r="N10">
-        <v>1.023255958677909</v>
+        <v>1.010747159294455</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9875300575152199</v>
+        <v>0.9898678197427342</v>
       </c>
       <c r="D11">
-        <v>1.013313290058997</v>
+        <v>1.010552678583725</v>
       </c>
       <c r="E11">
-        <v>1.005302983639148</v>
+        <v>1.002554303316527</v>
       </c>
       <c r="F11">
-        <v>1.01443174793873</v>
+        <v>0.9995356089126078</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045166070787705</v>
+        <v>1.039066523514157</v>
       </c>
       <c r="J11">
-        <v>1.017430962209028</v>
+        <v>1.019668269680564</v>
       </c>
       <c r="K11">
-        <v>1.027988429979738</v>
+        <v>1.025278293484153</v>
       </c>
       <c r="L11">
-        <v>1.020125581616826</v>
+        <v>1.017428209448372</v>
       </c>
       <c r="M11">
-        <v>1.029086539726568</v>
+        <v>1.014466288286279</v>
       </c>
       <c r="N11">
-        <v>1.018875830876327</v>
+        <v>1.009918476783287</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9853368211668539</v>
+        <v>0.9884595350201418</v>
       </c>
       <c r="D12">
-        <v>1.011574581406466</v>
+        <v>1.009508972287569</v>
       </c>
       <c r="E12">
-        <v>1.003444631706001</v>
+        <v>1.001295462503918</v>
       </c>
       <c r="F12">
-        <v>1.012489945769667</v>
+        <v>0.9979950598265228</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044389874346425</v>
+        <v>1.03860679949525</v>
       </c>
       <c r="J12">
-        <v>1.015774983777765</v>
+        <v>1.018760467855385</v>
       </c>
       <c r="K12">
-        <v>1.026483340279059</v>
+        <v>1.02445623507023</v>
       </c>
       <c r="L12">
-        <v>1.01850613422941</v>
+        <v>1.016397885510985</v>
       </c>
       <c r="M12">
-        <v>1.027381707338832</v>
+        <v>1.013160772394383</v>
       </c>
       <c r="N12">
-        <v>1.017217500765749</v>
+        <v>1.00960640124783</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.985809202684348</v>
+        <v>0.9887624691339794</v>
       </c>
       <c r="D13">
-        <v>1.011949008425348</v>
+        <v>1.009733438944278</v>
       </c>
       <c r="E13">
-        <v>1.003844796173913</v>
+        <v>1.001566189211359</v>
       </c>
       <c r="F13">
-        <v>1.012908076398064</v>
+        <v>0.9983263746747035</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044557162388575</v>
+        <v>1.038705758257503</v>
       </c>
       <c r="J13">
-        <v>1.016131658661735</v>
+        <v>1.018955763417167</v>
       </c>
       <c r="K13">
-        <v>1.026807532118757</v>
+        <v>1.024633091708237</v>
       </c>
       <c r="L13">
-        <v>1.018854917102701</v>
+        <v>1.016619511609471</v>
       </c>
       <c r="M13">
-        <v>1.027748869014158</v>
+        <v>1.013441567149828</v>
       </c>
       <c r="N13">
-        <v>1.017574682168965</v>
+        <v>1.009673539341945</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9873496258336005</v>
+        <v>0.9897517929580669</v>
       </c>
       <c r="D14">
-        <v>1.013170225483414</v>
+        <v>1.010466669518971</v>
       </c>
       <c r="E14">
-        <v>1.005150062164356</v>
+        <v>1.002450561785831</v>
       </c>
       <c r="F14">
-        <v>1.014271957916581</v>
+        <v>0.9994086533405981</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045102264818589</v>
+        <v>1.039028678184657</v>
       </c>
       <c r="J14">
-        <v>1.017294733330018</v>
+        <v>1.019593485942254</v>
       </c>
       <c r="K14">
-        <v>1.027864621337325</v>
+        <v>1.025210576402076</v>
       </c>
       <c r="L14">
-        <v>1.019992347336264</v>
+        <v>1.017343320006604</v>
       </c>
       <c r="M14">
-        <v>1.028946275914445</v>
+        <v>1.014358713730285</v>
       </c>
       <c r="N14">
-        <v>1.018739408536684</v>
+        <v>1.009892768903273</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9882931627134945</v>
+        <v>0.9903588725916206</v>
       </c>
       <c r="D15">
-        <v>1.013918407641071</v>
+        <v>1.010916727766095</v>
       </c>
       <c r="E15">
-        <v>1.005949817846608</v>
+        <v>1.002993416377278</v>
       </c>
       <c r="F15">
-        <v>1.015107638073004</v>
+        <v>1.000072978546369</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045435827114986</v>
+        <v>1.039226631957784</v>
       </c>
       <c r="J15">
-        <v>1.018007110313371</v>
+        <v>1.019984754040248</v>
       </c>
       <c r="K15">
-        <v>1.028512034535447</v>
+        <v>1.025564865265082</v>
       </c>
       <c r="L15">
-        <v>1.020689085920259</v>
+        <v>1.017787486161671</v>
       </c>
       <c r="M15">
-        <v>1.029679784405534</v>
+        <v>1.014921598777546</v>
       </c>
       <c r="N15">
-        <v>1.019452797177064</v>
+        <v>1.010027271197965</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9937028023901184</v>
+        <v>0.9938554080663261</v>
       </c>
       <c r="D16">
-        <v>1.018210337132453</v>
+        <v>1.01351071287733</v>
       </c>
       <c r="E16">
-        <v>1.010538846181574</v>
+        <v>1.006122672676337</v>
       </c>
       <c r="F16">
-        <v>1.019902947032651</v>
+        <v>1.003902342371938</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04734329415702</v>
+        <v>1.040363698302355</v>
       </c>
       <c r="J16">
-        <v>1.022090918774133</v>
+        <v>1.022237381468788</v>
       </c>
       <c r="K16">
-        <v>1.03222266661422</v>
+        <v>1.027604263847917</v>
       </c>
       <c r="L16">
-        <v>1.024684263742006</v>
+        <v>1.020345897830572</v>
       </c>
       <c r="M16">
-        <v>1.033886260785852</v>
+        <v>1.018165022745222</v>
       </c>
       <c r="N16">
-        <v>1.023542405114259</v>
+        <v>1.010801570659671</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.997026741600778</v>
+        <v>0.9960170772351915</v>
       </c>
       <c r="D17">
-        <v>1.020849378546604</v>
+        <v>1.015115929310218</v>
       </c>
       <c r="E17">
-        <v>1.013361693464211</v>
+        <v>1.008059545056283</v>
       </c>
       <c r="F17">
-        <v>1.022852805611613</v>
+        <v>1.006272512621484</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048510885434194</v>
+        <v>1.041063934832953</v>
       </c>
       <c r="J17">
-        <v>1.024599659189015</v>
+        <v>1.0236291784331</v>
       </c>
       <c r="K17">
-        <v>1.034501458291973</v>
+        <v>1.028864012717731</v>
       </c>
       <c r="L17">
-        <v>1.027139430760396</v>
+        <v>1.021927721701906</v>
       </c>
       <c r="M17">
-        <v>1.036471665591709</v>
+        <v>1.02017144860674</v>
       </c>
       <c r="N17">
-        <v>1.026054708228287</v>
+        <v>1.011279912364671</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9989416517957528</v>
+        <v>0.9972668975110973</v>
       </c>
       <c r="D18">
-        <v>1.022370334458522</v>
+        <v>1.016044546807046</v>
       </c>
       <c r="E18">
-        <v>1.014988998159224</v>
+        <v>1.009180193671727</v>
       </c>
       <c r="F18">
-        <v>1.024553371411862</v>
+        <v>1.007643868192553</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049181894498813</v>
+        <v>1.041467792779464</v>
       </c>
       <c r="J18">
-        <v>1.026044701962555</v>
+        <v>1.0244335572903</v>
       </c>
       <c r="K18">
-        <v>1.035813784582929</v>
+        <v>1.029591960681104</v>
       </c>
       <c r="L18">
-        <v>1.028553922330064</v>
+        <v>1.022842324414071</v>
       </c>
       <c r="M18">
-        <v>1.037961326157025</v>
+        <v>1.021331950180532</v>
       </c>
       <c r="N18">
-        <v>1.027501803128314</v>
+        <v>1.01155634093745</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9995906357367383</v>
+        <v>0.9976912125035416</v>
       </c>
       <c r="D19">
-        <v>1.022885901365193</v>
+        <v>1.016359899421435</v>
       </c>
       <c r="E19">
-        <v>1.01554068636266</v>
+        <v>1.009560789005954</v>
       </c>
       <c r="F19">
-        <v>1.025129903546345</v>
+        <v>1.008109611746214</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049409025875385</v>
+        <v>1.041604731658298</v>
       </c>
       <c r="J19">
-        <v>1.026534399547397</v>
+        <v>1.024706588530932</v>
       </c>
       <c r="K19">
-        <v>1.036258460890519</v>
+        <v>1.029839028943542</v>
       </c>
       <c r="L19">
-        <v>1.029033318177865</v>
+        <v>1.023152837205306</v>
       </c>
       <c r="M19">
-        <v>1.038466220653417</v>
+        <v>1.021726015228141</v>
       </c>
       <c r="N19">
-        <v>1.027992196139895</v>
+        <v>1.011650164814948</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.996672609417795</v>
+        <v>0.9957863006703532</v>
       </c>
       <c r="D20">
-        <v>1.020568150242806</v>
+        <v>1.014944503847201</v>
       </c>
       <c r="E20">
-        <v>1.013060834982302</v>
+        <v>1.007852684086271</v>
       </c>
       <c r="F20">
-        <v>1.022538405878966</v>
+        <v>1.006019374534258</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048386659621634</v>
+        <v>1.040989282091054</v>
       </c>
       <c r="J20">
-        <v>1.024332401712344</v>
+        <v>1.023480625288134</v>
       </c>
       <c r="K20">
-        <v>1.034258724661858</v>
+        <v>1.028729565479411</v>
       </c>
       <c r="L20">
-        <v>1.026877848399562</v>
+        <v>1.021758844741107</v>
       </c>
       <c r="M20">
-        <v>1.036196193072154</v>
+        <v>1.019957199884264</v>
       </c>
       <c r="N20">
-        <v>1.025787071215344</v>
+        <v>1.011228859252171</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9868971767852613</v>
+        <v>0.9894609795567879</v>
       </c>
       <c r="D21">
-        <v>1.012811497991954</v>
+        <v>1.010251108824315</v>
       </c>
       <c r="E21">
-        <v>1.004766628855896</v>
+        <v>1.002190562082513</v>
       </c>
       <c r="F21">
-        <v>1.013871303708638</v>
+        <v>0.9990904727873641</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044942225969195</v>
+        <v>1.038933796954354</v>
       </c>
       <c r="J21">
-        <v>1.016953123522102</v>
+        <v>1.019406038371843</v>
       </c>
       <c r="K21">
-        <v>1.027554150806642</v>
+        <v>1.025040839044441</v>
       </c>
       <c r="L21">
-        <v>1.01965825522829</v>
+        <v>1.017130552099177</v>
       </c>
       <c r="M21">
-        <v>1.028594560654758</v>
+        <v>1.014089096952719</v>
       </c>
       <c r="N21">
-        <v>1.018397313603657</v>
+        <v>1.009828330909406</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9805107050013714</v>
+        <v>0.9853768070371068</v>
       </c>
       <c r="D22">
-        <v>1.007751099406416</v>
+        <v>1.007226119867207</v>
       </c>
       <c r="E22">
-        <v>0.9993591534083803</v>
+        <v>0.9985423652070352</v>
       </c>
       <c r="F22">
-        <v>1.008221150022883</v>
+        <v>0.994625675030394</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04267745050082</v>
+        <v>1.037597713375304</v>
       </c>
       <c r="J22">
-        <v>1.01213079283164</v>
+        <v>1.016772520072435</v>
       </c>
       <c r="K22">
-        <v>1.023170553630799</v>
+        <v>1.022655772348728</v>
       </c>
       <c r="L22">
-        <v>1.014943316293697</v>
+        <v>1.014142753537693</v>
       </c>
       <c r="M22">
-        <v>1.023631484851707</v>
+        <v>1.010304355492768</v>
       </c>
       <c r="N22">
-        <v>1.013568134650485</v>
+        <v>1.008922957370036</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9839203829305059</v>
+        <v>0.9875524563880674</v>
       </c>
       <c r="D23">
-        <v>1.010452053625264</v>
+        <v>1.008836993052549</v>
       </c>
       <c r="E23">
-        <v>1.002245031529235</v>
+        <v>1.000485021229818</v>
       </c>
       <c r="F23">
-        <v>1.01123649850749</v>
+        <v>0.9970032290255276</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043887906157793</v>
+        <v>1.03831026643424</v>
       </c>
       <c r="J23">
-        <v>1.014705468113911</v>
+        <v>1.018175630132424</v>
       </c>
       <c r="K23">
-        <v>1.025511175578221</v>
+        <v>1.023926592583964</v>
       </c>
       <c r="L23">
-        <v>1.017460361041929</v>
+        <v>1.015734287002764</v>
       </c>
       <c r="M23">
-        <v>1.026280863188181</v>
+        <v>1.012320093176251</v>
       </c>
       <c r="N23">
-        <v>1.016146466266977</v>
+        <v>1.009405343810079</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9968327000632506</v>
+        <v>0.9958906127171204</v>
       </c>
       <c r="D24">
-        <v>1.020695281731295</v>
+        <v>1.015021987311396</v>
       </c>
       <c r="E24">
-        <v>1.013196839153428</v>
+        <v>1.007946183699095</v>
       </c>
       <c r="F24">
-        <v>1.022680531291438</v>
+        <v>1.006133791033059</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048442822813489</v>
+        <v>1.041023028573603</v>
       </c>
       <c r="J24">
-        <v>1.024453220109528</v>
+        <v>1.023547772980014</v>
       </c>
       <c r="K24">
-        <v>1.034368457454219</v>
+        <v>1.028790337499903</v>
       </c>
       <c r="L24">
-        <v>1.026996100308951</v>
+        <v>1.02183517778675</v>
       </c>
       <c r="M24">
-        <v>1.036320723799848</v>
+        <v>1.020054039912119</v>
       </c>
       <c r="N24">
-        <v>1.02590806118851</v>
+        <v>1.011251935912892</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.010888734186011</v>
+        <v>1.005136500284997</v>
       </c>
       <c r="D25">
-        <v>1.031868680377064</v>
+        <v>1.021900177329269</v>
       </c>
       <c r="E25">
-        <v>1.02515916464928</v>
+        <v>1.016250220662437</v>
       </c>
       <c r="F25">
-        <v>1.035182093682534</v>
+        <v>1.016296260895031</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05333841287362</v>
+        <v>1.043992474462197</v>
       </c>
       <c r="J25">
-        <v>1.035055124675522</v>
+        <v>1.029492228644094</v>
       </c>
       <c r="K25">
-        <v>1.043991628929797</v>
+        <v>1.034167774290895</v>
       </c>
       <c r="L25">
-        <v>1.037379079345722</v>
+        <v>1.028601403653098</v>
       </c>
       <c r="M25">
-        <v>1.047257743190213</v>
+        <v>1.028646757985914</v>
       </c>
       <c r="N25">
-        <v>1.036525021675043</v>
+        <v>1.013294242530076</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_37/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.012200197126661</v>
+        <v>1.041964649446291</v>
       </c>
       <c r="D2">
-        <v>1.027167984688435</v>
+        <v>1.044114952081765</v>
       </c>
       <c r="E2">
-        <v>1.02261719104473</v>
+        <v>1.049829942171636</v>
       </c>
       <c r="F2">
-        <v>1.024090573051714</v>
+        <v>1.060000298987649</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046228509226742</v>
+        <v>1.040053609856913</v>
       </c>
       <c r="J2">
-        <v>1.034022026561269</v>
+        <v>1.047043020493194</v>
       </c>
       <c r="K2">
-        <v>1.038261369588392</v>
+        <v>1.046886911458517</v>
       </c>
       <c r="L2">
-        <v>1.033770174433814</v>
+        <v>1.052585910157114</v>
       </c>
       <c r="M2">
-        <v>1.035224187937327</v>
+        <v>1.0627282707336</v>
       </c>
       <c r="N2">
-        <v>1.014849417251468</v>
+        <v>1.019528603160958</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.017164770651309</v>
+        <v>1.042995697018675</v>
       </c>
       <c r="D3">
-        <v>1.030876559554956</v>
+        <v>1.044901260075661</v>
       </c>
       <c r="E3">
-        <v>1.027104559866867</v>
+        <v>1.05082001121375</v>
       </c>
       <c r="F3">
-        <v>1.029586246785741</v>
+        <v>1.061240350381163</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047780436389103</v>
+        <v>1.040318999402859</v>
       </c>
       <c r="J3">
-        <v>1.037198197898357</v>
+        <v>1.047719906683601</v>
       </c>
       <c r="K3">
-        <v>1.041129042515936</v>
+        <v>1.04748445678551</v>
       </c>
       <c r="L3">
-        <v>1.037401992157037</v>
+        <v>1.053387845190339</v>
       </c>
       <c r="M3">
-        <v>1.03985405991979</v>
+        <v>1.063781586190161</v>
       </c>
       <c r="N3">
-        <v>1.015939082606742</v>
+        <v>1.019757854908383</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.020305945021453</v>
+        <v>1.043662932138472</v>
       </c>
       <c r="D4">
-        <v>1.033225513142747</v>
+        <v>1.045410049820293</v>
       </c>
       <c r="E4">
-        <v>1.029949353759735</v>
+        <v>1.051461119053009</v>
       </c>
       <c r="F4">
-        <v>1.033071624008156</v>
+        <v>1.06204370158996</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048753036187404</v>
+        <v>1.040489561732674</v>
       </c>
       <c r="J4">
-        <v>1.039204109027601</v>
+        <v>1.048157385657466</v>
       </c>
       <c r="K4">
-        <v>1.042938814633415</v>
+        <v>1.047870448094591</v>
       </c>
       <c r="L4">
-        <v>1.039699269640057</v>
+        <v>1.05390660284762</v>
       </c>
       <c r="M4">
-        <v>1.042786638969857</v>
+        <v>1.06446354078635</v>
       </c>
       <c r="N4">
-        <v>1.016626853875933</v>
+        <v>1.019905915208565</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.021610104692908</v>
+        <v>1.04394345665508</v>
       </c>
       <c r="D5">
-        <v>1.034201293621836</v>
+        <v>1.045623943476834</v>
       </c>
       <c r="E5">
-        <v>1.03113176457199</v>
+        <v>1.051730752394475</v>
       </c>
       <c r="F5">
-        <v>1.034520654127691</v>
+        <v>1.062381659371959</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049154566057663</v>
+        <v>1.040560987676418</v>
       </c>
       <c r="J5">
-        <v>1.040036003431041</v>
+        <v>1.048341179137608</v>
       </c>
       <c r="K5">
-        <v>1.043689040246847</v>
+        <v>1.04803256042219</v>
       </c>
       <c r="L5">
-        <v>1.040652876617127</v>
+        <v>1.054124653050033</v>
       </c>
       <c r="M5">
-        <v>1.044004943288434</v>
+        <v>1.064750327791803</v>
       </c>
       <c r="N5">
-        <v>1.016911983040416</v>
+        <v>1.019968092351155</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.021828136343883</v>
+        <v>1.043990559065589</v>
       </c>
       <c r="D6">
-        <v>1.034364456235346</v>
+        <v>1.045659857055393</v>
       </c>
       <c r="E6">
-        <v>1.031329517804377</v>
+        <v>1.051776031558219</v>
       </c>
       <c r="F6">
-        <v>1.03476302103432</v>
+        <v>1.062438417404173</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049221559624412</v>
+        <v>1.040572964072858</v>
       </c>
       <c r="J6">
-        <v>1.040175025655632</v>
+        <v>1.048372031672148</v>
       </c>
       <c r="K6">
-        <v>1.043814394870164</v>
+        <v>1.048059770496885</v>
       </c>
       <c r="L6">
-        <v>1.040812290772932</v>
+        <v>1.054161262552893</v>
       </c>
       <c r="M6">
-        <v>1.044208665222467</v>
+        <v>1.064798486067199</v>
       </c>
       <c r="N6">
-        <v>1.016959626137221</v>
+        <v>1.019978528209608</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.020323434816218</v>
+        <v>1.043666680446496</v>
       </c>
       <c r="D7">
-        <v>1.033238597068884</v>
+        <v>1.045412907884613</v>
       </c>
       <c r="E7">
-        <v>1.029965205696706</v>
+        <v>1.051464721468606</v>
       </c>
       <c r="F7">
-        <v>1.033091048862912</v>
+        <v>1.062048216498445</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048758430058684</v>
+        <v>1.04049051722399</v>
       </c>
       <c r="J7">
-        <v>1.039215269074664</v>
+        <v>1.048159841997227</v>
       </c>
       <c r="K7">
-        <v>1.042948880379367</v>
+        <v>1.047872614870298</v>
       </c>
       <c r="L7">
-        <v>1.039712059005809</v>
+        <v>1.053909516584774</v>
       </c>
       <c r="M7">
-        <v>1.042802974430768</v>
+        <v>1.064467372481575</v>
       </c>
       <c r="N7">
-        <v>1.016630679367959</v>
+        <v>1.019906746287649</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.01389315992752</v>
+        <v>1.042313080630081</v>
       </c>
       <c r="D8">
-        <v>1.028432086786589</v>
+        <v>1.044380689058223</v>
       </c>
       <c r="E8">
-        <v>1.024146237664877</v>
+        <v>1.050164443839189</v>
       </c>
       <c r="F8">
-        <v>1.025962933521809</v>
+        <v>1.060419182591992</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046759666312016</v>
+        <v>1.04014354008971</v>
       </c>
       <c r="J8">
-        <v>1.035105886156623</v>
+        <v>1.047271883177425</v>
       </c>
       <c r="K8">
-        <v>1.039240222152614</v>
+        <v>1.04708899127467</v>
       </c>
       <c r="L8">
-        <v>1.035008772147419</v>
+        <v>1.052856958425479</v>
       </c>
       <c r="M8">
-        <v>1.036802339880885</v>
+        <v>1.063084163155555</v>
       </c>
       <c r="N8">
-        <v>1.015221343920455</v>
+        <v>1.019606137932242</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.001984739086738</v>
+        <v>1.039928460199267</v>
       </c>
       <c r="D9">
-        <v>1.0195532790972</v>
+        <v>1.042561780957705</v>
       </c>
       <c r="E9">
-        <v>1.013415800948468</v>
+        <v>1.047876772784714</v>
       </c>
       <c r="F9">
-        <v>1.012827252737985</v>
+        <v>1.057555917630924</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042985285463245</v>
+        <v>1.039523226263905</v>
       </c>
       <c r="J9">
-        <v>1.027467605248999</v>
+        <v>1.045703275695203</v>
       </c>
       <c r="K9">
-        <v>1.032336888253964</v>
+        <v>1.045703100899467</v>
       </c>
       <c r="L9">
-        <v>1.026294902462068</v>
+        <v>1.051001087612939</v>
       </c>
       <c r="M9">
-        <v>1.025715589208021</v>
+        <v>1.060649744282764</v>
       </c>
       <c r="N9">
-        <v>1.012598808089791</v>
+        <v>1.019074282986955</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9936095993676141</v>
+        <v>1.038339103645887</v>
       </c>
       <c r="D10">
-        <v>1.013328253239418</v>
+        <v>1.04134920265555</v>
       </c>
       <c r="E10">
-        <v>1.005902536464197</v>
+        <v>1.046354076622426</v>
       </c>
       <c r="F10">
-        <v>1.003632958909847</v>
+        <v>1.055651961266321</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040283937378232</v>
+        <v>1.03910371140401</v>
       </c>
       <c r="J10">
-        <v>1.022079074110806</v>
+        <v>1.044654916943254</v>
       </c>
       <c r="K10">
-        <v>1.027460960794395</v>
+        <v>1.044775797400694</v>
       </c>
       <c r="L10">
-        <v>1.02016603037379</v>
+        <v>1.049763084667815</v>
       </c>
       <c r="M10">
-        <v>1.017936927515173</v>
+        <v>1.059028784428888</v>
       </c>
       <c r="N10">
-        <v>1.010747159294455</v>
+        <v>1.01871827962548</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9898678197427342</v>
+        <v>1.037650984193456</v>
       </c>
       <c r="D11">
-        <v>1.010552678583725</v>
+        <v>1.040824155336858</v>
       </c>
       <c r="E11">
-        <v>1.002554303316527</v>
+        <v>1.045695306707466</v>
       </c>
       <c r="F11">
-        <v>0.9995356089126078</v>
+        <v>1.054828680504469</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039066523514157</v>
+        <v>1.038920641775578</v>
       </c>
       <c r="J11">
-        <v>1.019668269680564</v>
+        <v>1.044200345685051</v>
       </c>
       <c r="K11">
-        <v>1.025278293484153</v>
+        <v>1.044373466596</v>
       </c>
       <c r="L11">
-        <v>1.017428209448372</v>
+        <v>1.049226836388086</v>
       </c>
       <c r="M11">
-        <v>1.014466288286279</v>
+        <v>1.058327358314479</v>
       </c>
       <c r="N11">
-        <v>1.009918476783287</v>
+        <v>1.018563787830623</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9884595350201418</v>
+        <v>1.037395397995875</v>
       </c>
       <c r="D12">
-        <v>1.009508972287569</v>
+        <v>1.04062913086269</v>
       </c>
       <c r="E12">
-        <v>1.001295462503918</v>
+        <v>1.045450695469138</v>
       </c>
       <c r="F12">
-        <v>0.9979950598265228</v>
+        <v>1.054523048784257</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03860679949525</v>
+        <v>1.038852428751035</v>
       </c>
       <c r="J12">
-        <v>1.018760467855385</v>
+        <v>1.044031403787536</v>
       </c>
       <c r="K12">
-        <v>1.02445623507023</v>
+        <v>1.04422390263003</v>
       </c>
       <c r="L12">
-        <v>1.016397885510985</v>
+        <v>1.049027622027275</v>
       </c>
       <c r="M12">
-        <v>1.013160772394383</v>
+        <v>1.058066886146735</v>
       </c>
       <c r="N12">
-        <v>1.00960640124783</v>
+        <v>1.018506351716425</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9887624691339794</v>
+        <v>1.037450221565615</v>
       </c>
       <c r="D13">
-        <v>1.009733438944278</v>
+        <v>1.040670964200936</v>
       </c>
       <c r="E13">
-        <v>1.001566189211359</v>
+        <v>1.045503161553317</v>
       </c>
       <c r="F13">
-        <v>0.9983263746747035</v>
+        <v>1.05458860007857</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038705758257503</v>
+        <v>1.038867070305566</v>
       </c>
       <c r="J13">
-        <v>1.018955763417167</v>
+        <v>1.044067646646746</v>
       </c>
       <c r="K13">
-        <v>1.024633091708237</v>
+        <v>1.04425599005413</v>
       </c>
       <c r="L13">
-        <v>1.016619511609471</v>
+        <v>1.049070355446889</v>
       </c>
       <c r="M13">
-        <v>1.013441567149828</v>
+        <v>1.058122755207754</v>
       </c>
       <c r="N13">
-        <v>1.009673539341945</v>
+        <v>1.01851867426342</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9897517929580669</v>
+        <v>1.037629857115894</v>
       </c>
       <c r="D14">
-        <v>1.010466669518971</v>
+        <v>1.040808034520455</v>
       </c>
       <c r="E14">
-        <v>1.002450561785831</v>
+        <v>1.045675085327507</v>
       </c>
       <c r="F14">
-        <v>0.9994086533405981</v>
+        <v>1.054803413397838</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039028678184657</v>
+        <v>1.038915007606643</v>
       </c>
       <c r="J14">
-        <v>1.019593485942254</v>
+        <v>1.044186382810433</v>
       </c>
       <c r="K14">
-        <v>1.025210576402076</v>
+        <v>1.044361106047045</v>
       </c>
       <c r="L14">
-        <v>1.017343320006604</v>
+        <v>1.049210369836076</v>
       </c>
       <c r="M14">
-        <v>1.014358713730285</v>
+        <v>1.058305826204329</v>
       </c>
       <c r="N14">
-        <v>1.009892768903273</v>
+        <v>1.018559041182982</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9903588725916206</v>
+        <v>1.037740538086768</v>
       </c>
       <c r="D15">
-        <v>1.010916727766095</v>
+        <v>1.040892488276355</v>
       </c>
       <c r="E15">
-        <v>1.002993416377278</v>
+        <v>1.045781024533187</v>
       </c>
       <c r="F15">
-        <v>1.000072978546369</v>
+        <v>1.054935789669427</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039226631957784</v>
+        <v>1.03894451516207</v>
       </c>
       <c r="J15">
-        <v>1.019984754040248</v>
+        <v>1.044259527638244</v>
       </c>
       <c r="K15">
-        <v>1.025564865265082</v>
+        <v>1.044425855530755</v>
       </c>
       <c r="L15">
-        <v>1.017787486161671</v>
+        <v>1.049296633625767</v>
       </c>
       <c r="M15">
-        <v>1.014921598777546</v>
+        <v>1.058418631381357</v>
       </c>
       <c r="N15">
-        <v>1.010027271197965</v>
+        <v>1.018583905821573</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9938554080663261</v>
+        <v>1.038384773571932</v>
       </c>
       <c r="D16">
-        <v>1.01351071287733</v>
+        <v>1.041384048501481</v>
       </c>
       <c r="E16">
-        <v>1.006122672676337</v>
+        <v>1.046397808967434</v>
       </c>
       <c r="F16">
-        <v>1.003902342371938</v>
+        <v>1.055706623769811</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040363698302355</v>
+        <v>1.039115831284722</v>
       </c>
       <c r="J16">
-        <v>1.022237381468788</v>
+        <v>1.044685072173072</v>
       </c>
       <c r="K16">
-        <v>1.027604263847917</v>
+        <v>1.044802481880234</v>
       </c>
       <c r="L16">
-        <v>1.020345897830572</v>
+        <v>1.04979866979687</v>
       </c>
       <c r="M16">
-        <v>1.018165022745222</v>
+        <v>1.059075345430145</v>
       </c>
       <c r="N16">
-        <v>1.010801570659671</v>
+        <v>1.018728525582166</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9960170772351915</v>
+        <v>1.038788907270975</v>
       </c>
       <c r="D17">
-        <v>1.015115929310218</v>
+        <v>1.041692393433321</v>
       </c>
       <c r="E17">
-        <v>1.008059545056283</v>
+        <v>1.046784853480305</v>
       </c>
       <c r="F17">
-        <v>1.006272512621484</v>
+        <v>1.05619045373685</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041063934832953</v>
+        <v>1.03922291405559</v>
       </c>
       <c r="J17">
-        <v>1.0236291784331</v>
+        <v>1.044951837691174</v>
       </c>
       <c r="K17">
-        <v>1.028864012717731</v>
+        <v>1.045038514947573</v>
       </c>
       <c r="L17">
-        <v>1.021927721701906</v>
+        <v>1.050113534263988</v>
       </c>
       <c r="M17">
-        <v>1.02017144860674</v>
+        <v>1.05948740771543</v>
       </c>
       <c r="N17">
-        <v>1.011279912364671</v>
+        <v>1.018819150780644</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9972668975110973</v>
+        <v>1.039024639598051</v>
       </c>
       <c r="D18">
-        <v>1.016044546807046</v>
+        <v>1.041872246471539</v>
       </c>
       <c r="E18">
-        <v>1.009180193671727</v>
+        <v>1.047010664760845</v>
       </c>
       <c r="F18">
-        <v>1.007643868192553</v>
+        <v>1.056472774077811</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041467792779464</v>
+        <v>1.039285236906988</v>
       </c>
       <c r="J18">
-        <v>1.0244335572903</v>
+        <v>1.045107377200559</v>
       </c>
       <c r="K18">
-        <v>1.029591960681104</v>
+        <v>1.04517611162545</v>
       </c>
       <c r="L18">
-        <v>1.022842324414071</v>
+        <v>1.050297171553551</v>
       </c>
       <c r="M18">
-        <v>1.021331950180532</v>
+        <v>1.059727801105241</v>
       </c>
       <c r="N18">
-        <v>1.01155634093745</v>
+        <v>1.018871978115073</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9976912125035416</v>
+        <v>1.039105019594422</v>
       </c>
       <c r="D19">
-        <v>1.016359899421435</v>
+        <v>1.041933571808488</v>
       </c>
       <c r="E19">
-        <v>1.009560789005954</v>
+        <v>1.047087669862</v>
       </c>
       <c r="F19">
-        <v>1.008109611746214</v>
+        <v>1.056569056780419</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041604731658298</v>
+        <v>1.039306464197236</v>
       </c>
       <c r="J19">
-        <v>1.024706588530932</v>
+        <v>1.045160401924963</v>
       </c>
       <c r="K19">
-        <v>1.029839028943542</v>
+        <v>1.045223015401262</v>
       </c>
       <c r="L19">
-        <v>1.023152837205306</v>
+        <v>1.050359784103095</v>
       </c>
       <c r="M19">
-        <v>1.021726015228141</v>
+        <v>1.059809776587756</v>
       </c>
       <c r="N19">
-        <v>1.011650164814948</v>
+        <v>1.018889985302737</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9957863006703532</v>
+        <v>1.038745546727164</v>
       </c>
       <c r="D20">
-        <v>1.014944503847201</v>
+        <v>1.041659310869341</v>
       </c>
       <c r="E20">
-        <v>1.007852684086271</v>
+        <v>1.046743321602599</v>
       </c>
       <c r="F20">
-        <v>1.006019374534258</v>
+        <v>1.056138531934226</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040989282091054</v>
+        <v>1.039211439228492</v>
       </c>
       <c r="J20">
-        <v>1.023480625288134</v>
+        <v>1.044923222513116</v>
       </c>
       <c r="K20">
-        <v>1.028729565479411</v>
+        <v>1.045013198839748</v>
       </c>
       <c r="L20">
-        <v>1.021758844741107</v>
+        <v>1.050079754131098</v>
       </c>
       <c r="M20">
-        <v>1.019957199884264</v>
+        <v>1.059443192739182</v>
       </c>
       <c r="N20">
-        <v>1.011228859252171</v>
+        <v>1.018809430947542</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9894609795567879</v>
+        <v>1.037576958595237</v>
       </c>
       <c r="D21">
-        <v>1.010251108824315</v>
+        <v>1.04076767068364</v>
       </c>
       <c r="E21">
-        <v>1.002190562082513</v>
+        <v>1.045624455708302</v>
       </c>
       <c r="F21">
-        <v>0.9990904727873641</v>
+        <v>1.054740151502385</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038933796954354</v>
+        <v>1.038900897140451</v>
       </c>
       <c r="J21">
-        <v>1.019406038371843</v>
+        <v>1.044151420561476</v>
       </c>
       <c r="K21">
-        <v>1.025040839044441</v>
+        <v>1.044330155329334</v>
       </c>
       <c r="L21">
-        <v>1.017130552099177</v>
+        <v>1.049169139858489</v>
       </c>
       <c r="M21">
-        <v>1.014089096952719</v>
+        <v>1.058251914465028</v>
       </c>
       <c r="N21">
-        <v>1.009828330909406</v>
+        <v>1.018547155537889</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9853768070371068</v>
+        <v>1.036842290131787</v>
       </c>
       <c r="D22">
-        <v>1.007226119867207</v>
+        <v>1.040207069863343</v>
       </c>
       <c r="E22">
-        <v>0.9985423652070352</v>
+        <v>1.044921473470077</v>
       </c>
       <c r="F22">
-        <v>0.994625675030394</v>
+        <v>1.053861925663554</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037597713375304</v>
+        <v>1.03870441576468</v>
       </c>
       <c r="J22">
-        <v>1.016772520072435</v>
+        <v>1.043665614813611</v>
       </c>
       <c r="K22">
-        <v>1.022655772348728</v>
+        <v>1.043900002287685</v>
       </c>
       <c r="L22">
-        <v>1.014142753537693</v>
+        <v>1.048596439207215</v>
       </c>
       <c r="M22">
-        <v>1.010304355492768</v>
+        <v>1.057503307933668</v>
       </c>
       <c r="N22">
-        <v>1.008922957370036</v>
+        <v>1.018381957654982</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9875524563880674</v>
+        <v>1.037231745343299</v>
       </c>
       <c r="D23">
-        <v>1.008836993052549</v>
+        <v>1.040504253997738</v>
       </c>
       <c r="E23">
-        <v>1.000485021229818</v>
+        <v>1.045294090919868</v>
       </c>
       <c r="F23">
-        <v>0.9970032290255276</v>
+        <v>1.05432739601887</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03831026643424</v>
+        <v>1.038808690945094</v>
       </c>
       <c r="J23">
-        <v>1.018175630132424</v>
+        <v>1.043923201121423</v>
       </c>
       <c r="K23">
-        <v>1.023926592583964</v>
+        <v>1.044128100524587</v>
       </c>
       <c r="L23">
-        <v>1.015734287002764</v>
+        <v>1.048900053983368</v>
       </c>
       <c r="M23">
-        <v>1.012320093176251</v>
+        <v>1.057900120889484</v>
       </c>
       <c r="N23">
-        <v>1.009405343810079</v>
+        <v>1.018469560101394</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9958906127171204</v>
+        <v>1.038765139465626</v>
       </c>
       <c r="D24">
-        <v>1.015021987311396</v>
+        <v>1.041674259453913</v>
       </c>
       <c r="E24">
-        <v>1.007946183699095</v>
+        <v>1.04676208790107</v>
       </c>
       <c r="F24">
-        <v>1.006133791033059</v>
+        <v>1.056161992820181</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041023028573603</v>
+        <v>1.039216624631313</v>
       </c>
       <c r="J24">
-        <v>1.023547772980014</v>
+        <v>1.044936152666578</v>
       </c>
       <c r="K24">
-        <v>1.028790337499903</v>
+        <v>1.045024638338285</v>
       </c>
       <c r="L24">
-        <v>1.02183517778675</v>
+        <v>1.05009501797405</v>
       </c>
       <c r="M24">
-        <v>1.020054039912119</v>
+        <v>1.059463171446242</v>
       </c>
       <c r="N24">
-        <v>1.011251935912892</v>
+        <v>1.018813823023093</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.005136500284997</v>
+        <v>1.040544872213097</v>
       </c>
       <c r="D25">
-        <v>1.021900177329269</v>
+        <v>1.043032009831304</v>
       </c>
       <c r="E25">
-        <v>1.016250220662437</v>
+        <v>1.048467765012474</v>
       </c>
       <c r="F25">
-        <v>1.016296260895031</v>
+        <v>1.058295277317452</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043992474462197</v>
+        <v>1.039684645560286</v>
       </c>
       <c r="J25">
-        <v>1.029492228644094</v>
+        <v>1.046109260847172</v>
       </c>
       <c r="K25">
-        <v>1.034167774290895</v>
+        <v>1.046061983078429</v>
       </c>
       <c r="L25">
-        <v>1.028601403653098</v>
+        <v>1.051481008149697</v>
       </c>
       <c r="M25">
-        <v>1.028646757985914</v>
+        <v>1.061278748945669</v>
       </c>
       <c r="N25">
-        <v>1.013294242530076</v>
+        <v>1.019212033507536</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_37/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.041964649446291</v>
+        <v>1.012200197126662</v>
       </c>
       <c r="D2">
-        <v>1.044114952081765</v>
+        <v>1.027167984688436</v>
       </c>
       <c r="E2">
-        <v>1.049829942171636</v>
+        <v>1.022617191044731</v>
       </c>
       <c r="F2">
-        <v>1.060000298987649</v>
+        <v>1.024090573051714</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040053609856913</v>
+        <v>1.046228509226742</v>
       </c>
       <c r="J2">
-        <v>1.047043020493194</v>
+        <v>1.03402202656127</v>
       </c>
       <c r="K2">
-        <v>1.046886911458517</v>
+        <v>1.038261369588392</v>
       </c>
       <c r="L2">
-        <v>1.052585910157114</v>
+        <v>1.033770174433815</v>
       </c>
       <c r="M2">
-        <v>1.0627282707336</v>
+        <v>1.035224187937327</v>
       </c>
       <c r="N2">
-        <v>1.019528603160958</v>
+        <v>1.014849417251469</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.042995697018675</v>
+        <v>1.017164770651309</v>
       </c>
       <c r="D3">
-        <v>1.044901260075661</v>
+        <v>1.030876559554956</v>
       </c>
       <c r="E3">
-        <v>1.05082001121375</v>
+        <v>1.027104559866866</v>
       </c>
       <c r="F3">
-        <v>1.061240350381163</v>
+        <v>1.02958624678574</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040318999402859</v>
+        <v>1.047780436389103</v>
       </c>
       <c r="J3">
-        <v>1.047719906683601</v>
+        <v>1.037198197898356</v>
       </c>
       <c r="K3">
-        <v>1.04748445678551</v>
+        <v>1.041129042515936</v>
       </c>
       <c r="L3">
-        <v>1.053387845190339</v>
+        <v>1.037401992157037</v>
       </c>
       <c r="M3">
-        <v>1.063781586190161</v>
+        <v>1.03985405991979</v>
       </c>
       <c r="N3">
-        <v>1.019757854908383</v>
+        <v>1.015939082606742</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.043662932138472</v>
+        <v>1.020305945021454</v>
       </c>
       <c r="D4">
-        <v>1.045410049820293</v>
+        <v>1.033225513142748</v>
       </c>
       <c r="E4">
-        <v>1.051461119053009</v>
+        <v>1.029949353759736</v>
       </c>
       <c r="F4">
-        <v>1.06204370158996</v>
+        <v>1.033071624008157</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040489561732674</v>
+        <v>1.048753036187405</v>
       </c>
       <c r="J4">
-        <v>1.048157385657466</v>
+        <v>1.039204109027602</v>
       </c>
       <c r="K4">
-        <v>1.047870448094591</v>
+        <v>1.042938814633416</v>
       </c>
       <c r="L4">
-        <v>1.05390660284762</v>
+        <v>1.039699269640058</v>
       </c>
       <c r="M4">
-        <v>1.06446354078635</v>
+        <v>1.042786638969858</v>
       </c>
       <c r="N4">
-        <v>1.019905915208565</v>
+        <v>1.016626853875934</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.04394345665508</v>
+        <v>1.021610104692909</v>
       </c>
       <c r="D5">
-        <v>1.045623943476834</v>
+        <v>1.034201293621837</v>
       </c>
       <c r="E5">
-        <v>1.051730752394475</v>
+        <v>1.031131764571991</v>
       </c>
       <c r="F5">
-        <v>1.062381659371959</v>
+        <v>1.034520654127692</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040560987676418</v>
+        <v>1.049154566057664</v>
       </c>
       <c r="J5">
-        <v>1.048341179137608</v>
+        <v>1.040036003431042</v>
       </c>
       <c r="K5">
-        <v>1.04803256042219</v>
+        <v>1.043689040246848</v>
       </c>
       <c r="L5">
-        <v>1.054124653050033</v>
+        <v>1.040652876617128</v>
       </c>
       <c r="M5">
-        <v>1.064750327791803</v>
+        <v>1.044004943288435</v>
       </c>
       <c r="N5">
-        <v>1.019968092351155</v>
+        <v>1.016911983040416</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.043990559065589</v>
+        <v>1.021828136343884</v>
       </c>
       <c r="D6">
-        <v>1.045659857055393</v>
+        <v>1.034364456235347</v>
       </c>
       <c r="E6">
-        <v>1.051776031558219</v>
+        <v>1.031329517804377</v>
       </c>
       <c r="F6">
-        <v>1.062438417404173</v>
+        <v>1.03476302103432</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040572964072858</v>
+        <v>1.049221559624412</v>
       </c>
       <c r="J6">
-        <v>1.048372031672148</v>
+        <v>1.040175025655633</v>
       </c>
       <c r="K6">
-        <v>1.048059770496885</v>
+        <v>1.043814394870164</v>
       </c>
       <c r="L6">
-        <v>1.054161262552893</v>
+        <v>1.040812290772932</v>
       </c>
       <c r="M6">
-        <v>1.064798486067199</v>
+        <v>1.044208665222468</v>
       </c>
       <c r="N6">
-        <v>1.019978528209608</v>
+        <v>1.016959626137221</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.043666680446496</v>
+        <v>1.020323434816217</v>
       </c>
       <c r="D7">
-        <v>1.045412907884613</v>
+        <v>1.033238597068884</v>
       </c>
       <c r="E7">
-        <v>1.051464721468606</v>
+        <v>1.029965205696706</v>
       </c>
       <c r="F7">
-        <v>1.062048216498445</v>
+        <v>1.033091048862911</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04049051722399</v>
+        <v>1.048758430058684</v>
       </c>
       <c r="J7">
-        <v>1.048159841997227</v>
+        <v>1.039215269074664</v>
       </c>
       <c r="K7">
-        <v>1.047872614870298</v>
+        <v>1.042948880379367</v>
       </c>
       <c r="L7">
-        <v>1.053909516584774</v>
+        <v>1.039712059005809</v>
       </c>
       <c r="M7">
-        <v>1.064467372481575</v>
+        <v>1.042802974430767</v>
       </c>
       <c r="N7">
-        <v>1.019906746287649</v>
+        <v>1.016630679367958</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.042313080630081</v>
+        <v>1.01389315992752</v>
       </c>
       <c r="D8">
-        <v>1.044380689058223</v>
+        <v>1.028432086786589</v>
       </c>
       <c r="E8">
-        <v>1.050164443839189</v>
+        <v>1.024146237664877</v>
       </c>
       <c r="F8">
-        <v>1.060419182591992</v>
+        <v>1.025962933521809</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04014354008971</v>
+        <v>1.046759666312016</v>
       </c>
       <c r="J8">
-        <v>1.047271883177425</v>
+        <v>1.035105886156623</v>
       </c>
       <c r="K8">
-        <v>1.04708899127467</v>
+        <v>1.039240222152614</v>
       </c>
       <c r="L8">
-        <v>1.052856958425479</v>
+        <v>1.035008772147419</v>
       </c>
       <c r="M8">
-        <v>1.063084163155555</v>
+        <v>1.036802339880885</v>
       </c>
       <c r="N8">
-        <v>1.019606137932242</v>
+        <v>1.015221343920455</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.039928460199267</v>
+        <v>1.001984739086738</v>
       </c>
       <c r="D9">
-        <v>1.042561780957705</v>
+        <v>1.019553279097201</v>
       </c>
       <c r="E9">
-        <v>1.047876772784714</v>
+        <v>1.013415800948468</v>
       </c>
       <c r="F9">
-        <v>1.057555917630924</v>
+        <v>1.012827252737986</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039523226263905</v>
+        <v>1.042985285463246</v>
       </c>
       <c r="J9">
-        <v>1.045703275695203</v>
+        <v>1.027467605249</v>
       </c>
       <c r="K9">
-        <v>1.045703100899467</v>
+        <v>1.032336888253965</v>
       </c>
       <c r="L9">
-        <v>1.051001087612939</v>
+        <v>1.026294902462068</v>
       </c>
       <c r="M9">
-        <v>1.060649744282764</v>
+        <v>1.025715589208021</v>
       </c>
       <c r="N9">
-        <v>1.019074282986955</v>
+        <v>1.012598808089791</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.038339103645887</v>
+        <v>0.9936095993676126</v>
       </c>
       <c r="D10">
-        <v>1.04134920265555</v>
+        <v>1.013328253239416</v>
       </c>
       <c r="E10">
-        <v>1.046354076622426</v>
+        <v>1.005902536464196</v>
       </c>
       <c r="F10">
-        <v>1.055651961266321</v>
+        <v>1.003632958909846</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03910371140401</v>
+        <v>1.040283937378231</v>
       </c>
       <c r="J10">
-        <v>1.044654916943254</v>
+        <v>1.022079074110804</v>
       </c>
       <c r="K10">
-        <v>1.044775797400694</v>
+        <v>1.027460960794394</v>
       </c>
       <c r="L10">
-        <v>1.049763084667815</v>
+        <v>1.020166030373788</v>
       </c>
       <c r="M10">
-        <v>1.059028784428888</v>
+        <v>1.017936927515172</v>
       </c>
       <c r="N10">
-        <v>1.01871827962548</v>
+        <v>1.010747159294454</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.037650984193456</v>
+        <v>0.9898678197427336</v>
       </c>
       <c r="D11">
-        <v>1.040824155336858</v>
+        <v>1.010552678583725</v>
       </c>
       <c r="E11">
-        <v>1.045695306707466</v>
+        <v>1.002554303316526</v>
       </c>
       <c r="F11">
-        <v>1.054828680504469</v>
+        <v>0.9995356089126071</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038920641775578</v>
+        <v>1.039066523514156</v>
       </c>
       <c r="J11">
-        <v>1.044200345685051</v>
+        <v>1.019668269680563</v>
       </c>
       <c r="K11">
-        <v>1.044373466596</v>
+        <v>1.025278293484152</v>
       </c>
       <c r="L11">
-        <v>1.049226836388086</v>
+        <v>1.017428209448371</v>
       </c>
       <c r="M11">
-        <v>1.058327358314479</v>
+        <v>1.014466288286278</v>
       </c>
       <c r="N11">
-        <v>1.018563787830623</v>
+        <v>1.009918476783287</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.037395397995875</v>
+        <v>0.9884595350201418</v>
       </c>
       <c r="D12">
-        <v>1.04062913086269</v>
+        <v>1.00950897228757</v>
       </c>
       <c r="E12">
-        <v>1.045450695469138</v>
+        <v>1.001295462503917</v>
       </c>
       <c r="F12">
-        <v>1.054523048784257</v>
+        <v>0.9979950598265217</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038852428751035</v>
+        <v>1.03860679949525</v>
       </c>
       <c r="J12">
-        <v>1.044031403787536</v>
+        <v>1.018760467855385</v>
       </c>
       <c r="K12">
-        <v>1.04422390263003</v>
+        <v>1.02445623507023</v>
       </c>
       <c r="L12">
-        <v>1.049027622027275</v>
+        <v>1.016397885510985</v>
       </c>
       <c r="M12">
-        <v>1.058066886146735</v>
+        <v>1.013160772394383</v>
       </c>
       <c r="N12">
-        <v>1.018506351716425</v>
+        <v>1.00960640124783</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.037450221565615</v>
+        <v>0.9887624691339792</v>
       </c>
       <c r="D13">
-        <v>1.040670964200936</v>
+        <v>1.009733438944278</v>
       </c>
       <c r="E13">
-        <v>1.045503161553317</v>
+        <v>1.001566189211358</v>
       </c>
       <c r="F13">
-        <v>1.05458860007857</v>
+        <v>0.998326374674703</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038867070305566</v>
+        <v>1.038705758257503</v>
       </c>
       <c r="J13">
-        <v>1.044067646646746</v>
+        <v>1.018955763417167</v>
       </c>
       <c r="K13">
-        <v>1.04425599005413</v>
+        <v>1.024633091708236</v>
       </c>
       <c r="L13">
-        <v>1.049070355446889</v>
+        <v>1.016619511609471</v>
       </c>
       <c r="M13">
-        <v>1.058122755207754</v>
+        <v>1.013441567149828</v>
       </c>
       <c r="N13">
-        <v>1.01851867426342</v>
+        <v>1.009673539341945</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.037629857115894</v>
+        <v>0.9897517929580664</v>
       </c>
       <c r="D14">
-        <v>1.040808034520455</v>
+        <v>1.01046666951897</v>
       </c>
       <c r="E14">
-        <v>1.045675085327507</v>
+        <v>1.00245056178583</v>
       </c>
       <c r="F14">
-        <v>1.054803413397838</v>
+        <v>0.9994086533405974</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038915007606643</v>
+        <v>1.039028678184657</v>
       </c>
       <c r="J14">
-        <v>1.044186382810433</v>
+        <v>1.019593485942253</v>
       </c>
       <c r="K14">
-        <v>1.044361106047045</v>
+        <v>1.025210576402076</v>
       </c>
       <c r="L14">
-        <v>1.049210369836076</v>
+        <v>1.017343320006603</v>
       </c>
       <c r="M14">
-        <v>1.058305826204329</v>
+        <v>1.014358713730284</v>
       </c>
       <c r="N14">
-        <v>1.018559041182982</v>
+        <v>1.009892768903273</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.037740538086768</v>
+        <v>0.9903588725916195</v>
       </c>
       <c r="D15">
-        <v>1.040892488276355</v>
+        <v>1.010916727766094</v>
       </c>
       <c r="E15">
-        <v>1.045781024533187</v>
+        <v>1.002993416377277</v>
       </c>
       <c r="F15">
-        <v>1.054935789669427</v>
+        <v>1.000072978546368</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03894451516207</v>
+        <v>1.039226631957784</v>
       </c>
       <c r="J15">
-        <v>1.044259527638244</v>
+        <v>1.019984754040247</v>
       </c>
       <c r="K15">
-        <v>1.044425855530755</v>
+        <v>1.025564865265082</v>
       </c>
       <c r="L15">
-        <v>1.049296633625767</v>
+        <v>1.01778748616167</v>
       </c>
       <c r="M15">
-        <v>1.058418631381357</v>
+        <v>1.014921598777545</v>
       </c>
       <c r="N15">
-        <v>1.018583905821573</v>
+        <v>1.010027271197965</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.038384773571932</v>
+        <v>0.9938554080663254</v>
       </c>
       <c r="D16">
-        <v>1.041384048501481</v>
+        <v>1.01351071287733</v>
       </c>
       <c r="E16">
-        <v>1.046397808967434</v>
+        <v>1.006122672676336</v>
       </c>
       <c r="F16">
-        <v>1.055706623769811</v>
+        <v>1.003902342371937</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039115831284722</v>
+        <v>1.040363698302355</v>
       </c>
       <c r="J16">
-        <v>1.044685072173072</v>
+        <v>1.022237381468787</v>
       </c>
       <c r="K16">
-        <v>1.044802481880234</v>
+        <v>1.027604263847917</v>
       </c>
       <c r="L16">
-        <v>1.04979866979687</v>
+        <v>1.020345897830572</v>
       </c>
       <c r="M16">
-        <v>1.059075345430145</v>
+        <v>1.018165022745221</v>
       </c>
       <c r="N16">
-        <v>1.018728525582166</v>
+        <v>1.010801570659671</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.038788907270975</v>
+        <v>0.9960170772351916</v>
       </c>
       <c r="D17">
-        <v>1.041692393433321</v>
+        <v>1.015115929310217</v>
       </c>
       <c r="E17">
-        <v>1.046784853480305</v>
+        <v>1.008059545056283</v>
       </c>
       <c r="F17">
-        <v>1.05619045373685</v>
+        <v>1.006272512621484</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03922291405559</v>
+        <v>1.041063934832953</v>
       </c>
       <c r="J17">
-        <v>1.044951837691174</v>
+        <v>1.0236291784331</v>
       </c>
       <c r="K17">
-        <v>1.045038514947573</v>
+        <v>1.028864012717731</v>
       </c>
       <c r="L17">
-        <v>1.050113534263988</v>
+        <v>1.021927721701906</v>
       </c>
       <c r="M17">
-        <v>1.05948740771543</v>
+        <v>1.020171448606741</v>
       </c>
       <c r="N17">
-        <v>1.018819150780644</v>
+        <v>1.011279912364671</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.039024639598051</v>
+        <v>0.9972668975110979</v>
       </c>
       <c r="D18">
-        <v>1.041872246471539</v>
+        <v>1.016044546807046</v>
       </c>
       <c r="E18">
-        <v>1.047010664760845</v>
+        <v>1.009180193671728</v>
       </c>
       <c r="F18">
-        <v>1.056472774077811</v>
+        <v>1.007643868192554</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039285236906988</v>
+        <v>1.041467792779464</v>
       </c>
       <c r="J18">
-        <v>1.045107377200559</v>
+        <v>1.0244335572903</v>
       </c>
       <c r="K18">
-        <v>1.04517611162545</v>
+        <v>1.029591960681104</v>
       </c>
       <c r="L18">
-        <v>1.050297171553551</v>
+        <v>1.022842324414071</v>
       </c>
       <c r="M18">
-        <v>1.059727801105241</v>
+        <v>1.021331950180533</v>
       </c>
       <c r="N18">
-        <v>1.018871978115073</v>
+        <v>1.01155634093745</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.039105019594422</v>
+        <v>0.9976912125035418</v>
       </c>
       <c r="D19">
-        <v>1.041933571808488</v>
+        <v>1.016359899421435</v>
       </c>
       <c r="E19">
-        <v>1.047087669862</v>
+        <v>1.009560789005954</v>
       </c>
       <c r="F19">
-        <v>1.056569056780419</v>
+        <v>1.008109611746214</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039306464197236</v>
+        <v>1.041604731658298</v>
       </c>
       <c r="J19">
-        <v>1.045160401924963</v>
+        <v>1.024706588530932</v>
       </c>
       <c r="K19">
-        <v>1.045223015401262</v>
+        <v>1.029839028943542</v>
       </c>
       <c r="L19">
-        <v>1.050359784103095</v>
+        <v>1.023152837205306</v>
       </c>
       <c r="M19">
-        <v>1.059809776587756</v>
+        <v>1.021726015228141</v>
       </c>
       <c r="N19">
-        <v>1.018889985302737</v>
+        <v>1.011650164814947</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.038745546727164</v>
+        <v>0.9957863006703537</v>
       </c>
       <c r="D20">
-        <v>1.041659310869341</v>
+        <v>1.014944503847201</v>
       </c>
       <c r="E20">
-        <v>1.046743321602599</v>
+        <v>1.007852684086271</v>
       </c>
       <c r="F20">
-        <v>1.056138531934226</v>
+        <v>1.006019374534258</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039211439228492</v>
+        <v>1.040989282091054</v>
       </c>
       <c r="J20">
-        <v>1.044923222513116</v>
+        <v>1.023480625288134</v>
       </c>
       <c r="K20">
-        <v>1.045013198839748</v>
+        <v>1.028729565479411</v>
       </c>
       <c r="L20">
-        <v>1.050079754131098</v>
+        <v>1.021758844741107</v>
       </c>
       <c r="M20">
-        <v>1.059443192739182</v>
+        <v>1.019957199884265</v>
       </c>
       <c r="N20">
-        <v>1.018809430947542</v>
+        <v>1.011228859252171</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.037576958595237</v>
+        <v>0.9894609795567879</v>
       </c>
       <c r="D21">
-        <v>1.04076767068364</v>
+        <v>1.010251108824316</v>
       </c>
       <c r="E21">
-        <v>1.045624455708302</v>
+        <v>1.002190562082512</v>
       </c>
       <c r="F21">
-        <v>1.054740151502385</v>
+        <v>0.9990904727873633</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038900897140451</v>
+        <v>1.038933796954354</v>
       </c>
       <c r="J21">
-        <v>1.044151420561476</v>
+        <v>1.019406038371843</v>
       </c>
       <c r="K21">
-        <v>1.044330155329334</v>
+        <v>1.025040839044441</v>
       </c>
       <c r="L21">
-        <v>1.049169139858489</v>
+        <v>1.017130552099176</v>
       </c>
       <c r="M21">
-        <v>1.058251914465028</v>
+        <v>1.014089096952719</v>
       </c>
       <c r="N21">
-        <v>1.018547155537889</v>
+        <v>1.009828330909406</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.036842290131787</v>
+        <v>0.9853768070371071</v>
       </c>
       <c r="D22">
-        <v>1.040207069863343</v>
+        <v>1.007226119867207</v>
       </c>
       <c r="E22">
-        <v>1.044921473470077</v>
+        <v>0.9985423652070352</v>
       </c>
       <c r="F22">
-        <v>1.053861925663554</v>
+        <v>0.9946256750303936</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03870441576468</v>
+        <v>1.037597713375304</v>
       </c>
       <c r="J22">
-        <v>1.043665614813611</v>
+        <v>1.016772520072435</v>
       </c>
       <c r="K22">
-        <v>1.043900002287685</v>
+        <v>1.022655772348728</v>
       </c>
       <c r="L22">
-        <v>1.048596439207215</v>
+        <v>1.014142753537693</v>
       </c>
       <c r="M22">
-        <v>1.057503307933668</v>
+        <v>1.010304355492768</v>
       </c>
       <c r="N22">
-        <v>1.018381957654982</v>
+        <v>1.008922957370036</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.037231745343299</v>
+        <v>0.9875524563880677</v>
       </c>
       <c r="D23">
-        <v>1.040504253997738</v>
+        <v>1.00883699305255</v>
       </c>
       <c r="E23">
-        <v>1.045294090919868</v>
+        <v>1.000485021229818</v>
       </c>
       <c r="F23">
-        <v>1.05432739601887</v>
+        <v>0.9970032290255285</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038808690945094</v>
+        <v>1.03831026643424</v>
       </c>
       <c r="J23">
-        <v>1.043923201121423</v>
+        <v>1.018175630132425</v>
       </c>
       <c r="K23">
-        <v>1.044128100524587</v>
+        <v>1.023926592583964</v>
       </c>
       <c r="L23">
-        <v>1.048900053983368</v>
+        <v>1.015734287002765</v>
       </c>
       <c r="M23">
-        <v>1.057900120889484</v>
+        <v>1.012320093176252</v>
       </c>
       <c r="N23">
-        <v>1.018469560101394</v>
+        <v>1.009405343810079</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.038765139465626</v>
+        <v>0.9958906127171209</v>
       </c>
       <c r="D24">
-        <v>1.041674259453913</v>
+        <v>1.015021987311397</v>
       </c>
       <c r="E24">
-        <v>1.04676208790107</v>
+        <v>1.007946183699096</v>
       </c>
       <c r="F24">
-        <v>1.056161992820181</v>
+        <v>1.006133791033059</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039216624631313</v>
+        <v>1.041023028573604</v>
       </c>
       <c r="J24">
-        <v>1.044936152666578</v>
+        <v>1.023547772980014</v>
       </c>
       <c r="K24">
-        <v>1.045024638338285</v>
+        <v>1.028790337499903</v>
       </c>
       <c r="L24">
-        <v>1.05009501797405</v>
+        <v>1.02183517778675</v>
       </c>
       <c r="M24">
-        <v>1.059463171446242</v>
+        <v>1.020054039912119</v>
       </c>
       <c r="N24">
-        <v>1.018813823023093</v>
+        <v>1.011251935912892</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.040544872213097</v>
+        <v>1.005136500284997</v>
       </c>
       <c r="D25">
-        <v>1.043032009831304</v>
+        <v>1.021900177329268</v>
       </c>
       <c r="E25">
-        <v>1.048467765012474</v>
+        <v>1.016250220662437</v>
       </c>
       <c r="F25">
-        <v>1.058295277317452</v>
+        <v>1.016296260895031</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039684645560286</v>
+        <v>1.043992474462197</v>
       </c>
       <c r="J25">
-        <v>1.046109260847172</v>
+        <v>1.029492228644094</v>
       </c>
       <c r="K25">
-        <v>1.046061983078429</v>
+        <v>1.034167774290894</v>
       </c>
       <c r="L25">
-        <v>1.051481008149697</v>
+        <v>1.028601403653098</v>
       </c>
       <c r="M25">
-        <v>1.061278748945669</v>
+        <v>1.028646757985914</v>
       </c>
       <c r="N25">
-        <v>1.019212033507536</v>
+        <v>1.013294242530076</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_37/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.012200197126662</v>
+        <v>1.005873135630947</v>
       </c>
       <c r="D2">
-        <v>1.027167984688436</v>
+        <v>1.029085607113934</v>
       </c>
       <c r="E2">
-        <v>1.022617191044731</v>
+        <v>1.022269070673951</v>
       </c>
       <c r="F2">
-        <v>1.024090573051714</v>
+        <v>1.034899604682493</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046228509226742</v>
+        <v>1.051279313424016</v>
       </c>
       <c r="J2">
-        <v>1.03402202656127</v>
+        <v>1.027879590103312</v>
       </c>
       <c r="K2">
-        <v>1.038261369588392</v>
+        <v>1.040154075874629</v>
       </c>
       <c r="L2">
-        <v>1.033770174433815</v>
+        <v>1.033426640542113</v>
       </c>
       <c r="M2">
-        <v>1.035224187937327</v>
+        <v>1.045893236088891</v>
       </c>
       <c r="N2">
-        <v>1.014849417251469</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.013221364471042</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.044893795313721</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.039462688670405</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017164770651309</v>
+        <v>1.009373035455469</v>
       </c>
       <c r="D3">
-        <v>1.030876559554956</v>
+        <v>1.031444769653019</v>
       </c>
       <c r="E3">
-        <v>1.027104559866866</v>
+        <v>1.024953468733536</v>
       </c>
       <c r="F3">
-        <v>1.02958624678574</v>
+        <v>1.03748394056309</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047780436389103</v>
+        <v>1.05198573996747</v>
       </c>
       <c r="J3">
-        <v>1.037198197898356</v>
+        <v>1.02961140292388</v>
       </c>
       <c r="K3">
-        <v>1.041129042515936</v>
+        <v>1.041690516794926</v>
       </c>
       <c r="L3">
-        <v>1.037401992157037</v>
+        <v>1.035276718497019</v>
       </c>
       <c r="M3">
-        <v>1.03985405991979</v>
+        <v>1.047658660680841</v>
       </c>
       <c r="N3">
-        <v>1.015939082606742</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.013801613068037</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.04629100073017</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.040546421361379</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020305945021454</v>
+        <v>1.011599920883228</v>
       </c>
       <c r="D4">
-        <v>1.033225513142748</v>
+        <v>1.032947250877639</v>
       </c>
       <c r="E4">
-        <v>1.029949353759736</v>
+        <v>1.026667315900219</v>
       </c>
       <c r="F4">
-        <v>1.033071624008157</v>
+        <v>1.039134055541821</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048753036187405</v>
+        <v>1.052421489338768</v>
       </c>
       <c r="J4">
-        <v>1.039204109027602</v>
+        <v>1.030711483009555</v>
       </c>
       <c r="K4">
-        <v>1.042938814633416</v>
+        <v>1.042663651124859</v>
       </c>
       <c r="L4">
-        <v>1.039699269640058</v>
+        <v>1.036454200594757</v>
       </c>
       <c r="M4">
-        <v>1.042786638969858</v>
+        <v>1.048782040198399</v>
       </c>
       <c r="N4">
-        <v>1.016626853875934</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.014170226303218</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.047180072693315</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.041235402903929</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021610104692909</v>
+        <v>1.012529576262774</v>
       </c>
       <c r="D5">
-        <v>1.034201293621837</v>
+        <v>1.033576342781725</v>
       </c>
       <c r="E5">
-        <v>1.031131764571991</v>
+        <v>1.027384540758815</v>
       </c>
       <c r="F5">
-        <v>1.034520654127692</v>
+        <v>1.039824712929068</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049154566057664</v>
+        <v>1.052601187962073</v>
       </c>
       <c r="J5">
-        <v>1.040036003431042</v>
+        <v>1.031171365436361</v>
       </c>
       <c r="K5">
-        <v>1.043689040246848</v>
+        <v>1.043070862839162</v>
       </c>
       <c r="L5">
-        <v>1.040652876617128</v>
+        <v>1.036946716705741</v>
       </c>
       <c r="M5">
-        <v>1.044004943288435</v>
+        <v>1.049251959611937</v>
       </c>
       <c r="N5">
-        <v>1.016911983040416</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.014324599795538</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.047551978903168</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.041530490515835</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021828136343884</v>
+        <v>1.012687921892137</v>
       </c>
       <c r="D6">
-        <v>1.034364456235347</v>
+        <v>1.033685397295089</v>
       </c>
       <c r="E6">
-        <v>1.031329517804377</v>
+        <v>1.027507238478126</v>
       </c>
       <c r="F6">
-        <v>1.03476302103432</v>
+        <v>1.039942955028563</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049221559624412</v>
+        <v>1.052632975205859</v>
       </c>
       <c r="J6">
-        <v>1.040175025655633</v>
+        <v>1.031250998307535</v>
       </c>
       <c r="K6">
-        <v>1.043814394870164</v>
+        <v>1.043142661990204</v>
       </c>
       <c r="L6">
-        <v>1.040812290772932</v>
+        <v>1.037031702712311</v>
       </c>
       <c r="M6">
-        <v>1.044208665222468</v>
+        <v>1.049333153120048</v>
       </c>
       <c r="N6">
-        <v>1.016959626137221</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.014351661085386</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.047616237497488</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.04158998456867</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.020323434816217</v>
+        <v>1.011619770323315</v>
       </c>
       <c r="D7">
-        <v>1.033238597068884</v>
+        <v>1.032965701815962</v>
       </c>
       <c r="E7">
-        <v>1.029965205696706</v>
+        <v>1.026683844294349</v>
       </c>
       <c r="F7">
-        <v>1.033091048862911</v>
+        <v>1.039150187973949</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048758430058684</v>
+        <v>1.052429008415112</v>
       </c>
       <c r="J7">
-        <v>1.039215269074664</v>
+        <v>1.030724856559917</v>
       </c>
       <c r="K7">
-        <v>1.042948880379367</v>
+        <v>1.042679022988858</v>
       </c>
       <c r="L7">
-        <v>1.039712059005809</v>
+        <v>1.036467645035128</v>
       </c>
       <c r="M7">
-        <v>1.042802974430767</v>
+        <v>1.048795144767888</v>
       </c>
       <c r="N7">
-        <v>1.016630679367958</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.014175611848055</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.047190443986397</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.041266343502764</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.01389315992752</v>
+        <v>1.007073008724248</v>
       </c>
       <c r="D8">
-        <v>1.028432086786589</v>
+        <v>1.029900150228072</v>
       </c>
       <c r="E8">
-        <v>1.024146237664877</v>
+        <v>1.023189669357716</v>
       </c>
       <c r="F8">
-        <v>1.025962933521809</v>
+        <v>1.035786040748602</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046759666312016</v>
+        <v>1.051528703481828</v>
       </c>
       <c r="J8">
-        <v>1.035105886156623</v>
+        <v>1.028478008753444</v>
       </c>
       <c r="K8">
-        <v>1.039240222152614</v>
+        <v>1.040689781731371</v>
       </c>
       <c r="L8">
-        <v>1.035008772147419</v>
+        <v>1.034064423036378</v>
       </c>
       <c r="M8">
-        <v>1.036802339880885</v>
+        <v>1.046502140978953</v>
       </c>
       <c r="N8">
-        <v>1.015221343920455</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.013423026783357</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.045375699635629</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.039864349137942</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.001984739086738</v>
+        <v>0.9987484092695631</v>
       </c>
       <c r="D9">
-        <v>1.019553279097201</v>
+        <v>1.024292841638025</v>
       </c>
       <c r="E9">
-        <v>1.013415800948468</v>
+        <v>1.016837974416409</v>
       </c>
       <c r="F9">
-        <v>1.012827252737986</v>
+        <v>1.02967197484095</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042985285463246</v>
+        <v>1.04976835921277</v>
       </c>
       <c r="J9">
-        <v>1.027467605249</v>
+        <v>1.024345441978277</v>
       </c>
       <c r="K9">
-        <v>1.032336888253965</v>
+        <v>1.037003707098562</v>
       </c>
       <c r="L9">
-        <v>1.026294902462068</v>
+        <v>1.029663649006761</v>
       </c>
       <c r="M9">
-        <v>1.025715589208021</v>
+        <v>1.042301313446221</v>
       </c>
       <c r="N9">
-        <v>1.012598808089791</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.012037580053806</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.042051041028381</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.037254884348823</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9936095993676126</v>
+        <v>0.9930245477915124</v>
       </c>
       <c r="D10">
-        <v>1.013328253239416</v>
+        <v>1.020465703602998</v>
       </c>
       <c r="E10">
-        <v>1.005902536464196</v>
+        <v>1.012529962366913</v>
       </c>
       <c r="F10">
-        <v>1.003632958909846</v>
+        <v>1.025565216745138</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040283937378231</v>
+        <v>1.048503336201692</v>
       </c>
       <c r="J10">
-        <v>1.022079074110804</v>
+        <v>1.02151768014726</v>
       </c>
       <c r="K10">
-        <v>1.027460960794394</v>
+        <v>1.03447502031491</v>
       </c>
       <c r="L10">
-        <v>1.020166030373788</v>
+        <v>1.026676610717094</v>
       </c>
       <c r="M10">
-        <v>1.017936927515172</v>
+        <v>1.039487731447899</v>
       </c>
       <c r="N10">
-        <v>1.010747159294454</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.011094067626486</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.039875632186485</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.035483751306788</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9898678197427336</v>
+        <v>0.9908402408015142</v>
       </c>
       <c r="D11">
-        <v>1.010552678583725</v>
+        <v>1.01913381591933</v>
       </c>
       <c r="E11">
-        <v>1.002554303316526</v>
+        <v>1.011090994680115</v>
       </c>
       <c r="F11">
-        <v>0.9995356089126071</v>
+        <v>1.024504143456026</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039066523514156</v>
+        <v>1.0481091348662</v>
       </c>
       <c r="J11">
-        <v>1.019668269680563</v>
+        <v>1.02059910435723</v>
       </c>
       <c r="K11">
-        <v>1.025278293484152</v>
+        <v>1.033703697607938</v>
       </c>
       <c r="L11">
-        <v>1.017428209448371</v>
+        <v>1.025806738844559</v>
       </c>
       <c r="M11">
-        <v>1.014466288286278</v>
+        <v>1.038978284353983</v>
       </c>
       <c r="N11">
-        <v>1.009918476783287</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.010821709034033</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.0399079526062</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.034971235023143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9884595350201418</v>
+        <v>0.9901392978069133</v>
       </c>
       <c r="D12">
-        <v>1.00950897228757</v>
+        <v>1.018752735111487</v>
       </c>
       <c r="E12">
-        <v>1.001295462503917</v>
+        <v>1.010709412759875</v>
       </c>
       <c r="F12">
-        <v>0.9979950598265217</v>
+        <v>1.024370357723922</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03860679949525</v>
+        <v>1.048018474383732</v>
       </c>
       <c r="J12">
-        <v>1.018760467855385</v>
+        <v>1.020366923633107</v>
       </c>
       <c r="K12">
-        <v>1.02445623507023</v>
+        <v>1.033529270198744</v>
       </c>
       <c r="L12">
-        <v>1.016397885510985</v>
+        <v>1.025634273784224</v>
       </c>
       <c r="M12">
-        <v>1.013160772394383</v>
+        <v>1.039045094241262</v>
       </c>
       <c r="N12">
-        <v>1.00960640124783</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.010770722485574</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.040286677881278</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.034847909200513</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9887624691339792</v>
+        <v>0.9905444847977201</v>
       </c>
       <c r="D13">
-        <v>1.009733438944278</v>
+        <v>1.01909278949204</v>
       </c>
       <c r="E13">
-        <v>1.001566189211358</v>
+        <v>1.011127489048494</v>
       </c>
       <c r="F13">
-        <v>0.998326374674703</v>
+        <v>1.024960772807326</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038705758257503</v>
+        <v>1.048168605777774</v>
       </c>
       <c r="J13">
-        <v>1.018955763417167</v>
+        <v>1.02066037408999</v>
       </c>
       <c r="K13">
-        <v>1.024633091708236</v>
+        <v>1.033820283057481</v>
       </c>
       <c r="L13">
-        <v>1.016619511609471</v>
+        <v>1.026001235725392</v>
       </c>
       <c r="M13">
-        <v>1.013441567149828</v>
+        <v>1.039582411361721</v>
       </c>
       <c r="N13">
-        <v>1.009673539341945</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.010892244063563</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.040987786396032</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.035051172131234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9897517929580664</v>
+        <v>0.9913297131567406</v>
       </c>
       <c r="D14">
-        <v>1.01046666951897</v>
+        <v>1.019658383678189</v>
       </c>
       <c r="E14">
-        <v>1.00245056178583</v>
+        <v>1.011782191360543</v>
       </c>
       <c r="F14">
-        <v>0.9994086533405974</v>
+        <v>1.025702177390405</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039028678184657</v>
+        <v>1.048382877929079</v>
       </c>
       <c r="J14">
-        <v>1.019593485942253</v>
+        <v>1.021103864670912</v>
       </c>
       <c r="K14">
-        <v>1.025210576402076</v>
+        <v>1.034235351504009</v>
       </c>
       <c r="L14">
-        <v>1.017343320006603</v>
+        <v>1.026501963660097</v>
       </c>
       <c r="M14">
-        <v>1.014358713730284</v>
+        <v>1.040171492934863</v>
       </c>
       <c r="N14">
-        <v>1.009892768903273</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.011055508383756</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.041626523621331</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.035346063635025</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9903588725916195</v>
+        <v>0.9917657369668733</v>
       </c>
       <c r="D15">
-        <v>1.010916727766094</v>
+        <v>1.019959617149803</v>
       </c>
       <c r="E15">
-        <v>1.002993416377277</v>
+        <v>1.012122962666896</v>
       </c>
       <c r="F15">
-        <v>1.000072978546368</v>
+        <v>1.026053086952941</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039226631957784</v>
+        <v>1.048490796369779</v>
       </c>
       <c r="J15">
-        <v>1.019984754040247</v>
+        <v>1.021331939561798</v>
       </c>
       <c r="K15">
-        <v>1.025564865265082</v>
+        <v>1.034444798058567</v>
       </c>
       <c r="L15">
-        <v>1.01778748616167</v>
+        <v>1.026749144343551</v>
       </c>
       <c r="M15">
-        <v>1.014921598777545</v>
+        <v>1.04043056000323</v>
       </c>
       <c r="N15">
-        <v>1.010027271197965</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.011135100882715</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.041868776374496</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.035500019200408</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9938554080663254</v>
+        <v>0.9941127413719203</v>
       </c>
       <c r="D16">
-        <v>1.01351071287733</v>
+        <v>1.02152300572603</v>
       </c>
       <c r="E16">
-        <v>1.006122672676336</v>
+        <v>1.013871720557465</v>
       </c>
       <c r="F16">
-        <v>1.003902342371937</v>
+        <v>1.027707317650024</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040363698302355</v>
+        <v>1.04901957225738</v>
       </c>
       <c r="J16">
-        <v>1.022237381468787</v>
+        <v>1.022484362147672</v>
       </c>
       <c r="K16">
-        <v>1.027604263847917</v>
+        <v>1.035478663775306</v>
       </c>
       <c r="L16">
-        <v>1.020345897830572</v>
+        <v>1.027958997838317</v>
       </c>
       <c r="M16">
-        <v>1.018165022745221</v>
+        <v>1.041558438047589</v>
       </c>
       <c r="N16">
-        <v>1.010801570659671</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.011515493863005</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.042721587936802</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.036234164472052</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9960170772351916</v>
+        <v>0.9955035300302262</v>
       </c>
       <c r="D17">
-        <v>1.015115929310217</v>
+        <v>1.022426748191875</v>
       </c>
       <c r="E17">
-        <v>1.008059545056283</v>
+        <v>1.014871555476233</v>
       </c>
       <c r="F17">
-        <v>1.006272512621484</v>
+        <v>1.028584263217414</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041063934832953</v>
+        <v>1.049309393918638</v>
       </c>
       <c r="J17">
-        <v>1.0236291784331</v>
+        <v>1.023135604349628</v>
       </c>
       <c r="K17">
-        <v>1.028864012717731</v>
+        <v>1.036052658800649</v>
       </c>
       <c r="L17">
-        <v>1.021927721701906</v>
+        <v>1.028623761890583</v>
       </c>
       <c r="M17">
-        <v>1.020171448606741</v>
+        <v>1.04210900553747</v>
       </c>
       <c r="N17">
-        <v>1.011279912364671</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.011721555305517</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.043027937323599</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.036642586702769</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9972668975110979</v>
+        <v>0.996193375091517</v>
       </c>
       <c r="D18">
-        <v>1.016044546807046</v>
+        <v>1.022830008678997</v>
       </c>
       <c r="E18">
-        <v>1.009180193671728</v>
+        <v>1.015298667390367</v>
       </c>
       <c r="F18">
-        <v>1.007643868192554</v>
+        <v>1.02883534477666</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041467792779464</v>
+        <v>1.049414649453727</v>
       </c>
       <c r="J18">
-        <v>1.0244335572903</v>
+        <v>1.02340096751294</v>
       </c>
       <c r="K18">
-        <v>1.029591960681104</v>
+        <v>1.03626596849025</v>
       </c>
       <c r="L18">
-        <v>1.022842324414071</v>
+        <v>1.028858449657791</v>
       </c>
       <c r="M18">
-        <v>1.021331950180533</v>
+        <v>1.042174237343532</v>
       </c>
       <c r="N18">
-        <v>1.01155634093745</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.011790249966884</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.042842243311375</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.036781773445254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9976912125035418</v>
+        <v>0.996249629649634</v>
       </c>
       <c r="D19">
-        <v>1.016359899421435</v>
+        <v>1.022785375507194</v>
       </c>
       <c r="E19">
-        <v>1.009560789005954</v>
+        <v>1.015204963952165</v>
       </c>
       <c r="F19">
-        <v>1.008109611746214</v>
+        <v>1.028517661599847</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041604731658298</v>
+        <v>1.049358120920396</v>
       </c>
       <c r="J19">
-        <v>1.024706588530932</v>
+        <v>1.023319613355426</v>
       </c>
       <c r="K19">
-        <v>1.029839028943542</v>
+        <v>1.036159563383752</v>
       </c>
       <c r="L19">
-        <v>1.023152837205306</v>
+        <v>1.028703137254444</v>
       </c>
       <c r="M19">
-        <v>1.021726015228141</v>
+        <v>1.04179964778353</v>
       </c>
       <c r="N19">
-        <v>1.011650164814947</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.011738202050451</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.042221212649359</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.036712932940143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9957863006703537</v>
+        <v>0.9945252941689632</v>
       </c>
       <c r="D20">
-        <v>1.014944503847201</v>
+        <v>1.021480407105217</v>
       </c>
       <c r="E20">
-        <v>1.007852684086271</v>
+        <v>1.013661383457419</v>
       </c>
       <c r="F20">
-        <v>1.006019374534258</v>
+        <v>1.026645803835945</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040989282091054</v>
+        <v>1.048848441252875</v>
       </c>
       <c r="J20">
-        <v>1.023480625288134</v>
+        <v>1.022268900092312</v>
       </c>
       <c r="K20">
-        <v>1.028729565479411</v>
+        <v>1.035155780312535</v>
       </c>
       <c r="L20">
-        <v>1.021758844741107</v>
+        <v>1.027468193408543</v>
       </c>
       <c r="M20">
-        <v>1.019957199884265</v>
+        <v>1.040235759801472</v>
       </c>
       <c r="N20">
-        <v>1.011228859252171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.011347492013678</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.040457085436669</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.036007139002815</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9894609795567879</v>
+        <v>0.9901647992985633</v>
       </c>
       <c r="D21">
-        <v>1.010251108824316</v>
+        <v>1.018542913365653</v>
       </c>
       <c r="E21">
-        <v>1.002190562082512</v>
+        <v>1.010353130140372</v>
       </c>
       <c r="F21">
-        <v>0.9990904727873633</v>
+        <v>1.023432120225386</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038933796954354</v>
+        <v>1.047839987289492</v>
       </c>
       <c r="J21">
-        <v>1.019406038371843</v>
+        <v>1.020079560276109</v>
       </c>
       <c r="K21">
-        <v>1.025040839044441</v>
+        <v>1.033181299049497</v>
       </c>
       <c r="L21">
-        <v>1.017130552099176</v>
+        <v>1.025140978564925</v>
       </c>
       <c r="M21">
-        <v>1.014089096952719</v>
+        <v>1.037982758730701</v>
       </c>
       <c r="N21">
-        <v>1.009828330909406</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.010610569996906</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.038633193764477</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.034614334781403</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9853768070371071</v>
+        <v>0.9873863028287804</v>
       </c>
       <c r="D22">
-        <v>1.007226119867207</v>
+        <v>1.016677883424632</v>
       </c>
       <c r="E22">
-        <v>0.9985423652070352</v>
+        <v>1.008264186253639</v>
       </c>
       <c r="F22">
-        <v>0.9946256750303936</v>
+        <v>1.021422821222559</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037597713375304</v>
+        <v>1.047187362322132</v>
       </c>
       <c r="J22">
-        <v>1.016772520072435</v>
+        <v>1.018690283584448</v>
       </c>
       <c r="K22">
-        <v>1.022655772348728</v>
+        <v>1.031926033564661</v>
       </c>
       <c r="L22">
-        <v>1.014142753537693</v>
+        <v>1.023673686698619</v>
       </c>
       <c r="M22">
-        <v>1.010304355492768</v>
+        <v>1.036581507671525</v>
       </c>
       <c r="N22">
-        <v>1.008922957370036</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.010143852075703</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.037524193760167</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.033713297221649</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9875524563880677</v>
+        <v>0.9888577965098332</v>
       </c>
       <c r="D23">
-        <v>1.00883699305255</v>
+        <v>1.017661285375724</v>
       </c>
       <c r="E23">
-        <v>1.000485021229818</v>
+        <v>1.009368530286064</v>
       </c>
       <c r="F23">
-        <v>0.9970032290255285</v>
+        <v>1.022485082801508</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03831026643424</v>
+        <v>1.047531549494324</v>
       </c>
       <c r="J23">
-        <v>1.018175630132425</v>
+        <v>1.01942319597724</v>
       </c>
       <c r="K23">
-        <v>1.023926592583964</v>
+        <v>1.032585900683845</v>
       </c>
       <c r="L23">
-        <v>1.015734287002765</v>
+        <v>1.02444808518319</v>
       </c>
       <c r="M23">
-        <v>1.012320093176252</v>
+        <v>1.037321076565362</v>
       </c>
       <c r="N23">
-        <v>1.009405343810079</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.010389089510878</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.038109515142553</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.034170212496924</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9958906127171209</v>
+        <v>0.994552807538891</v>
       </c>
       <c r="D24">
-        <v>1.015021987311397</v>
+        <v>1.021480291129061</v>
       </c>
       <c r="E24">
-        <v>1.007946183699096</v>
+        <v>1.013660853259472</v>
       </c>
       <c r="F24">
-        <v>1.006133791033059</v>
+        <v>1.026614590667239</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041023028573604</v>
+        <v>1.048840199718609</v>
       </c>
       <c r="J24">
-        <v>1.023547772980014</v>
+        <v>1.022262167169114</v>
       </c>
       <c r="K24">
-        <v>1.028790337499903</v>
+        <v>1.035140404860839</v>
       </c>
       <c r="L24">
-        <v>1.02183517778675</v>
+        <v>1.027452242186222</v>
       </c>
       <c r="M24">
-        <v>1.020054039912119</v>
+        <v>1.040189906777221</v>
       </c>
       <c r="N24">
-        <v>1.011251935912892</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.011340736441326</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.040380005871244</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.035968867700936</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.005136500284997</v>
+        <v>1.000949262942835</v>
       </c>
       <c r="D25">
-        <v>1.021900177329268</v>
+        <v>1.025780838601052</v>
       </c>
       <c r="E25">
-        <v>1.016250220662437</v>
+        <v>1.01851340373692</v>
       </c>
       <c r="F25">
-        <v>1.016296260895031</v>
+        <v>1.031284607638077</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043992474462197</v>
+        <v>1.050251111629892</v>
       </c>
       <c r="J25">
-        <v>1.029492228644094</v>
+        <v>1.025444722780295</v>
       </c>
       <c r="K25">
-        <v>1.034167774290894</v>
+        <v>1.037991701223675</v>
       </c>
       <c r="L25">
-        <v>1.028601403653098</v>
+        <v>1.03083096347917</v>
       </c>
       <c r="M25">
-        <v>1.028646757985914</v>
+        <v>1.043415933740378</v>
       </c>
       <c r="N25">
-        <v>1.013294242530076</v>
+        <v>1.012407628554776</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.042933185829015</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.037982017699227</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_37/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.005873135630947</v>
+        <v>1.00549019752755</v>
       </c>
       <c r="D2">
-        <v>1.029085607113934</v>
+        <v>1.028193459456047</v>
       </c>
       <c r="E2">
-        <v>1.022269070673951</v>
+        <v>1.021877182213743</v>
       </c>
       <c r="F2">
-        <v>1.034899604682493</v>
+        <v>1.034352736325788</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.051279313424016</v>
+        <v>1.0508263104953</v>
       </c>
       <c r="J2">
-        <v>1.027879590103312</v>
+        <v>1.027507928636525</v>
       </c>
       <c r="K2">
-        <v>1.040154075874629</v>
+        <v>1.039273505636703</v>
       </c>
       <c r="L2">
-        <v>1.033426640542113</v>
+        <v>1.03303991989374</v>
       </c>
       <c r="M2">
-        <v>1.045893236088891</v>
+        <v>1.045353362180561</v>
       </c>
       <c r="N2">
-        <v>1.013221364471042</v>
+        <v>1.01451090961107</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.044893795313721</v>
+        <v>1.04446652377191</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.039462688670405</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.038848814896421</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.0225350100716</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.009373035455469</v>
+        <v>1.008872055976113</v>
       </c>
       <c r="D3">
-        <v>1.031444769653019</v>
+        <v>1.030400489023185</v>
       </c>
       <c r="E3">
-        <v>1.024953468733536</v>
+        <v>1.02445658345462</v>
       </c>
       <c r="F3">
-        <v>1.03748394056309</v>
+        <v>1.036829690046449</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.05198573996747</v>
+        <v>1.051454943577816</v>
       </c>
       <c r="J3">
-        <v>1.02961140292388</v>
+        <v>1.029123747464994</v>
       </c>
       <c r="K3">
-        <v>1.041690516794926</v>
+        <v>1.040658622627023</v>
       </c>
       <c r="L3">
-        <v>1.035276718497019</v>
+        <v>1.034785815985758</v>
       </c>
       <c r="M3">
-        <v>1.047658660680841</v>
+        <v>1.04701205539927</v>
       </c>
       <c r="N3">
-        <v>1.013801613068037</v>
+        <v>1.014941268640207</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.04629100073017</v>
+        <v>1.045779259893864</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.040546421361379</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.039825272738058</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.02280244314893</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011599920883228</v>
+        <v>1.011024583317669</v>
       </c>
       <c r="D4">
-        <v>1.032947250877639</v>
+        <v>1.031806691272804</v>
       </c>
       <c r="E4">
-        <v>1.026667315900219</v>
+        <v>1.026104173818511</v>
       </c>
       <c r="F4">
-        <v>1.039134055541821</v>
+        <v>1.038411956005173</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.052421489338768</v>
+        <v>1.051841362984858</v>
       </c>
       <c r="J4">
-        <v>1.030711483009555</v>
+        <v>1.030150422378453</v>
       </c>
       <c r="K4">
-        <v>1.042663651124859</v>
+        <v>1.04153581440101</v>
       </c>
       <c r="L4">
-        <v>1.036454200594757</v>
+        <v>1.035897431033043</v>
       </c>
       <c r="M4">
-        <v>1.048782040198399</v>
+        <v>1.048067874229132</v>
       </c>
       <c r="N4">
-        <v>1.014170226303218</v>
+        <v>1.015214768805101</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.047180072693315</v>
+        <v>1.046614863170697</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.041235402903929</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.040446497091308</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022969337923222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012529576262774</v>
+        <v>1.011923392902257</v>
       </c>
       <c r="D5">
-        <v>1.033576342781725</v>
+        <v>1.03239579672482</v>
       </c>
       <c r="E5">
-        <v>1.027384540758815</v>
+        <v>1.026793892889008</v>
       </c>
       <c r="F5">
-        <v>1.039824712929068</v>
+        <v>1.039074445887202</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.052601187962073</v>
+        <v>1.052000550595522</v>
       </c>
       <c r="J5">
-        <v>1.031171365436361</v>
+        <v>1.030579779499046</v>
       </c>
       <c r="K5">
-        <v>1.043070862839162</v>
+        <v>1.041903139403808</v>
       </c>
       <c r="L5">
-        <v>1.036946716705741</v>
+        <v>1.036362575044447</v>
       </c>
       <c r="M5">
-        <v>1.049251959611937</v>
+        <v>1.048509717995991</v>
       </c>
       <c r="N5">
-        <v>1.014324599795538</v>
+        <v>1.015329370206867</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.047551978903168</v>
+        <v>1.046964549870653</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.041530490515835</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.04071409183214</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023038967858513</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012687921892137</v>
+        <v>1.012076525697772</v>
       </c>
       <c r="D6">
-        <v>1.033685397295089</v>
+        <v>1.032498152444505</v>
       </c>
       <c r="E6">
-        <v>1.027507238478126</v>
+        <v>1.026911945867184</v>
       </c>
       <c r="F6">
-        <v>1.039942955028563</v>
+        <v>1.039187954700714</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.052632975205859</v>
+        <v>1.052028900324704</v>
       </c>
       <c r="J6">
-        <v>1.031250998307535</v>
+        <v>1.030654250134998</v>
       </c>
       <c r="K6">
-        <v>1.043142661990204</v>
+        <v>1.04196825418251</v>
       </c>
       <c r="L6">
-        <v>1.037031702712311</v>
+        <v>1.036442937523224</v>
       </c>
       <c r="M6">
-        <v>1.049333153120048</v>
+        <v>1.048586192195034</v>
       </c>
       <c r="N6">
-        <v>1.014351661085386</v>
+        <v>1.015349504367546</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.047616237497488</v>
+        <v>1.047025073532783</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.04158998456867</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.040769727364062</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023051694379141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.011619770323315</v>
+        <v>1.011050863514157</v>
       </c>
       <c r="D7">
-        <v>1.032965701815962</v>
+        <v>1.031829178685215</v>
       </c>
       <c r="E7">
-        <v>1.026683844294349</v>
+        <v>1.026125904597445</v>
       </c>
       <c r="F7">
-        <v>1.039150187973949</v>
+        <v>1.038431943771428</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.052429008415112</v>
+        <v>1.051850932737363</v>
       </c>
       <c r="J7">
-        <v>1.030724856559917</v>
+        <v>1.030170061087193</v>
       </c>
       <c r="K7">
-        <v>1.042679022988858</v>
+        <v>1.041555172869484</v>
       </c>
       <c r="L7">
-        <v>1.036467645035128</v>
+        <v>1.035916016590803</v>
       </c>
       <c r="M7">
-        <v>1.048795144767888</v>
+        <v>1.04808478881292</v>
       </c>
       <c r="N7">
-        <v>1.014175611848055</v>
+        <v>1.015246532417694</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.047190443986397</v>
+        <v>1.046628249817242</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.041266343502764</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.04048225328682</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022974606055421</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.007073008724248</v>
+        <v>1.006671039288656</v>
       </c>
       <c r="D8">
-        <v>1.029900150228072</v>
+        <v>1.028970241416094</v>
       </c>
       <c r="E8">
-        <v>1.023189669357716</v>
+        <v>1.022779286716614</v>
       </c>
       <c r="F8">
-        <v>1.035786040748602</v>
+        <v>1.035215666972549</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.051528703481828</v>
+        <v>1.051056363436608</v>
       </c>
       <c r="J8">
-        <v>1.028478008753444</v>
+        <v>1.028087482904937</v>
       </c>
       <c r="K8">
-        <v>1.040689781731371</v>
+        <v>1.039771586089477</v>
       </c>
       <c r="L8">
-        <v>1.034064423036378</v>
+        <v>1.033659291376386</v>
       </c>
       <c r="M8">
-        <v>1.046502140978953</v>
+        <v>1.045938847195949</v>
       </c>
       <c r="N8">
-        <v>1.013423026783357</v>
+        <v>1.014744671514681</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.045375699635629</v>
+        <v>1.044929893227607</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.039864349137942</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.039226135966962</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022634447986931</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9987484092695631</v>
+        <v>0.9986349224217622</v>
       </c>
       <c r="D9">
-        <v>1.024292841638025</v>
+        <v>1.023729698672201</v>
       </c>
       <c r="E9">
-        <v>1.016837974416409</v>
+        <v>1.016683157821209</v>
       </c>
       <c r="F9">
-        <v>1.02967197484095</v>
+        <v>1.029361721930229</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.04976835921277</v>
+        <v>1.049482977462453</v>
       </c>
       <c r="J9">
-        <v>1.024345441978277</v>
+        <v>1.024235977358411</v>
       </c>
       <c r="K9">
-        <v>1.037003707098562</v>
+        <v>1.036449162384704</v>
       </c>
       <c r="L9">
-        <v>1.029663649006761</v>
+        <v>1.029511239479154</v>
       </c>
       <c r="M9">
-        <v>1.042301313446221</v>
+        <v>1.041995733284593</v>
       </c>
       <c r="N9">
-        <v>1.012037580053806</v>
+        <v>1.013727880069744</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.042051041028381</v>
+        <v>1.041809195297598</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.037254884348823</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.036873518406518</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021978078955336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9930245477915124</v>
+        <v>0.9931433021718273</v>
       </c>
       <c r="D10">
-        <v>1.020465703602998</v>
+        <v>1.020176409315614</v>
       </c>
       <c r="E10">
-        <v>1.012529962366913</v>
+        <v>1.012577617963511</v>
       </c>
       <c r="F10">
-        <v>1.025565216745138</v>
+        <v>1.025454425277959</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.048503336201692</v>
+        <v>1.048356950149981</v>
       </c>
       <c r="J10">
-        <v>1.02151768014726</v>
+        <v>1.021631629282245</v>
       </c>
       <c r="K10">
-        <v>1.03447502031491</v>
+        <v>1.034190683902544</v>
       </c>
       <c r="L10">
-        <v>1.026676610717094</v>
+        <v>1.026723433290496</v>
       </c>
       <c r="M10">
-        <v>1.039487731447899</v>
+        <v>1.039378813992952</v>
       </c>
       <c r="N10">
-        <v>1.011094067626486</v>
+        <v>1.013154176366178</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.039875632186485</v>
+        <v>1.039789436599828</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.035483751306788</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.035295118960772</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021525232591623</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9908402408015142</v>
+        <v>0.9910815346702131</v>
       </c>
       <c r="D11">
-        <v>1.01913381591933</v>
+        <v>1.018965934830188</v>
       </c>
       <c r="E11">
-        <v>1.011090994680115</v>
+        <v>1.011240679810637</v>
       </c>
       <c r="F11">
-        <v>1.024504143456026</v>
+        <v>1.024487901887747</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.0481091348662</v>
+        <v>1.048024237761212</v>
       </c>
       <c r="J11">
-        <v>1.02059910435723</v>
+        <v>1.020830097113808</v>
       </c>
       <c r="K11">
-        <v>1.033703697607938</v>
+        <v>1.033538830594007</v>
       </c>
       <c r="L11">
-        <v>1.025806738844559</v>
+        <v>1.025953681732383</v>
       </c>
       <c r="M11">
-        <v>1.038978284353983</v>
+        <v>1.038962330373207</v>
       </c>
       <c r="N11">
-        <v>1.010821709034033</v>
+        <v>1.013193649291513</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.0399079526062</v>
+        <v>1.039895333200233</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.034971235023143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.034870287038873</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021423334093497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9901392978069133</v>
+        <v>0.9904204156239647</v>
       </c>
       <c r="D12">
-        <v>1.018752735111487</v>
+        <v>1.018621864685434</v>
       </c>
       <c r="E12">
-        <v>1.010709412759875</v>
+        <v>1.010890937768314</v>
       </c>
       <c r="F12">
-        <v>1.024370357723922</v>
+        <v>1.024383784648599</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.048018474383732</v>
+        <v>1.047952308237005</v>
       </c>
       <c r="J12">
-        <v>1.020366923633107</v>
+        <v>1.020635807799051</v>
       </c>
       <c r="K12">
-        <v>1.033529270198744</v>
+        <v>1.033400788735625</v>
       </c>
       <c r="L12">
-        <v>1.025634273784224</v>
+        <v>1.025812417345266</v>
       </c>
       <c r="M12">
-        <v>1.039045094241262</v>
+        <v>1.039058279590873</v>
       </c>
       <c r="N12">
-        <v>1.010770722485574</v>
+        <v>1.013261881997365</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.040286677881278</v>
+        <v>1.040297103814233</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.034847909200513</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.03477268899693</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021414679009619</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9905444847977201</v>
+        <v>0.9907942645612146</v>
       </c>
       <c r="D13">
-        <v>1.01909278949204</v>
+        <v>1.018929672712501</v>
       </c>
       <c r="E13">
-        <v>1.011127489048494</v>
+        <v>1.011281002837569</v>
       </c>
       <c r="F13">
-        <v>1.024960772807326</v>
+        <v>1.024949785887574</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.048168605777774</v>
+        <v>1.048086131529709</v>
       </c>
       <c r="J13">
-        <v>1.02066037408999</v>
+        <v>1.020899335992778</v>
       </c>
       <c r="K13">
-        <v>1.033820283057481</v>
+        <v>1.033660131471618</v>
       </c>
       <c r="L13">
-        <v>1.026001235725392</v>
+        <v>1.026151902410718</v>
       </c>
       <c r="M13">
-        <v>1.039582411361721</v>
+        <v>1.039571621168582</v>
       </c>
       <c r="N13">
-        <v>1.010892244063563</v>
+        <v>1.013325305225757</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.040987786396032</v>
+        <v>1.040979256502238</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.035051172131234</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.034953314072776</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021481928751902</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9913297131567406</v>
+        <v>0.9915260633233234</v>
       </c>
       <c r="D14">
-        <v>1.019658383678189</v>
+        <v>1.019441926996874</v>
       </c>
       <c r="E14">
-        <v>1.011782191360543</v>
+        <v>1.011889781469311</v>
       </c>
       <c r="F14">
-        <v>1.025702177390405</v>
+        <v>1.025650211148113</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.048382877929079</v>
+        <v>1.048273415756539</v>
       </c>
       <c r="J14">
-        <v>1.021103864670912</v>
+        <v>1.021291831685714</v>
       </c>
       <c r="K14">
-        <v>1.034235351504009</v>
+        <v>1.034022781119424</v>
       </c>
       <c r="L14">
-        <v>1.026501963660097</v>
+        <v>1.026607583533909</v>
       </c>
       <c r="M14">
-        <v>1.040171492934863</v>
+        <v>1.040120445304103</v>
       </c>
       <c r="N14">
-        <v>1.011055508383756</v>
+        <v>1.013368886604665</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.041626523621331</v>
+        <v>1.041586174741691</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.035346063635025</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.035211276983978</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021563718047576</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9917657369668733</v>
+        <v>0.9919339753239168</v>
       </c>
       <c r="D15">
-        <v>1.019959617149803</v>
+        <v>1.019715207493826</v>
       </c>
       <c r="E15">
-        <v>1.012122962666896</v>
+        <v>1.012206670379978</v>
       </c>
       <c r="F15">
-        <v>1.026053086952941</v>
+        <v>1.025979558169797</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.048490796369779</v>
+        <v>1.048367185728296</v>
       </c>
       <c r="J15">
-        <v>1.021331939561798</v>
+        <v>1.021493057431416</v>
       </c>
       <c r="K15">
-        <v>1.034444798058567</v>
+        <v>1.034204743432296</v>
       </c>
       <c r="L15">
-        <v>1.026749144343551</v>
+        <v>1.026831330939591</v>
       </c>
       <c r="M15">
-        <v>1.04043056000323</v>
+        <v>1.040358321029442</v>
       </c>
       <c r="N15">
-        <v>1.011135100882715</v>
+        <v>1.013383067975394</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.041868776374496</v>
+        <v>1.041811679012382</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.035500019200408</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.03534636831041</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021602410446294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9941127413719203</v>
+        <v>0.9941422008675553</v>
       </c>
       <c r="D16">
-        <v>1.02152300572603</v>
+        <v>1.021137982589888</v>
       </c>
       <c r="E16">
-        <v>1.013871720557465</v>
+        <v>1.01383805664638</v>
       </c>
       <c r="F16">
-        <v>1.027707317650024</v>
+        <v>1.027525707801013</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.04901957225738</v>
+        <v>1.048824730858167</v>
       </c>
       <c r="J16">
-        <v>1.022484362147672</v>
+        <v>1.02251263696017</v>
       </c>
       <c r="K16">
-        <v>1.035478663775306</v>
+        <v>1.035100203026243</v>
       </c>
       <c r="L16">
-        <v>1.027958997838317</v>
+        <v>1.027925918703357</v>
       </c>
       <c r="M16">
-        <v>1.041558438047589</v>
+        <v>1.041379874953511</v>
       </c>
       <c r="N16">
-        <v>1.011515493863005</v>
+        <v>1.013444469107499</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.042721587936802</v>
+        <v>1.042580448447481</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.036234164472052</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.035982952381252</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021781699436751</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9955035300302262</v>
+        <v>0.9954621580930135</v>
       </c>
       <c r="D17">
-        <v>1.022426748191875</v>
+        <v>1.021966783987093</v>
       </c>
       <c r="E17">
-        <v>1.014871555476233</v>
+        <v>1.014777830690147</v>
       </c>
       <c r="F17">
-        <v>1.028584263217414</v>
+        <v>1.028345753323619</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.049309393918638</v>
+        <v>1.049076541981512</v>
       </c>
       <c r="J17">
-        <v>1.023135604349628</v>
+        <v>1.023095842737069</v>
       </c>
       <c r="K17">
-        <v>1.036052658800649</v>
+        <v>1.035600314828026</v>
       </c>
       <c r="L17">
-        <v>1.028623761890583</v>
+        <v>1.028531619082495</v>
       </c>
       <c r="M17">
-        <v>1.04210900553747</v>
+        <v>1.041874385388638</v>
       </c>
       <c r="N17">
-        <v>1.011721555305517</v>
+        <v>1.013497329177345</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.043027937323599</v>
+        <v>1.042842470895464</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.036642586702769</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.036339382487926</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021876440270145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.996193375091517</v>
+        <v>0.9961242912021919</v>
       </c>
       <c r="D18">
-        <v>1.022830008678997</v>
+        <v>1.022339405919196</v>
       </c>
       <c r="E18">
-        <v>1.015298667390367</v>
+        <v>1.015181769348162</v>
       </c>
       <c r="F18">
-        <v>1.02883534477666</v>
+        <v>1.028573600945843</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.049414649453727</v>
+        <v>1.049166234058043</v>
       </c>
       <c r="J18">
-        <v>1.02340096751294</v>
+        <v>1.023334522005154</v>
       </c>
       <c r="K18">
-        <v>1.03626596849025</v>
+        <v>1.035783360329647</v>
       </c>
       <c r="L18">
-        <v>1.028858449657791</v>
+        <v>1.028743492174791</v>
       </c>
       <c r="M18">
-        <v>1.042174237343532</v>
+        <v>1.041916693906664</v>
       </c>
       <c r="N18">
-        <v>1.011790249966884</v>
+        <v>1.01350568207409</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.042842243311375</v>
+        <v>1.042638613789566</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.036781773445254</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.036456036562208</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021900443143666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.996249629649634</v>
+        <v>0.9961874364359372</v>
       </c>
       <c r="D19">
-        <v>1.022785375507194</v>
+        <v>1.022301972820121</v>
       </c>
       <c r="E19">
-        <v>1.015204963952165</v>
+        <v>1.01509496473399</v>
       </c>
       <c r="F19">
-        <v>1.028517661599847</v>
+        <v>1.028260915744499</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.049358120920396</v>
+        <v>1.049113335053708</v>
       </c>
       <c r="J19">
-        <v>1.023319613355426</v>
+        <v>1.023259781056846</v>
       </c>
       <c r="K19">
-        <v>1.036159563383752</v>
+        <v>1.035683996756729</v>
       </c>
       <c r="L19">
-        <v>1.028703137254444</v>
+        <v>1.028594954726599</v>
       </c>
       <c r="M19">
-        <v>1.04179964778353</v>
+        <v>1.041547003397984</v>
       </c>
       <c r="N19">
-        <v>1.011738202050451</v>
+        <v>1.013456754883806</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.042221212649359</v>
+        <v>1.042021391573538</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.036712932940143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.036392798863184</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021861819485473</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9945252941689632</v>
+        <v>0.9945634518816088</v>
       </c>
       <c r="D20">
-        <v>1.021480407105217</v>
+        <v>1.021106823767612</v>
       </c>
       <c r="E20">
-        <v>1.013661383457419</v>
+        <v>1.013639908374963</v>
       </c>
       <c r="F20">
-        <v>1.026645803835945</v>
+        <v>1.026470762537654</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.048848441252875</v>
+        <v>1.048659332450769</v>
       </c>
       <c r="J20">
-        <v>1.022268900092312</v>
+        <v>1.022305563973332</v>
       </c>
       <c r="K20">
-        <v>1.035155780312535</v>
+        <v>1.034788417876766</v>
       </c>
       <c r="L20">
-        <v>1.027468193408543</v>
+        <v>1.02744708292393</v>
       </c>
       <c r="M20">
-        <v>1.040235759801472</v>
+        <v>1.040063594962919</v>
       </c>
       <c r="N20">
-        <v>1.011347492013678</v>
+        <v>1.013236721101664</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.040457085436669</v>
+        <v>1.040320835216493</v>
       </c>
       <c r="Q20">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R20">
-        <v>1.036007139002815</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.035763900868196</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021647416720278</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9901647992985633</v>
+        <v>0.9904786440422322</v>
       </c>
       <c r="D21">
-        <v>1.018542913365653</v>
+        <v>1.018444203382339</v>
       </c>
       <c r="E21">
-        <v>1.010353130140372</v>
+        <v>1.010566904317314</v>
       </c>
       <c r="F21">
-        <v>1.023432120225386</v>
+        <v>1.02347058026192</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.047839987289492</v>
+        <v>1.047790074073719</v>
       </c>
       <c r="J21">
-        <v>1.020079560276109</v>
+        <v>1.020379914522007</v>
       </c>
       <c r="K21">
-        <v>1.033181299049497</v>
+        <v>1.033084371906581</v>
       </c>
       <c r="L21">
-        <v>1.025140978564925</v>
+        <v>1.025350811256936</v>
       </c>
       <c r="M21">
-        <v>1.037982758730701</v>
+        <v>1.038020532834811</v>
       </c>
       <c r="N21">
-        <v>1.010610569996906</v>
+        <v>1.01313860107465</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.038633193764477</v>
+        <v>1.038663089512267</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.034614334781403</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.034562636619758</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021301176957381</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9873863028287804</v>
+        <v>0.9878741957764664</v>
       </c>
       <c r="D22">
-        <v>1.016677883424632</v>
+        <v>1.016752801426539</v>
       </c>
       <c r="E22">
-        <v>1.008264186253639</v>
+        <v>1.00862644353567</v>
       </c>
       <c r="F22">
-        <v>1.021422821222559</v>
+        <v>1.021596271337068</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.047187362322132</v>
+        <v>1.047225219612052</v>
       </c>
       <c r="J22">
-        <v>1.018690283584448</v>
+        <v>1.019155985256172</v>
       </c>
       <c r="K22">
-        <v>1.031926033564661</v>
+        <v>1.031999530538408</v>
       </c>
       <c r="L22">
-        <v>1.023673686698619</v>
+        <v>1.024028924257004</v>
       </c>
       <c r="M22">
-        <v>1.036581507671525</v>
+        <v>1.036751708016811</v>
       </c>
       <c r="N22">
-        <v>1.010143852075703</v>
+        <v>1.013069436845296</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.037524193760167</v>
+        <v>1.037658896468282</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.033713297221649</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.033780799551421</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021079087413526</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9888577965098332</v>
+        <v>0.9892422495972001</v>
       </c>
       <c r="D23">
-        <v>1.017661285375724</v>
+        <v>1.017636579612376</v>
       </c>
       <c r="E23">
-        <v>1.009368530286064</v>
+        <v>1.009642915529965</v>
       </c>
       <c r="F23">
-        <v>1.022485082801508</v>
+        <v>1.022579959890219</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.047531549494324</v>
+        <v>1.047519060848443</v>
       </c>
       <c r="J23">
-        <v>1.01942319597724</v>
+        <v>1.019790674764097</v>
       </c>
       <c r="K23">
-        <v>1.032585900683845</v>
+        <v>1.032561651627414</v>
       </c>
       <c r="L23">
-        <v>1.02444808518319</v>
+        <v>1.024717290686897</v>
       </c>
       <c r="M23">
-        <v>1.037321076565362</v>
+        <v>1.037414221510786</v>
       </c>
       <c r="N23">
-        <v>1.010389089510878</v>
+        <v>1.01306211436191</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.038109515142553</v>
+        <v>1.038183233363417</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.034170212496924</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.034167660705151</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021192886127426</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.994552807538891</v>
+        <v>0.9945907935706007</v>
       </c>
       <c r="D24">
-        <v>1.021480291129061</v>
+        <v>1.021106282824079</v>
       </c>
       <c r="E24">
-        <v>1.013660853259472</v>
+        <v>1.013639414152103</v>
       </c>
       <c r="F24">
-        <v>1.026614590667239</v>
+        <v>1.026439298890701</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.048840199718609</v>
+        <v>1.048650872690281</v>
       </c>
       <c r="J24">
-        <v>1.022262167169114</v>
+        <v>1.022298668297986</v>
       </c>
       <c r="K24">
-        <v>1.035140404860839</v>
+        <v>1.034772616558638</v>
       </c>
       <c r="L24">
-        <v>1.027452242186222</v>
+        <v>1.027431166598931</v>
       </c>
       <c r="M24">
-        <v>1.040189906777221</v>
+        <v>1.040017492116754</v>
       </c>
       <c r="N24">
-        <v>1.011340736441326</v>
+        <v>1.013227680635545</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.040380005871244</v>
+        <v>1.040243551191907</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.035968867700936</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.035722657645989</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021640051617015</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.000949262942835</v>
+        <v>1.000750239990221</v>
       </c>
       <c r="D25">
-        <v>1.025780838601052</v>
+        <v>1.025114965993901</v>
       </c>
       <c r="E25">
-        <v>1.01851340373692</v>
+        <v>1.018283561506633</v>
       </c>
       <c r="F25">
-        <v>1.031284607638077</v>
+        <v>1.030900018471605</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.050251111629892</v>
+        <v>1.049913470735403</v>
       </c>
       <c r="J25">
-        <v>1.025444722780295</v>
+        <v>1.025252381919363</v>
       </c>
       <c r="K25">
-        <v>1.037991701223675</v>
+        <v>1.037335524788709</v>
       </c>
       <c r="L25">
-        <v>1.03083096347917</v>
+        <v>1.030604527261167</v>
       </c>
       <c r="M25">
-        <v>1.043415933740378</v>
+        <v>1.04303686742825</v>
       </c>
       <c r="N25">
-        <v>1.012407628554776</v>
+        <v>1.01396696675902</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.042933185829015</v>
+        <v>1.042633181204967</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.037982017699227</v>
+        <v>1.037531592748673</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022156462444995</v>
       </c>
     </row>
   </sheetData>
